--- a/Industrials/Lockheed Martin.xlsx
+++ b/Industrials/Lockheed Martin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Value/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E16D8F4-4B1E-F441-8C32-80F14F78E88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6956BEE3-B72E-6E4F-BA5E-DBE764709D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -510,9 +547,6 @@
   </si>
   <si>
     <t>Buy/Sell</t>
-  </si>
-  <si>
-    <t>Lockheed Martin</t>
   </si>
   <si>
     <t>Net Cash</t>
@@ -900,10 +934,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -919,19 +949,6 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="37" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="16" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -958,14 +975,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -974,6 +987,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -992,12 +1011,29 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="12" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2308,6 +2344,446 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1wzw7&amp;q=XNYS%3aLMT&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>LOCKHEED MARTIN CORPORATION (XNYS:LMT)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>a1wzw7</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>508.1</v>
+    <v>373.67</v>
+    <v>0.6673</v>
+    <v>11.77</v>
+    <v>2.4038E-2</v>
+    <v>0.56999999999999995</v>
+    <v>1.137E-3</v>
+    <v>USD</v>
+    <v>Lockheed Martin Corporation is a security and aerospace company. It operates through four segments. Aeronautics segment is engaged in the research, design, development, manufacture, support and upgrade of military aircraft, including combat and air mobility aircraft, unmanned air vehicles and related technologies. Missiles and Fire Control segment provides air and missile defense systems; fire control systems; manned and unmanned ground vehicles, and energy management solutions. Rotary and Mission Systems segment provides design, manufacture, service and support for various military and commercial helicopters, surface ships, sea and land-based missile defense systems, radar systems, sea and air-based mission and combat systems, command and control mission solutions, cyber solutions, and simulation and training solutions. Space segment is engaged in the research and development, design, engineering and production of satellites, space transportation systems, strike and defensive systems.</v>
+    <v>116000</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>6801 ROCKLEDGE DR, BETHESDA, MD, 20817 US</v>
+    <v>508.1</v>
+    <v>Aerospace &amp; Defense</v>
+    <v>Stock</v>
+    <v>45034.998886816407</v>
+    <v>0</v>
+    <v>498</v>
+    <v>124622700000</v>
+    <v>LOCKHEED MARTIN CORPORATION</v>
+    <v>LOCKHEED MARTIN CORPORATION</v>
+    <v>499</v>
+    <v>22.367799999999999</v>
+    <v>489.64</v>
+    <v>501.41</v>
+    <v>501.98</v>
+    <v>254518900</v>
+    <v>LMT</v>
+    <v>LOCKHEED MARTIN CORPORATION (XNYS:LMT)</v>
+    <v>2561788</v>
+    <v>1496947</v>
+    <v>1994</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2608,10 +3084,10 @@
   <dimension ref="A1:AO118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AD50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AB66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL23" sqref="AL23"/>
+      <selection pane="bottomRight" activeCell="AJ135" sqref="AJ135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2622,8 +3098,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>159</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>1992</v>
@@ -2718,19 +3194,19 @@
       <c r="AF1" s="8">
         <v>2022</v>
       </c>
-      <c r="AG1" s="27">
+      <c r="AG1" s="25">
         <v>2023</v>
       </c>
-      <c r="AH1" s="27">
+      <c r="AH1" s="25">
         <v>2024</v>
       </c>
-      <c r="AI1" s="27">
+      <c r="AI1" s="25">
         <v>2025</v>
       </c>
-      <c r="AJ1" s="27">
+      <c r="AJ1" s="25">
         <v>2026</v>
       </c>
-      <c r="AK1" s="27">
+      <c r="AK1" s="25">
         <v>2027</v>
       </c>
     </row>
@@ -2940,19 +3416,19 @@
       <c r="AF3" s="1">
         <v>65984000000</v>
       </c>
-      <c r="AG3" s="28">
+      <c r="AG3" s="26">
         <v>65500000000</v>
       </c>
-      <c r="AH3" s="28">
+      <c r="AH3" s="26">
         <v>67736000000</v>
       </c>
-      <c r="AI3" s="28">
+      <c r="AI3" s="26">
         <v>70487000000</v>
       </c>
-      <c r="AJ3" s="28">
+      <c r="AJ3" s="26">
         <v>74364000000</v>
       </c>
-      <c r="AK3" s="28">
+      <c r="AK3" s="26">
         <v>77438000000</v>
       </c>
       <c r="AL3" s="18" t="s">
@@ -4463,21 +4939,21 @@
       <c r="AF16" s="1">
         <v>57623000000</v>
       </c>
-      <c r="AL16" s="29">
+      <c r="AL16" s="27">
         <f>(AF35+AE35+AD35+AC35+AB35)/5</f>
         <v>-9.2423078964431332E-3</v>
       </c>
-      <c r="AM16" s="30">
+      <c r="AM16" s="28">
         <f>AN101/AF3</f>
-        <v>1.8410978419010668</v>
-      </c>
-      <c r="AN16" s="30">
+        <v>1.8886805892337537</v>
+      </c>
+      <c r="AN16" s="28">
         <f>AN101/AF28</f>
-        <v>21.193824145150035</v>
-      </c>
-      <c r="AO16" s="31">
+        <v>21.741573621772506</v>
+      </c>
+      <c r="AO16" s="29">
         <f>AN101/AF106</f>
-        <v>19.811317677756033</v>
+        <v>20.323336594911936</v>
       </c>
     </row>
     <row r="17" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -4676,7 +5152,7 @@
         <v>1404000000</v>
       </c>
       <c r="AL18" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -4776,7 +5252,7 @@
       <c r="AF19" s="10">
         <v>8707000000</v>
       </c>
-      <c r="AL19" s="68">
+      <c r="AL19" s="49">
         <f>AF40-AF56-AF61</f>
         <v>-12882000000</v>
       </c>
@@ -5102,7 +5578,7 @@
       <c r="AF22" s="10">
         <v>8348000000</v>
       </c>
-      <c r="AG22" s="28">
+      <c r="AG22" s="26">
         <v>7300000000</v>
       </c>
     </row>
@@ -6113,7 +6589,7 @@
       <c r="AF32" s="12">
         <v>20.66</v>
       </c>
-      <c r="AG32" s="60">
+      <c r="AG32" s="47">
         <v>26.75</v>
       </c>
     </row>
@@ -11173,10 +11649,10 @@
       <c r="AF83" s="1">
         <v>-107000000</v>
       </c>
-      <c r="AM83" s="63" t="s">
+      <c r="AM83" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="AN83" s="64"/>
+      <c r="AN83" s="53"/>
     </row>
     <row r="84" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -11275,10 +11751,10 @@
       <c r="AF84" s="1">
         <v>1274000000</v>
       </c>
-      <c r="AM84" s="65" t="s">
+      <c r="AM84" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="AN84" s="66"/>
+      <c r="AN84" s="55"/>
     </row>
     <row r="85" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -11377,10 +11853,10 @@
       <c r="AF85" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AM85" s="23" t="s">
+      <c r="AM85" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="AN85" s="24">
+      <c r="AN85" s="57">
         <f>AF17</f>
         <v>623000000</v>
       </c>
@@ -11482,10 +11958,10 @@
       <c r="AF86" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AM86" s="23" t="s">
+      <c r="AM86" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="AN86" s="32">
+      <c r="AN86" s="58">
         <f>AF56</f>
         <v>0</v>
       </c>
@@ -11587,10 +12063,10 @@
       <c r="AF87" s="10">
         <v>7802000000</v>
       </c>
-      <c r="AM87" s="23" t="s">
+      <c r="AM87" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="AN87" s="24">
+      <c r="AN87" s="57">
         <f>AF61</f>
         <v>15429000000</v>
       </c>
@@ -11692,10 +12168,10 @@
       <c r="AF88" s="1">
         <v>0</v>
       </c>
-      <c r="AM88" s="33" t="s">
+      <c r="AM88" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="AN88" s="34">
+      <c r="AN88" s="60">
         <f>AN85/(AN86+AN87)</f>
         <v>4.0378508004407287E-2</v>
       </c>
@@ -11828,10 +12304,10 @@
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="AM89" s="23" t="s">
+      <c r="AM89" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="AN89" s="24">
+      <c r="AN89" s="57">
         <f>AF27</f>
         <v>948000000</v>
       </c>
@@ -11933,10 +12409,10 @@
       <c r="AF90" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AM90" s="23" t="s">
+      <c r="AM90" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="AN90" s="24">
+      <c r="AN90" s="57">
         <f>AF25</f>
         <v>6680000000</v>
       </c>
@@ -12038,10 +12514,10 @@
       <c r="AF91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AM91" s="33" t="s">
+      <c r="AM91" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="AN91" s="34">
+      <c r="AN91" s="60">
         <f>AN89/AN90</f>
         <v>0.14191616766467066</v>
       </c>
@@ -12143,10 +12619,10 @@
       <c r="AF92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AM92" s="35" t="s">
+      <c r="AM92" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="AN92" s="36">
+      <c r="AN92" s="62">
         <f>AN88*(1-AN91)</f>
         <v>3.464814489240458E-2</v>
       </c>
@@ -12248,10 +12724,10 @@
       <c r="AF93" s="1">
         <v>-1789000000</v>
       </c>
-      <c r="AM93" s="65" t="s">
+      <c r="AM93" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="AN93" s="66"/>
+      <c r="AN93" s="64"/>
     </row>
     <row r="94" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -12350,10 +12826,10 @@
       <c r="AF94" s="10">
         <v>-1789000000</v>
       </c>
-      <c r="AM94" s="23" t="s">
+      <c r="AM94" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="AN94" s="37">
+      <c r="AN94" s="65">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -12454,11 +12930,12 @@
       <c r="AF95" s="1">
         <v>-2250000000</v>
       </c>
-      <c r="AM95" s="23" t="s">
+      <c r="AM95" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="AN95" s="38">
-        <v>0.68</v>
+      <c r="AN95" s="66" cm="1">
+        <f t="array" ref="AN95">_FV(A1,"Beta")</f>
+        <v>0.6673</v>
       </c>
     </row>
     <row r="96" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -12558,10 +13035,10 @@
       <c r="AF96" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AM96" s="23" t="s">
+      <c r="AM96" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="AN96" s="37">
+      <c r="AN96" s="65">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -12662,12 +13139,12 @@
       <c r="AF97" s="1">
         <v>-7900000000</v>
       </c>
-      <c r="AM97" s="35" t="s">
+      <c r="AM97" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="AN97" s="36">
+      <c r="AN97" s="62">
         <f>(AN94)+((AN95)*(AN96-AN94))</f>
-        <v>7.0224000000000009E-2</v>
+        <v>6.9677265000000002E-2</v>
       </c>
     </row>
     <row r="98" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -12767,10 +13244,10 @@
       <c r="AF98" s="1">
         <v>-3016000000</v>
       </c>
-      <c r="AM98" s="65" t="s">
+      <c r="AM98" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="AN98" s="66"/>
+      <c r="AN98" s="64"/>
     </row>
     <row r="99" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -12869,10 +13346,10 @@
       <c r="AF99" s="1">
         <v>6096000000</v>
       </c>
-      <c r="AM99" s="23" t="s">
+      <c r="AM99" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="AN99" s="24">
+      <c r="AN99" s="57">
         <f>AN86+AN87</f>
         <v>15429000000</v>
       </c>
@@ -12974,12 +13451,12 @@
       <c r="AF100" s="10">
         <v>-7070000000</v>
       </c>
-      <c r="AM100" s="33" t="s">
+      <c r="AM100" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="AN100" s="34">
+      <c r="AN100" s="60">
         <f>AN99/AN103</f>
-        <v>0.11269282458805656</v>
+        <v>0.1101664599572872</v>
       </c>
     </row>
     <row r="101" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -13079,11 +13556,12 @@
       <c r="AF101" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AM101" s="23" t="s">
+      <c r="AM101" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="AN101" s="39">
-        <v>121483000000</v>
+      <c r="AN101" s="41" cm="1">
+        <f t="array" ref="AN101">_FV(A1,"Market cap",TRUE)</f>
+        <v>124622700000</v>
       </c>
     </row>
     <row r="102" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -13183,12 +13661,12 @@
       <c r="AF102" s="10">
         <v>-1057000000</v>
       </c>
-      <c r="AM102" s="33" t="s">
+      <c r="AM102" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="AN102" s="34">
+      <c r="AN102" s="60">
         <f>AN101/AN103</f>
-        <v>0.88730717541194348</v>
+        <v>0.88983354004271276</v>
       </c>
     </row>
     <row r="103" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -13288,12 +13766,12 @@
       <c r="AF103" s="1">
         <v>3604000000</v>
       </c>
-      <c r="AM103" s="35" t="s">
+      <c r="AM103" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="AN103" s="40">
+      <c r="AN103" s="67">
         <f>AN99+AN101</f>
-        <v>136912000000</v>
+        <v>140051700000</v>
       </c>
     </row>
     <row r="104" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -13393,10 +13871,10 @@
       <c r="AF104" s="11">
         <v>2547000000</v>
       </c>
-      <c r="AM104" s="65" t="s">
+      <c r="AM104" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="AN104" s="66"/>
+      <c r="AN104" s="55"/>
     </row>
     <row r="105" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -13529,12 +14007,12 @@
       <c r="AJ105" s="15"/>
       <c r="AK105" s="15"/>
       <c r="AL105" s="15"/>
-      <c r="AM105" s="25" t="s">
+      <c r="AM105" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="AN105" s="26">
+      <c r="AN105" s="24">
         <f>(AN100*AN92)+(AN102*AN97)</f>
-        <v>6.621485640078964E-2</v>
+        <v>6.5818230842327588E-2</v>
       </c>
     </row>
     <row r="106" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -13634,33 +14112,33 @@
       <c r="AF106" s="1">
         <v>6132000000</v>
       </c>
-      <c r="AG106" s="41">
+      <c r="AG106" s="30">
         <f>AF106*(1+$AN$106)</f>
         <v>6332830490.7802515</v>
       </c>
-      <c r="AH106" s="41">
+      <c r="AH106" s="30">
         <f t="shared" ref="AH106:AK106" si="79">AG106*(1+$AN$106)</f>
         <v>6540238425.4657602</v>
       </c>
-      <c r="AI106" s="41">
+      <c r="AI106" s="30">
         <f t="shared" si="79"/>
         <v>6754439223.3793526</v>
       </c>
-      <c r="AJ106" s="41">
+      <c r="AJ106" s="30">
         <f t="shared" si="79"/>
         <v>6975655359.0898314</v>
       </c>
-      <c r="AK106" s="41">
+      <c r="AK106" s="30">
         <f t="shared" si="79"/>
         <v>7204116593.4799004</v>
       </c>
-      <c r="AL106" s="42" t="s">
+      <c r="AL106" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="AM106" s="43" t="s">
+      <c r="AM106" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="AN106" s="44">
+      <c r="AN106" s="33">
         <f>(SUM(AG4:AK4)/5)</f>
         <v>3.2751221588429892E-2</v>
       </c>
@@ -13698,140 +14176,141 @@
       <c r="AD107" s="13"/>
       <c r="AE107" s="13"/>
       <c r="AF107" s="13"/>
-      <c r="AG107" s="42"/>
-      <c r="AH107" s="42"/>
-      <c r="AI107" s="42"/>
-      <c r="AJ107" s="42"/>
-      <c r="AK107" s="45">
+      <c r="AG107" s="31"/>
+      <c r="AH107" s="31"/>
+      <c r="AI107" s="31"/>
+      <c r="AJ107" s="31"/>
+      <c r="AK107" s="34">
         <f>AK106*(1+AN107)/(AN108-AN107)</f>
-        <v>159000795363.8031</v>
-      </c>
-      <c r="AL107" s="46" t="s">
+        <v>160377185898.69952</v>
+      </c>
+      <c r="AL107" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="AM107" s="47" t="s">
+      <c r="AM107" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="AN107" s="48">
+      <c r="AN107" s="37">
         <v>0.02</v>
       </c>
     </row>
     <row r="108" spans="1:40" ht="19" x14ac:dyDescent="0.25">
-      <c r="AG108" s="45">
+      <c r="AG108" s="34">
         <f t="shared" ref="AG108:AI108" si="80">AG107+AG106</f>
         <v>6332830490.7802515</v>
       </c>
-      <c r="AH108" s="45">
+      <c r="AH108" s="34">
         <f t="shared" si="80"/>
         <v>6540238425.4657602</v>
       </c>
-      <c r="AI108" s="45">
+      <c r="AI108" s="34">
         <f t="shared" si="80"/>
         <v>6754439223.3793526</v>
       </c>
-      <c r="AJ108" s="45">
+      <c r="AJ108" s="34">
         <f>AJ107+AJ106</f>
         <v>6975655359.0898314</v>
       </c>
-      <c r="AK108" s="45">
+      <c r="AK108" s="34">
         <f>AK107+AK106</f>
-        <v>166204911957.28299</v>
-      </c>
-      <c r="AL108" s="46" t="s">
+        <v>167581302492.17941</v>
+      </c>
+      <c r="AL108" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="AM108" s="49" t="s">
+      <c r="AM108" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="AN108" s="50">
+      <c r="AN108" s="39">
         <f>AN105</f>
-        <v>6.621485640078964E-2</v>
+        <v>6.5818230842327588E-2</v>
       </c>
     </row>
     <row r="109" spans="1:40" ht="19" x14ac:dyDescent="0.25">
-      <c r="AG109" s="61" t="s">
+      <c r="AG109" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="AH109" s="62"/>
+      <c r="AH109" s="51"/>
     </row>
     <row r="110" spans="1:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG110" s="51" t="s">
+      <c r="AG110" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="AH110" s="52">
+      <c r="AH110" s="41">
         <f>NPV(AN108,AG108,AH108,AI108,AJ108,AK108)</f>
-        <v>143283150329.14563</v>
+        <v>144529257323.29361</v>
       </c>
     </row>
     <row r="111" spans="1:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG111" s="51" t="s">
+      <c r="AG111" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="AH111" s="52">
+      <c r="AH111" s="41">
         <f>AF40</f>
         <v>2547000000</v>
       </c>
     </row>
     <row r="112" spans="1:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG112" s="51" t="s">
+      <c r="AG112" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="AH112" s="52">
+      <c r="AH112" s="41">
         <f>AN99</f>
         <v>15429000000</v>
       </c>
     </row>
     <row r="113" spans="33:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG113" s="51" t="s">
+      <c r="AG113" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="AH113" s="52">
+      <c r="AH113" s="41">
         <f>AH110+AH111-AH112</f>
-        <v>130401150329.14563</v>
+        <v>131647257323.29361</v>
       </c>
     </row>
     <row r="114" spans="33:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG114" s="51" t="s">
+      <c r="AG114" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="AH114" s="67">
+      <c r="AH114" s="48">
         <f>AF34*(1+(5*AL16))</f>
         <v>264580918.94763336</v>
       </c>
     </row>
     <row r="115" spans="33:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG115" s="54" t="s">
+      <c r="AG115" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="AH115" s="55">
+      <c r="AH115" s="43">
         <f>AH113/AH114</f>
-        <v>492.8592388590011</v>
+        <v>497.56897756239795</v>
       </c>
     </row>
     <row r="116" spans="33:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG116" s="53" t="s">
+      <c r="AG116" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="AH116" s="56">
-        <v>475.8</v>
+      <c r="AH116" s="68" cm="1">
+        <f t="array" ref="AH116">_FV(A1,"Price")</f>
+        <v>501.41</v>
       </c>
     </row>
     <row r="117" spans="33:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG117" s="57" t="s">
+      <c r="AG117" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="AH117" s="58">
+      <c r="AH117" s="45">
         <f>AH115/AH116-1</f>
-        <v>3.5853801721313694E-2</v>
+        <v>-7.6604424275584782E-3</v>
       </c>
     </row>
     <row r="118" spans="33:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG118" s="57" t="s">
+      <c r="AG118" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="AH118" s="59" t="str">
+      <c r="AH118" s="46" t="str">
         <f>IF(AH115&gt;AH116,"BUY","SELL")</f>
-        <v>BUY</v>
+        <v>SELL</v>
       </c>
     </row>
   </sheetData>

--- a/Industrials/Lockheed Martin.xlsx
+++ b/Industrials/Lockheed Martin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6956BEE3-B72E-6E4F-BA5E-DBE764709D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81FAD66-D259-8440-8009-39658BD1EA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="163">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -550,6 +550,15 @@
   </si>
   <si>
     <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Forward P/E</t>
+  </si>
+  <si>
+    <t>Employees</t>
   </si>
 </sst>
 </file>
@@ -562,7 +571,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -679,8 +688,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -722,8 +738,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -771,128 +793,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -918,122 +824,90 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="37" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="9" fontId="12" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1041,6 +915,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5907"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2466,11 +2345,11 @@
     <v>Powered by Refinitiv</v>
     <v>508.1</v>
     <v>373.67</v>
-    <v>0.6673</v>
-    <v>11.77</v>
-    <v>2.4038E-2</v>
-    <v>0.56999999999999995</v>
-    <v>1.137E-3</v>
+    <v>0.6694</v>
+    <v>-1.26</v>
+    <v>-2.7650000000000001E-3</v>
+    <v>2.4900000000000002</v>
+    <v>5.4790000000000004E-3</v>
     <v>USD</v>
     <v>Lockheed Martin Corporation is a security and aerospace company. It operates through four segments. Aeronautics segment is engaged in the research, design, development, manufacture, support and upgrade of military aircraft, including combat and air mobility aircraft, unmanned air vehicles and related technologies. Missiles and Fire Control segment provides air and missile defense systems; fire control systems; manned and unmanned ground vehicles, and energy management solutions. Rotary and Mission Systems segment provides design, manufacture, service and support for various military and commercial helicopters, surface ships, sea and land-based missile defense systems, radar systems, sea and air-based mission and combat systems, command and control mission solutions, cyber solutions, and simulation and training solutions. Space segment is engaged in the research and development, design, engineering and production of satellites, space transportation systems, strike and defensive systems.</v>
     <v>116000</v>
@@ -2478,25 +2357,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>6801 ROCKLEDGE DR, BETHESDA, MD, 20817 US</v>
-    <v>508.1</v>
+    <v>458.27</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>45034.998886816407</v>
+    <v>45065.999659247653</v>
     <v>0</v>
-    <v>498</v>
-    <v>124622700000</v>
+    <v>452.86</v>
+    <v>115676300000</v>
     <v>LOCKHEED MARTIN CORPORATION</v>
     <v>LOCKHEED MARTIN CORPORATION</v>
-    <v>499</v>
-    <v>22.367799999999999</v>
-    <v>489.64</v>
-    <v>501.41</v>
-    <v>501.98</v>
+    <v>457.03</v>
+    <v>20.7621</v>
+    <v>455.75</v>
+    <v>454.49</v>
+    <v>456.98</v>
     <v>254518900</v>
     <v>LMT</v>
     <v>LOCKHEED MARTIN CORPORATION (XNYS:LMT)</v>
-    <v>2561788</v>
-    <v>1496947</v>
+    <v>804256</v>
+    <v>1073518</v>
     <v>1994</v>
   </rv>
   <rv s="2">
@@ -3084,10 +2963,10 @@
   <dimension ref="A1:AO118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AB66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AJ135" sqref="AJ135"/>
+      <selection pane="bottomRight" activeCell="AI20" sqref="AI20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3194,19 +3073,19 @@
       <c r="AF1" s="8">
         <v>2022</v>
       </c>
-      <c r="AG1" s="25">
+      <c r="AG1" s="18">
         <v>2023</v>
       </c>
-      <c r="AH1" s="25">
+      <c r="AH1" s="18">
         <v>2024</v>
       </c>
-      <c r="AI1" s="25">
+      <c r="AI1" s="18">
         <v>2025</v>
       </c>
-      <c r="AJ1" s="25">
+      <c r="AJ1" s="18">
         <v>2026</v>
       </c>
-      <c r="AK1" s="25">
+      <c r="AK1" s="18">
         <v>2027</v>
       </c>
     </row>
@@ -3416,31 +3295,31 @@
       <c r="AF3" s="1">
         <v>65984000000</v>
       </c>
-      <c r="AG3" s="26">
+      <c r="AG3" s="19">
         <v>65500000000</v>
       </c>
-      <c r="AH3" s="26">
+      <c r="AH3" s="19">
         <v>67736000000</v>
       </c>
-      <c r="AI3" s="26">
+      <c r="AI3" s="19">
         <v>70487000000</v>
       </c>
-      <c r="AJ3" s="26">
+      <c r="AJ3" s="19">
         <v>74364000000</v>
       </c>
-      <c r="AK3" s="26">
+      <c r="AK3" s="19">
         <v>77438000000</v>
       </c>
-      <c r="AL3" s="18" t="s">
+      <c r="AL3" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="AM3" s="19" t="s">
+      <c r="AM3" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="AN3" s="19" t="s">
+      <c r="AN3" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="AO3" s="19" t="s">
+      <c r="AO3" s="27" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3589,19 +3468,19 @@
         <f t="shared" si="10"/>
         <v>4.1337206175031005E-2</v>
       </c>
-      <c r="AL4" s="17">
+      <c r="AL4" s="28">
         <f>(AF4+AE4+AD4)/3</f>
         <v>3.4250361051318436E-2</v>
       </c>
-      <c r="AM4" s="17">
+      <c r="AM4" s="28">
         <f>(AF20+AE20+AD20)/3</f>
         <v>-1.0535508636902891E-2</v>
       </c>
-      <c r="AN4" s="17">
+      <c r="AN4" s="28">
         <f>(AF29+AE29+AD29)/3</f>
         <v>-2.3779574072930448E-2</v>
       </c>
-      <c r="AO4" s="17">
+      <c r="AO4" s="28">
         <f>(AF105+AE105+AD105)/3</f>
         <v>3.2500563967780303E-2</v>
       </c>
@@ -3801,16 +3680,16 @@
       <c r="AF6" s="10">
         <v>8287000000</v>
       </c>
-      <c r="AL6" s="18" t="s">
+      <c r="AL6" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="AM6" s="19" t="s">
+      <c r="AM6" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="AN6" s="19" t="s">
+      <c r="AN6" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="AO6" s="19" t="s">
+      <c r="AO6" s="27" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3911,19 +3790,19 @@
       <c r="AF7" s="2">
         <v>0.12559999999999999</v>
       </c>
-      <c r="AL7" s="17">
+      <c r="AL7" s="28">
         <f>AF7</f>
         <v>0.12559999999999999</v>
       </c>
-      <c r="AM7" s="20">
+      <c r="AM7" s="28">
         <f>AF21</f>
         <v>0.13200000000000001</v>
       </c>
-      <c r="AN7" s="20">
+      <c r="AN7" s="28">
         <f>AF30</f>
         <v>8.6900000000000005E-2</v>
       </c>
-      <c r="AO7" s="20">
+      <c r="AO7" s="28">
         <f>AF106/AF3</f>
         <v>9.2931619786614933E-2</v>
       </c>
@@ -4154,16 +4033,16 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AL9" s="18" t="s">
+      <c r="AL9" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="AM9" s="19" t="s">
+      <c r="AM9" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="AN9" s="19" t="s">
+      <c r="AN9" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="AO9" s="19" t="s">
+      <c r="AO9" s="27" t="s">
         <v>99</v>
       </c>
     </row>
@@ -4264,19 +4143,19 @@
       <c r="AF10" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AL10" s="17">
+      <c r="AL10" s="28">
         <f>AF9</f>
         <v>0</v>
       </c>
-      <c r="AM10" s="20">
+      <c r="AM10" s="28">
         <f>AF13</f>
         <v>0</v>
       </c>
-      <c r="AN10" s="20">
+      <c r="AN10" s="28">
         <f>AF80</f>
         <v>3.6069350145489817E-3</v>
       </c>
-      <c r="AO10" s="20">
+      <c r="AO10" s="28">
         <f>AF89</f>
         <v>0</v>
       </c>
@@ -4476,16 +4355,16 @@
       <c r="AF12" s="1">
         <v>0</v>
       </c>
-      <c r="AL12" s="18" t="s">
+      <c r="AL12" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="AM12" s="19" t="s">
+      <c r="AM12" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="AN12" s="19" t="s">
+      <c r="AN12" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="AO12" s="19" t="s">
+      <c r="AO12" s="27" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4617,19 +4496,19 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AL13" s="17">
+      <c r="AL13" s="28">
         <f>AF28/AF72</f>
         <v>0.6186056550830995</v>
       </c>
-      <c r="AM13" s="20">
+      <c r="AM13" s="28">
         <f>AF28/AF54</f>
         <v>0.1083963691376702</v>
       </c>
-      <c r="AN13" s="20">
+      <c r="AN13" s="28">
         <f>AF22/(AF72+AF56+AF61)</f>
         <v>0.33804413848957277</v>
       </c>
-      <c r="AO13" s="21">
+      <c r="AO13" s="29">
         <f>AF67/AF72</f>
         <v>4.7068853874379455</v>
       </c>
@@ -4829,16 +4708,16 @@
       <c r="AF15" s="1">
         <v>-74000000</v>
       </c>
-      <c r="AL15" s="18" t="s">
+      <c r="AL15" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="AM15" s="19" t="s">
+      <c r="AM15" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="AN15" s="19" t="s">
+      <c r="AN15" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="AO15" s="19" t="s">
+      <c r="AO15" s="27" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4939,24 +4818,24 @@
       <c r="AF16" s="1">
         <v>57623000000</v>
       </c>
-      <c r="AL16" s="27">
+      <c r="AL16" s="28">
         <f>(AF35+AE35+AD35+AC35+AB35)/5</f>
         <v>-9.2423078964431332E-3</v>
       </c>
-      <c r="AM16" s="28">
+      <c r="AM16" s="29">
         <f>AN101/AF3</f>
-        <v>1.8886805892337537</v>
-      </c>
-      <c r="AN16" s="28">
+        <v>1.7530962051406402</v>
+      </c>
+      <c r="AN16" s="29">
         <f>AN101/AF28</f>
-        <v>21.741573621772506</v>
+        <v>20.180792044661548</v>
       </c>
       <c r="AO16" s="29">
         <f>AN101/AF106</f>
-        <v>20.323336594911936</v>
+        <v>18.864367253750814</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -5054,7 +4933,7 @@
         <v>623000000</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -5151,11 +5030,17 @@
       <c r="AF18" s="1">
         <v>1404000000</v>
       </c>
-      <c r="AL18" s="18" t="s">
+      <c r="AL18" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="AM18" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN18" s="27" t="s">
+        <v>161</v>
+      </c>
     </row>
-    <row r="19" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -5252,12 +5137,20 @@
       <c r="AF19" s="10">
         <v>8707000000</v>
       </c>
-      <c r="AL19" s="49">
+      <c r="AL19" s="30">
         <f>AF40-AF56-AF61</f>
         <v>-12882000000</v>
       </c>
+      <c r="AM19" s="29">
+        <f>AN101/AG3</f>
+        <v>1.7660503816793893</v>
+      </c>
+      <c r="AN19" s="29">
+        <f>AH116/AG32</f>
+        <v>16.990280373831776</v>
+      </c>
     </row>
-    <row r="20" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>101</v>
       </c>
@@ -5383,7 +5276,7 @@
         <v>-8.1830644310872058E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -5480,8 +5373,15 @@
       <c r="AF21" s="2">
         <v>0.13200000000000001</v>
       </c>
+      <c r="AL21" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM21" s="26" cm="1">
+        <f t="array" ref="AM21">_FV(A1,"Employees")</f>
+        <v>116000</v>
+      </c>
     </row>
-    <row r="22" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -5578,11 +5478,11 @@
       <c r="AF22" s="10">
         <v>8348000000</v>
       </c>
-      <c r="AG22" s="26">
+      <c r="AG22" s="19">
         <v>7300000000</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -5680,7 +5580,7 @@
         <v>0.1265</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -5778,7 +5678,7 @@
         <v>-1668000000</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -5876,7 +5776,7 @@
         <v>6680000000</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -5974,7 +5874,7 @@
         <v>0.1012</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -6072,7 +5972,7 @@
         <v>948000000</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -6170,7 +6070,7 @@
         <v>5732000000</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>102</v>
       </c>
@@ -6296,7 +6196,7 @@
         <v>-9.2319873317498025E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -6394,7 +6294,7 @@
         <v>8.6900000000000005E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -6492,7 +6392,7 @@
         <v>20.74</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -6589,7 +6489,7 @@
       <c r="AF32" s="12">
         <v>20.66</v>
       </c>
-      <c r="AG32" s="47">
+      <c r="AG32" s="24">
         <v>26.75</v>
       </c>
     </row>
@@ -6794,123 +6694,123 @@
         <v>103</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="22">
+      <c r="C35" s="17">
         <f>(C34-B34)/B34</f>
         <v>0.12748597654258031</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="17">
         <f t="shared" ref="D35:Q35" si="45">(D34-C34)/C34</f>
         <v>-1.2663952962460425E-2</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="17">
         <f t="shared" si="45"/>
         <v>2.2446174988547871E-2</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="17">
         <f t="shared" si="45"/>
         <v>-8.960573476702509E-4</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="17">
         <f t="shared" si="45"/>
         <v>-4.2600896860986545E-2</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H35" s="17">
         <f t="shared" si="45"/>
         <v>-0.10749414519906324</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I35" s="17">
         <f t="shared" si="45"/>
         <v>7.8719496195224347E-3</v>
       </c>
-      <c r="J35" s="22">
+      <c r="J35" s="17">
         <f t="shared" si="45"/>
         <v>4.7450093725592293E-2</v>
       </c>
-      <c r="K35" s="22">
+      <c r="K35" s="17">
         <f t="shared" si="45"/>
         <v>7.5000001056358387E-2</v>
       </c>
-      <c r="L35" s="22">
+      <c r="L35" s="17">
         <f t="shared" si="45"/>
         <v>4.5086705202312137E-2</v>
       </c>
-      <c r="M35" s="22">
+      <c r="M35" s="17">
         <f t="shared" si="45"/>
         <v>-4.4247787610619468E-3</v>
       </c>
-      <c r="N35" s="22">
+      <c r="N35" s="17">
         <f t="shared" si="45"/>
         <v>-6.4444444444444445E-3</v>
       </c>
-      <c r="O35" s="22">
+      <c r="O35" s="17">
         <f t="shared" si="45"/>
         <v>-3.1312905390293E-3</v>
       </c>
-      <c r="P35" s="22">
+      <c r="P35" s="17">
         <f t="shared" si="45"/>
         <v>-2.0866053399147409E-2</v>
       </c>
-      <c r="Q35" s="22">
+      <c r="Q35" s="17">
         <f t="shared" si="45"/>
         <v>-2.1310724106324473E-2</v>
       </c>
-      <c r="R35" s="22">
+      <c r="R35" s="17">
         <f t="shared" ref="R35" si="46">(R34-Q34)/Q34</f>
         <v>-4.0739873565909621E-2</v>
       </c>
-      <c r="S35" s="22">
+      <c r="S35" s="17">
         <f t="shared" ref="S35" si="47">(S34-R34)/R34</f>
         <v>-5.0768855259946302E-2</v>
       </c>
-      <c r="T35" s="22">
+      <c r="T35" s="17">
         <f t="shared" ref="T35" si="48">(T34-S34)/S34</f>
         <v>-5.2969915145281564E-2</v>
       </c>
-      <c r="U35" s="22">
+      <c r="U35" s="17">
         <f t="shared" ref="U35" si="49">(U34-T34)/T34</f>
         <v>-7.7111050773825685E-2</v>
       </c>
-      <c r="V35" s="22">
+      <c r="V35" s="17">
         <f t="shared" ref="V35" si="50">(V34-U34)/U34</f>
         <v>-3.3833480435422184E-2</v>
       </c>
-      <c r="W35" s="22">
+      <c r="W35" s="17">
         <f t="shared" ref="W35" si="51">(W34-V34)/V34</f>
         <v>-5.7856272838002435E-3</v>
       </c>
-      <c r="X35" s="22">
+      <c r="X35" s="17">
         <f t="shared" ref="X35" si="52">(X34-W34)/W34</f>
         <v>-1.2557427258805513E-2</v>
       </c>
-      <c r="Y35" s="22">
+      <c r="Y35" s="17">
         <f t="shared" ref="Y35" si="53">(Y34-X34)/X34</f>
         <v>-2.3883374689826303E-2</v>
       </c>
-      <c r="Z35" s="22">
+      <c r="Z35" s="17">
         <f t="shared" ref="Z35" si="54">(Z34-Y34)/Y34</f>
         <v>-3.6860502065459169E-2</v>
       </c>
-      <c r="AA35" s="22">
+      <c r="AA35" s="17">
         <f t="shared" ref="AA35" si="55">(AA34-Z34)/Z34</f>
         <v>-4.1240514681623229E-2</v>
       </c>
-      <c r="AB35" s="22">
+      <c r="AB35" s="17">
         <f t="shared" ref="AB35" si="56">(AB34-AA34)/AA34</f>
         <v>-1.307639366827254E-2</v>
       </c>
-      <c r="AC35" s="22">
+      <c r="AC35" s="17">
         <f t="shared" ref="AC35" si="57">(AC34-AB34)/AB34</f>
         <v>-1.0460251046025104E-2</v>
       </c>
-      <c r="AD35" s="22">
+      <c r="AD35" s="17">
         <f t="shared" ref="AD35" si="58">(AD34-AC34)/AC34</f>
         <v>-9.161381254404511E-3</v>
       </c>
-      <c r="AE35" s="22">
+      <c r="AE35" s="17">
         <f t="shared" ref="AE35" si="59">(AE34-AD34)/AD34</f>
         <v>-1.3513513513513514E-2</v>
       </c>
-      <c r="AF35" s="22">
+      <c r="AF35" s="17">
         <f t="shared" ref="AF35" si="60">(AF34-AE34)/AE34</f>
         <v>0</v>
       </c>
@@ -11649,10 +11549,10 @@
       <c r="AF83" s="1">
         <v>-107000000</v>
       </c>
-      <c r="AM83" s="52" t="s">
+      <c r="AM83" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="AN83" s="53"/>
+      <c r="AN83" s="56"/>
     </row>
     <row r="84" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -11751,10 +11651,10 @@
       <c r="AF84" s="1">
         <v>1274000000</v>
       </c>
-      <c r="AM84" s="54" t="s">
+      <c r="AM84" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="AN84" s="55"/>
+      <c r="AN84" s="57"/>
     </row>
     <row r="85" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -11853,10 +11753,10 @@
       <c r="AF85" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AM85" s="56" t="s">
+      <c r="AM85" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="AN85" s="57">
+      <c r="AN85" s="32">
         <f>AF17</f>
         <v>623000000</v>
       </c>
@@ -11958,10 +11858,10 @@
       <c r="AF86" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AM86" s="56" t="s">
+      <c r="AM86" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="AN86" s="58">
+      <c r="AN86" s="33">
         <f>AF56</f>
         <v>0</v>
       </c>
@@ -12063,10 +11963,10 @@
       <c r="AF87" s="10">
         <v>7802000000</v>
       </c>
-      <c r="AM87" s="56" t="s">
+      <c r="AM87" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="AN87" s="57">
+      <c r="AN87" s="32">
         <f>AF61</f>
         <v>15429000000</v>
       </c>
@@ -12168,10 +12068,10 @@
       <c r="AF88" s="1">
         <v>0</v>
       </c>
-      <c r="AM88" s="59" t="s">
+      <c r="AM88" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="AN88" s="60">
+      <c r="AN88" s="35">
         <f>AN85/(AN86+AN87)</f>
         <v>4.0378508004407287E-2</v>
       </c>
@@ -12304,10 +12204,10 @@
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="AM89" s="56" t="s">
+      <c r="AM89" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="AN89" s="57">
+      <c r="AN89" s="32">
         <f>AF27</f>
         <v>948000000</v>
       </c>
@@ -12409,10 +12309,10 @@
       <c r="AF90" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AM90" s="56" t="s">
+      <c r="AM90" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="AN90" s="57">
+      <c r="AN90" s="32">
         <f>AF25</f>
         <v>6680000000</v>
       </c>
@@ -12514,10 +12414,10 @@
       <c r="AF91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AM91" s="59" t="s">
+      <c r="AM91" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="AN91" s="60">
+      <c r="AN91" s="35">
         <f>AN89/AN90</f>
         <v>0.14191616766467066</v>
       </c>
@@ -12619,10 +12519,10 @@
       <c r="AF92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AM92" s="61" t="s">
+      <c r="AM92" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="AN92" s="62">
+      <c r="AN92" s="35">
         <f>AN88*(1-AN91)</f>
         <v>3.464814489240458E-2</v>
       </c>
@@ -12724,10 +12624,10 @@
       <c r="AF93" s="1">
         <v>-1789000000</v>
       </c>
-      <c r="AM93" s="63" t="s">
+      <c r="AM93" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="AN93" s="64"/>
+      <c r="AN93" s="58"/>
     </row>
     <row r="94" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -12826,10 +12726,10 @@
       <c r="AF94" s="10">
         <v>-1789000000</v>
       </c>
-      <c r="AM94" s="56" t="s">
+      <c r="AM94" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="AN94" s="65">
+      <c r="AN94" s="36">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -12930,12 +12830,12 @@
       <c r="AF95" s="1">
         <v>-2250000000</v>
       </c>
-      <c r="AM95" s="56" t="s">
+      <c r="AM95" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="AN95" s="66" cm="1">
+      <c r="AN95" s="37" cm="1">
         <f t="array" ref="AN95">_FV(A1,"Beta")</f>
-        <v>0.6673</v>
+        <v>0.6694</v>
       </c>
     </row>
     <row r="96" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -13035,10 +12935,10 @@
       <c r="AF96" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AM96" s="56" t="s">
+      <c r="AM96" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="AN96" s="65">
+      <c r="AN96" s="36">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -13139,12 +13039,12 @@
       <c r="AF97" s="1">
         <v>-7900000000</v>
       </c>
-      <c r="AM97" s="61" t="s">
+      <c r="AM97" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="AN97" s="62">
+      <c r="AN97" s="35">
         <f>(AN94)+((AN95)*(AN96-AN94))</f>
-        <v>6.9677265000000002E-2</v>
+        <v>6.9767670000000004E-2</v>
       </c>
     </row>
     <row r="98" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -13244,10 +13144,10 @@
       <c r="AF98" s="1">
         <v>-3016000000</v>
       </c>
-      <c r="AM98" s="63" t="s">
+      <c r="AM98" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="AN98" s="64"/>
+      <c r="AN98" s="58"/>
     </row>
     <row r="99" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -13346,10 +13246,10 @@
       <c r="AF99" s="1">
         <v>6096000000</v>
       </c>
-      <c r="AM99" s="56" t="s">
+      <c r="AM99" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="AN99" s="57">
+      <c r="AN99" s="32">
         <f>AN86+AN87</f>
         <v>15429000000</v>
       </c>
@@ -13451,12 +13351,12 @@
       <c r="AF100" s="10">
         <v>-7070000000</v>
       </c>
-      <c r="AM100" s="59" t="s">
+      <c r="AM100" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="AN100" s="60">
+      <c r="AN100" s="35">
         <f>AN99/AN103</f>
-        <v>0.1101664599572872</v>
+        <v>0.11768402955486926</v>
       </c>
     </row>
     <row r="101" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -13556,12 +13456,12 @@
       <c r="AF101" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AM101" s="56" t="s">
+      <c r="AM101" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="AN101" s="41" cm="1">
+      <c r="AN101" s="22" cm="1">
         <f t="array" ref="AN101">_FV(A1,"Market cap",TRUE)</f>
-        <v>124622700000</v>
+        <v>115676300000</v>
       </c>
     </row>
     <row r="102" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -13661,12 +13561,12 @@
       <c r="AF102" s="10">
         <v>-1057000000</v>
       </c>
-      <c r="AM102" s="59" t="s">
+      <c r="AM102" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="AN102" s="60">
+      <c r="AN102" s="35">
         <f>AN101/AN103</f>
-        <v>0.88983354004271276</v>
+        <v>0.88231597044513077</v>
       </c>
     </row>
     <row r="103" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -13766,12 +13666,12 @@
       <c r="AF103" s="1">
         <v>3604000000</v>
       </c>
-      <c r="AM103" s="61" t="s">
+      <c r="AM103" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="AN103" s="67">
+      <c r="AN103" s="38">
         <f>AN99+AN101</f>
-        <v>140051700000</v>
+        <v>131105300000</v>
       </c>
     </row>
     <row r="104" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -13871,10 +13771,10 @@
       <c r="AF104" s="11">
         <v>2547000000</v>
       </c>
-      <c r="AM104" s="54" t="s">
+      <c r="AM104" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="AN104" s="55"/>
+      <c r="AN104" s="57"/>
     </row>
     <row r="105" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -14007,12 +13907,12 @@
       <c r="AJ105" s="15"/>
       <c r="AK105" s="15"/>
       <c r="AL105" s="15"/>
-      <c r="AM105" s="23" t="s">
+      <c r="AM105" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="AN105" s="24">
+      <c r="AN105" s="40">
         <f>(AN100*AN92)+(AN102*AN97)</f>
-        <v>6.5818230842327588E-2</v>
+        <v>6.5634662769284771E-2</v>
       </c>
     </row>
     <row r="106" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -14112,205 +14012,300 @@
       <c r="AF106" s="1">
         <v>6132000000</v>
       </c>
-      <c r="AG106" s="30">
+      <c r="AG106" s="20">
         <f>AF106*(1+$AN$106)</f>
         <v>6332830490.7802515</v>
       </c>
-      <c r="AH106" s="30">
+      <c r="AH106" s="20">
         <f t="shared" ref="AH106:AK106" si="79">AG106*(1+$AN$106)</f>
         <v>6540238425.4657602</v>
       </c>
-      <c r="AI106" s="30">
+      <c r="AI106" s="20">
         <f t="shared" si="79"/>
         <v>6754439223.3793526</v>
       </c>
-      <c r="AJ106" s="30">
+      <c r="AJ106" s="20">
         <f t="shared" si="79"/>
         <v>6975655359.0898314</v>
       </c>
-      <c r="AK106" s="30">
+      <c r="AK106" s="20">
         <f t="shared" si="79"/>
         <v>7204116593.4799004</v>
       </c>
-      <c r="AL106" s="31" t="s">
+      <c r="AL106" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="AM106" s="32" t="s">
+      <c r="AM106" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="AN106" s="33">
+      <c r="AN106" s="42">
         <f>(SUM(AG4:AK4)/5)</f>
         <v>3.2751221588429892E-2</v>
       </c>
     </row>
     <row r="107" spans="1:40" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="13"/>
-      <c r="AC107" s="13"/>
-      <c r="AD107" s="13"/>
-      <c r="AE107" s="13"/>
-      <c r="AF107" s="13"/>
-      <c r="AG107" s="31"/>
-      <c r="AH107" s="31"/>
-      <c r="AI107" s="31"/>
-      <c r="AJ107" s="31"/>
-      <c r="AK107" s="34">
+      <c r="A107" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="B107" s="53">
+        <f t="shared" ref="B107:AE107" si="80">B106/B3</f>
+        <v>4.2420461634435434E-2</v>
+      </c>
+      <c r="C107" s="53">
+        <f t="shared" si="80"/>
+        <v>4.1210876456668301E-2</v>
+      </c>
+      <c r="D107" s="53">
+        <f t="shared" si="80"/>
+        <v>4.2958176896882916E-2</v>
+      </c>
+      <c r="E107" s="53">
+        <f t="shared" si="80"/>
+        <v>3.3299785586137484E-2</v>
+      </c>
+      <c r="F107" s="53">
+        <f t="shared" si="80"/>
+        <v>3.3451162790697674E-2</v>
+      </c>
+      <c r="G107" s="53">
+        <f t="shared" si="80"/>
+        <v>1.6316933271580746E-2</v>
+      </c>
+      <c r="H107" s="53">
+        <f t="shared" si="80"/>
+        <v>5.0788091068301226E-2</v>
+      </c>
+      <c r="I107" s="53">
+        <f t="shared" si="80"/>
+        <v>1.5981198589894243E-2</v>
+      </c>
+      <c r="J107" s="53">
+        <f t="shared" si="80"/>
+        <v>5.9852343163962256E-2</v>
+      </c>
+      <c r="K107" s="53">
+        <f t="shared" si="80"/>
+        <v>5.0270946227594829E-2</v>
+      </c>
+      <c r="L107" s="53">
+        <f t="shared" si="80"/>
+        <v>6.1178418240650165E-2</v>
+      </c>
+      <c r="M107" s="53">
+        <f t="shared" si="80"/>
+        <v>3.5256410256410256E-2</v>
+      </c>
+      <c r="N107" s="53">
+        <f t="shared" si="80"/>
+        <v>6.0659798457467773E-2</v>
+      </c>
+      <c r="O107" s="53">
+        <f t="shared" si="80"/>
+        <v>6.2585655550479666E-2</v>
+      </c>
+      <c r="P107" s="53">
+        <f t="shared" si="80"/>
+        <v>7.29429581019687E-2</v>
+      </c>
+      <c r="Q107" s="53">
+        <f t="shared" si="80"/>
+        <v>7.8854330896756003E-2</v>
+      </c>
+      <c r="R107" s="53">
+        <f t="shared" si="80"/>
+        <v>8.179073740375839E-2</v>
+      </c>
+      <c r="S107" s="53">
+        <f t="shared" si="80"/>
+        <v>5.1362057137799025E-2</v>
+      </c>
+      <c r="T107" s="53">
+        <f t="shared" si="80"/>
+        <v>5.9537584874353205E-2</v>
+      </c>
+      <c r="U107" s="53">
+        <f t="shared" si="80"/>
+        <v>7.0238069635906147E-2</v>
+      </c>
+      <c r="V107" s="53">
+        <f t="shared" si="80"/>
+        <v>1.3119409944470349E-2</v>
+      </c>
+      <c r="W107" s="53">
+        <f t="shared" si="80"/>
+        <v>8.1793729882269947E-2</v>
+      </c>
+      <c r="X107" s="53">
+        <f t="shared" si="80"/>
+        <v>6.6250000000000003E-2</v>
+      </c>
+      <c r="Y107" s="53">
+        <f t="shared" si="80"/>
+        <v>9.0219370502037627E-2</v>
+      </c>
+      <c r="Z107" s="53">
+        <f t="shared" si="80"/>
+        <v>8.7326447680325089E-2</v>
+      </c>
+      <c r="AA107" s="53">
+        <f t="shared" si="80"/>
+        <v>0.10380426265475631</v>
+      </c>
+      <c r="AB107" s="53">
+        <f t="shared" si="80"/>
+        <v>3.4596927197648897E-2</v>
+      </c>
+      <c r="AC107" s="53">
+        <f t="shared" si="80"/>
+        <v>9.7421922022336654E-2</v>
+      </c>
+      <c r="AD107" s="53">
+        <f t="shared" si="80"/>
+        <v>9.8122266735985814E-2</v>
+      </c>
+      <c r="AE107" s="53">
+        <f t="shared" si="80"/>
+        <v>0.11483503370920589</v>
+      </c>
+      <c r="AF107" s="53">
+        <f>AF106/AF3</f>
+        <v>9.2931619786614933E-2</v>
+      </c>
+      <c r="AG107" s="21"/>
+      <c r="AH107" s="21"/>
+      <c r="AI107" s="21"/>
+      <c r="AJ107" s="21"/>
+      <c r="AK107" s="22">
         <f>AK106*(1+AN107)/(AN108-AN107)</f>
-        <v>160377185898.69952</v>
-      </c>
-      <c r="AL107" s="35" t="s">
+        <v>161022312414.13571</v>
+      </c>
+      <c r="AL107" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="AM107" s="36" t="s">
+      <c r="AM107" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="AN107" s="37">
+      <c r="AN107" s="44">
         <v>0.02</v>
       </c>
     </row>
     <row r="108" spans="1:40" ht="19" x14ac:dyDescent="0.25">
-      <c r="AG108" s="34">
-        <f t="shared" ref="AG108:AI108" si="80">AG107+AG106</f>
+      <c r="AG108" s="22">
+        <f t="shared" ref="AG108:AI108" si="81">AG107+AG106</f>
         <v>6332830490.7802515</v>
       </c>
-      <c r="AH108" s="34">
-        <f t="shared" si="80"/>
+      <c r="AH108" s="22">
+        <f t="shared" si="81"/>
         <v>6540238425.4657602</v>
       </c>
-      <c r="AI108" s="34">
-        <f t="shared" si="80"/>
+      <c r="AI108" s="22">
+        <f t="shared" si="81"/>
         <v>6754439223.3793526</v>
       </c>
-      <c r="AJ108" s="34">
+      <c r="AJ108" s="22">
         <f>AJ107+AJ106</f>
         <v>6975655359.0898314</v>
       </c>
-      <c r="AK108" s="34">
+      <c r="AK108" s="22">
         <f>AK107+AK106</f>
-        <v>167581302492.17941</v>
-      </c>
-      <c r="AL108" s="35" t="s">
+        <v>168226429007.6156</v>
+      </c>
+      <c r="AL108" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="AM108" s="38" t="s">
+      <c r="AM108" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="AN108" s="39">
+      <c r="AN108" s="42">
         <f>AN105</f>
-        <v>6.5818230842327588E-2</v>
+        <v>6.5634662769284771E-2</v>
       </c>
     </row>
     <row r="109" spans="1:40" ht="19" x14ac:dyDescent="0.25">
-      <c r="AG109" s="50" t="s">
+      <c r="AG109" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="AH109" s="51"/>
+      <c r="AH109" s="54"/>
     </row>
     <row r="110" spans="1:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG110" s="40" t="s">
+      <c r="AG110" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="AH110" s="41">
+      <c r="AH110" s="22">
         <f>NPV(AN108,AG108,AH108,AI108,AJ108,AK108)</f>
-        <v>144529257323.29361</v>
+        <v>145113321681.79599</v>
       </c>
     </row>
     <row r="111" spans="1:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG111" s="40" t="s">
+      <c r="AG111" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="AH111" s="41">
+      <c r="AH111" s="22">
         <f>AF40</f>
         <v>2547000000</v>
       </c>
     </row>
     <row r="112" spans="1:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG112" s="40" t="s">
+      <c r="AG112" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="AH112" s="41">
+      <c r="AH112" s="22">
         <f>AN99</f>
         <v>15429000000</v>
       </c>
     </row>
     <row r="113" spans="33:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG113" s="40" t="s">
+      <c r="AG113" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="AH113" s="41">
+      <c r="AH113" s="22">
         <f>AH110+AH111-AH112</f>
-        <v>131647257323.29361</v>
+        <v>132231321681.79599</v>
       </c>
     </row>
     <row r="114" spans="33:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG114" s="40" t="s">
+      <c r="AG114" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="AH114" s="48">
+      <c r="AH114" s="46">
         <f>AF34*(1+(5*AL16))</f>
         <v>264580918.94763336</v>
       </c>
     </row>
     <row r="115" spans="33:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG115" s="42" t="s">
+      <c r="AG115" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="AH115" s="43">
+      <c r="AH115" s="48">
         <f>AH113/AH114</f>
-        <v>497.56897756239795</v>
+        <v>499.77648504564917</v>
       </c>
     </row>
     <row r="116" spans="33:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG116" s="40" t="s">
+      <c r="AG116" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="AH116" s="68" cm="1">
+      <c r="AH116" s="49" cm="1">
         <f t="array" ref="AH116">_FV(A1,"Price")</f>
-        <v>501.41</v>
+        <v>454.49</v>
       </c>
     </row>
     <row r="117" spans="33:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG117" s="44" t="s">
+      <c r="AG117" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="AH117" s="45">
+      <c r="AH117" s="51">
         <f>AH115/AH116-1</f>
-        <v>-7.6604424275584782E-3</v>
+        <v>9.9642423476092201E-2</v>
       </c>
     </row>
     <row r="118" spans="33:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG118" s="44" t="s">
+      <c r="AG118" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="AH118" s="46" t="str">
+      <c r="AH118" s="50" t="str">
         <f>IF(AH115&gt;AH116,"BUY","SELL")</f>
-        <v>SELL</v>
+        <v>BUY</v>
       </c>
     </row>
   </sheetData>
@@ -14322,6 +14317,26 @@
     <mergeCell ref="AM98:AN98"/>
     <mergeCell ref="AM104:AN104"/>
   </mergeCells>
+  <conditionalFormatting sqref="AH117">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FFFF5907"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH118">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/LMT" display="ROIC.AI | LMT" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B36" r:id="rId2" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000001000000}"/>

--- a/Industrials/Lockheed Martin.xlsx
+++ b/Industrials/Lockheed Martin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81FAD66-D259-8440-8009-39658BD1EA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A391E7-5930-314D-8106-EEC24F26C1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -565,11 +565,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -798,7 +799,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -885,10 +886,6 @@
     </xf>
     <xf numFmtId="167" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
@@ -907,6 +904,13 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2345,11 +2349,9 @@
     <v>Powered by Refinitiv</v>
     <v>508.1</v>
     <v>373.67</v>
-    <v>0.6694</v>
-    <v>-1.26</v>
-    <v>-2.7650000000000001E-3</v>
-    <v>2.4900000000000002</v>
-    <v>5.4790000000000004E-3</v>
+    <v>0.66910000000000003</v>
+    <v>5.1550000000000002</v>
+    <v>1.1464E-2</v>
     <v>USD</v>
     <v>Lockheed Martin Corporation is a security and aerospace company. It operates through four segments. Aeronautics segment is engaged in the research, design, development, manufacture, support and upgrade of military aircraft, including combat and air mobility aircraft, unmanned air vehicles and related technologies. Missiles and Fire Control segment provides air and missile defense systems; fire control systems; manned and unmanned ground vehicles, and energy management solutions. Rotary and Mission Systems segment provides design, manufacture, service and support for various military and commercial helicopters, surface ships, sea and land-based missile defense systems, radar systems, sea and air-based mission and combat systems, command and control mission solutions, cyber solutions, and simulation and training solutions. Space segment is engaged in the research and development, design, engineering and production of satellites, space transportation systems, strike and defensive systems.</v>
     <v>116000</v>
@@ -2357,25 +2359,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>6801 ROCKLEDGE DR, BETHESDA, MD, 20817 US</v>
-    <v>458.27</v>
+    <v>456.35500000000002</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>45065.999659247653</v>
+    <v>45079.811997626559</v>
     <v>0</v>
-    <v>452.86</v>
-    <v>115676300000</v>
+    <v>450.55500000000001</v>
+    <v>115761558692</v>
     <v>LOCKHEED MARTIN CORPORATION</v>
     <v>LOCKHEED MARTIN CORPORATION</v>
-    <v>457.03</v>
-    <v>20.7621</v>
-    <v>455.75</v>
-    <v>454.49</v>
-    <v>456.98</v>
+    <v>452.5</v>
+    <v>20.541899999999998</v>
+    <v>449.67</v>
+    <v>454.82499999999999</v>
     <v>254518900</v>
     <v>LMT</v>
     <v>LOCKHEED MARTIN CORPORATION (XNYS:LMT)</v>
-    <v>804256</v>
-    <v>1073518</v>
+    <v>556567</v>
+    <v>998738</v>
     <v>1994</v>
   </rv>
   <rv s="2">
@@ -2407,8 +2408,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2429,7 +2428,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2446,7 +2444,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2457,16 +2455,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2532,19 +2527,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2589,9 +2578,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2599,9 +2585,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2962,11 +2945,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AI20" sqref="AI20"/>
+      <selection pane="bottomRight" activeCell="AK13" sqref="AK13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3296,19 +3279,19 @@
         <v>65984000000</v>
       </c>
       <c r="AG3" s="19">
-        <v>65500000000</v>
+        <v>65769000000</v>
       </c>
       <c r="AH3" s="19">
-        <v>67736000000</v>
+        <v>67761000000</v>
       </c>
       <c r="AI3" s="19">
-        <v>70487000000</v>
+        <v>70519000000</v>
       </c>
       <c r="AJ3" s="19">
-        <v>74364000000</v>
+        <v>73745000000</v>
       </c>
       <c r="AK3" s="19">
-        <v>77438000000</v>
+        <v>77246000000</v>
       </c>
       <c r="AL3" s="27" t="s">
         <v>109</v>
@@ -3450,23 +3433,23 @@
       </c>
       <c r="AG4" s="16">
         <f t="shared" si="10"/>
-        <v>-7.3351115421920188E-3</v>
+        <v>-3.2583656644035175E-3</v>
       </c>
       <c r="AH4" s="16">
         <f t="shared" si="10"/>
-        <v>3.4137404580152575E-2</v>
+        <v>3.0287825571317706E-2</v>
       </c>
       <c r="AI4" s="16">
         <f t="shared" si="10"/>
-        <v>4.0613558521318094E-2</v>
+        <v>4.0701878661766999E-2</v>
       </c>
       <c r="AJ4" s="16">
         <f t="shared" si="10"/>
-        <v>5.5003050207839799E-2</v>
+        <v>4.5746536394446924E-2</v>
       </c>
       <c r="AK4" s="16">
         <f t="shared" si="10"/>
-        <v>4.1337206175031005E-2</v>
+        <v>4.7474405044409806E-2</v>
       </c>
       <c r="AL4" s="28">
         <f>(AF4+AE4+AD4)/3</f>
@@ -4822,17 +4805,17 @@
         <f>(AF35+AE35+AD35+AC35+AB35)/5</f>
         <v>-9.2423078964431332E-3</v>
       </c>
-      <c r="AM16" s="29">
+      <c r="AM16" s="57">
         <f>AN101/AF3</f>
-        <v>1.7530962051406402</v>
-      </c>
-      <c r="AN16" s="29">
+        <v>1.7543883167434529</v>
+      </c>
+      <c r="AN16" s="57">
         <f>AN101/AF28</f>
-        <v>20.180792044661548</v>
-      </c>
-      <c r="AO16" s="29">
+        <v>20.19566620586183</v>
+      </c>
+      <c r="AO16" s="57">
         <f>AN101/AF106</f>
-        <v>18.864367253750814</v>
+        <v>18.878271150032617</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -5141,13 +5124,13 @@
         <f>AF40-AF56-AF61</f>
         <v>-12882000000</v>
       </c>
-      <c r="AM19" s="29">
+      <c r="AM19" s="57">
         <f>AN101/AG3</f>
-        <v>1.7660503816793893</v>
-      </c>
-      <c r="AN19" s="29">
+        <v>1.7601234425337164</v>
+      </c>
+      <c r="AN19" s="57">
         <f>AH116/AG32</f>
-        <v>16.990280373831776</v>
+        <v>17.002803738317755</v>
       </c>
     </row>
     <row r="20" spans="1:40" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -11549,10 +11532,10 @@
       <c r="AF83" s="1">
         <v>-107000000</v>
       </c>
-      <c r="AM83" s="55" t="s">
+      <c r="AM83" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="AN83" s="56"/>
+      <c r="AN83" s="54"/>
     </row>
     <row r="84" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -11651,10 +11634,10 @@
       <c r="AF84" s="1">
         <v>1274000000</v>
       </c>
-      <c r="AM84" s="57" t="s">
+      <c r="AM84" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="AN84" s="57"/>
+      <c r="AN84" s="55"/>
     </row>
     <row r="85" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -12624,10 +12607,10 @@
       <c r="AF93" s="1">
         <v>-1789000000</v>
       </c>
-      <c r="AM93" s="58" t="s">
+      <c r="AM93" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="AN93" s="58"/>
+      <c r="AN93" s="56"/>
     </row>
     <row r="94" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -12835,7 +12818,7 @@
       </c>
       <c r="AN95" s="37" cm="1">
         <f t="array" ref="AN95">_FV(A1,"Beta")</f>
-        <v>0.6694</v>
+        <v>0.66910000000000003</v>
       </c>
     </row>
     <row r="96" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -13044,7 +13027,7 @@
       </c>
       <c r="AN97" s="35">
         <f>(AN94)+((AN95)*(AN96-AN94))</f>
-        <v>6.9767670000000004E-2</v>
+        <v>6.9754755000000002E-2</v>
       </c>
     </row>
     <row r="98" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -13144,10 +13127,10 @@
       <c r="AF98" s="1">
         <v>-3016000000</v>
       </c>
-      <c r="AM98" s="58" t="s">
+      <c r="AM98" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="AN98" s="58"/>
+      <c r="AN98" s="56"/>
     </row>
     <row r="99" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -13356,7 +13339,7 @@
       </c>
       <c r="AN100" s="35">
         <f>AN99/AN103</f>
-        <v>0.11768402955486926</v>
+        <v>0.1176075485448852</v>
       </c>
     </row>
     <row r="101" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -13461,7 +13444,7 @@
       </c>
       <c r="AN101" s="22" cm="1">
         <f t="array" ref="AN101">_FV(A1,"Market cap",TRUE)</f>
-        <v>115676300000</v>
+        <v>115761558692</v>
       </c>
     </row>
     <row r="102" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -13566,7 +13549,7 @@
       </c>
       <c r="AN102" s="35">
         <f>AN101/AN103</f>
-        <v>0.88231597044513077</v>
+        <v>0.8823924514551148</v>
       </c>
     </row>
     <row r="103" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -13671,7 +13654,7 @@
       </c>
       <c r="AN103" s="38">
         <f>AN99+AN101</f>
-        <v>131105300000</v>
+        <v>131190558692</v>
       </c>
     </row>
     <row r="104" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -13771,10 +13754,10 @@
       <c r="AF104" s="11">
         <v>2547000000</v>
       </c>
-      <c r="AM104" s="57" t="s">
+      <c r="AM104" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="AN104" s="57"/>
+      <c r="AN104" s="55"/>
     </row>
     <row r="105" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -13912,7 +13895,7 @@
       </c>
       <c r="AN105" s="40">
         <f>(AN100*AN92)+(AN102*AN97)</f>
-        <v>6.5634662769284771E-2</v>
+        <v>6.5625952647524619E-2</v>
       </c>
     </row>
     <row r="106" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -14014,23 +13997,23 @@
       </c>
       <c r="AG106" s="20">
         <f>AF106*(1+$AN$106)</f>
-        <v>6332830490.7802515</v>
+        <v>6329391876.2012444</v>
       </c>
       <c r="AH106" s="20">
         <f t="shared" ref="AH106:AK106" si="79">AG106*(1+$AN$106)</f>
-        <v>6540238425.4657602</v>
+        <v>6533137886.9084005</v>
       </c>
       <c r="AI106" s="20">
         <f t="shared" si="79"/>
-        <v>6754439223.3793526</v>
+        <v>6743442574.6087074</v>
       </c>
       <c r="AJ106" s="20">
         <f t="shared" si="79"/>
-        <v>6975655359.0898314</v>
+        <v>6960517066.1053419</v>
       </c>
       <c r="AK106" s="20">
         <f t="shared" si="79"/>
-        <v>7204116593.4799004</v>
+        <v>7184579284.4695492</v>
       </c>
       <c r="AL106" s="21" t="s">
         <v>145</v>
@@ -14040,134 +14023,134 @@
       </c>
       <c r="AN106" s="42">
         <f>(SUM(AG4:AK4)/5)</f>
-        <v>3.2751221588429892E-2</v>
+        <v>3.2190456001507585E-2</v>
       </c>
     </row>
     <row r="107" spans="1:40" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="52" t="s">
+      <c r="A107" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="B107" s="53">
+      <c r="B107" s="51">
         <f t="shared" ref="B107:AE107" si="80">B106/B3</f>
         <v>4.2420461634435434E-2</v>
       </c>
-      <c r="C107" s="53">
+      <c r="C107" s="51">
         <f t="shared" si="80"/>
         <v>4.1210876456668301E-2</v>
       </c>
-      <c r="D107" s="53">
+      <c r="D107" s="51">
         <f t="shared" si="80"/>
         <v>4.2958176896882916E-2</v>
       </c>
-      <c r="E107" s="53">
+      <c r="E107" s="51">
         <f t="shared" si="80"/>
         <v>3.3299785586137484E-2</v>
       </c>
-      <c r="F107" s="53">
+      <c r="F107" s="51">
         <f t="shared" si="80"/>
         <v>3.3451162790697674E-2</v>
       </c>
-      <c r="G107" s="53">
+      <c r="G107" s="51">
         <f t="shared" si="80"/>
         <v>1.6316933271580746E-2</v>
       </c>
-      <c r="H107" s="53">
+      <c r="H107" s="51">
         <f t="shared" si="80"/>
         <v>5.0788091068301226E-2</v>
       </c>
-      <c r="I107" s="53">
+      <c r="I107" s="51">
         <f t="shared" si="80"/>
         <v>1.5981198589894243E-2</v>
       </c>
-      <c r="J107" s="53">
+      <c r="J107" s="51">
         <f t="shared" si="80"/>
         <v>5.9852343163962256E-2</v>
       </c>
-      <c r="K107" s="53">
+      <c r="K107" s="51">
         <f t="shared" si="80"/>
         <v>5.0270946227594829E-2</v>
       </c>
-      <c r="L107" s="53">
+      <c r="L107" s="51">
         <f t="shared" si="80"/>
         <v>6.1178418240650165E-2</v>
       </c>
-      <c r="M107" s="53">
+      <c r="M107" s="51">
         <f t="shared" si="80"/>
         <v>3.5256410256410256E-2</v>
       </c>
-      <c r="N107" s="53">
+      <c r="N107" s="51">
         <f t="shared" si="80"/>
         <v>6.0659798457467773E-2</v>
       </c>
-      <c r="O107" s="53">
+      <c r="O107" s="51">
         <f t="shared" si="80"/>
         <v>6.2585655550479666E-2</v>
       </c>
-      <c r="P107" s="53">
+      <c r="P107" s="51">
         <f t="shared" si="80"/>
         <v>7.29429581019687E-2</v>
       </c>
-      <c r="Q107" s="53">
+      <c r="Q107" s="51">
         <f t="shared" si="80"/>
         <v>7.8854330896756003E-2</v>
       </c>
-      <c r="R107" s="53">
+      <c r="R107" s="51">
         <f t="shared" si="80"/>
         <v>8.179073740375839E-2</v>
       </c>
-      <c r="S107" s="53">
+      <c r="S107" s="51">
         <f t="shared" si="80"/>
         <v>5.1362057137799025E-2</v>
       </c>
-      <c r="T107" s="53">
+      <c r="T107" s="51">
         <f t="shared" si="80"/>
         <v>5.9537584874353205E-2</v>
       </c>
-      <c r="U107" s="53">
+      <c r="U107" s="51">
         <f t="shared" si="80"/>
         <v>7.0238069635906147E-2</v>
       </c>
-      <c r="V107" s="53">
+      <c r="V107" s="51">
         <f t="shared" si="80"/>
         <v>1.3119409944470349E-2</v>
       </c>
-      <c r="W107" s="53">
+      <c r="W107" s="51">
         <f t="shared" si="80"/>
         <v>8.1793729882269947E-2</v>
       </c>
-      <c r="X107" s="53">
+      <c r="X107" s="51">
         <f t="shared" si="80"/>
         <v>6.6250000000000003E-2</v>
       </c>
-      <c r="Y107" s="53">
+      <c r="Y107" s="51">
         <f t="shared" si="80"/>
         <v>9.0219370502037627E-2</v>
       </c>
-      <c r="Z107" s="53">
+      <c r="Z107" s="51">
         <f t="shared" si="80"/>
         <v>8.7326447680325089E-2</v>
       </c>
-      <c r="AA107" s="53">
+      <c r="AA107" s="51">
         <f t="shared" si="80"/>
         <v>0.10380426265475631</v>
       </c>
-      <c r="AB107" s="53">
+      <c r="AB107" s="51">
         <f t="shared" si="80"/>
         <v>3.4596927197648897E-2</v>
       </c>
-      <c r="AC107" s="53">
+      <c r="AC107" s="51">
         <f t="shared" si="80"/>
         <v>9.7421922022336654E-2</v>
       </c>
-      <c r="AD107" s="53">
+      <c r="AD107" s="51">
         <f t="shared" si="80"/>
         <v>9.8122266735985814E-2</v>
       </c>
-      <c r="AE107" s="53">
+      <c r="AE107" s="51">
         <f t="shared" si="80"/>
         <v>0.11483503370920589</v>
       </c>
-      <c r="AF107" s="53">
+      <c r="AF107" s="51">
         <f>AF106/AF3</f>
         <v>9.2931619786614933E-2</v>
       </c>
@@ -14177,7 +14160,7 @@
       <c r="AJ107" s="21"/>
       <c r="AK107" s="22">
         <f>AK106*(1+AN107)/(AN108-AN107)</f>
-        <v>161022312414.13571</v>
+        <v>160616281851.08212</v>
       </c>
       <c r="AL107" s="23" t="s">
         <v>147</v>
@@ -14192,23 +14175,23 @@
     <row r="108" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="AG108" s="22">
         <f t="shared" ref="AG108:AI108" si="81">AG107+AG106</f>
-        <v>6332830490.7802515</v>
+        <v>6329391876.2012444</v>
       </c>
       <c r="AH108" s="22">
         <f t="shared" si="81"/>
-        <v>6540238425.4657602</v>
+        <v>6533137886.9084005</v>
       </c>
       <c r="AI108" s="22">
         <f t="shared" si="81"/>
-        <v>6754439223.3793526</v>
+        <v>6743442574.6087074</v>
       </c>
       <c r="AJ108" s="22">
         <f>AJ107+AJ106</f>
-        <v>6975655359.0898314</v>
+        <v>6960517066.1053419</v>
       </c>
       <c r="AK108" s="22">
         <f>AK107+AK106</f>
-        <v>168226429007.6156</v>
+        <v>167800861135.55167</v>
       </c>
       <c r="AL108" s="23" t="s">
         <v>143</v>
@@ -14218,14 +14201,14 @@
       </c>
       <c r="AN108" s="42">
         <f>AN105</f>
-        <v>6.5634662769284771E-2</v>
+        <v>6.5625952647524619E-2</v>
       </c>
     </row>
     <row r="109" spans="1:40" ht="19" x14ac:dyDescent="0.25">
-      <c r="AG109" s="54" t="s">
+      <c r="AG109" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="AH109" s="54"/>
+      <c r="AH109" s="52"/>
     </row>
     <row r="110" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="AG110" s="46" t="s">
@@ -14233,7 +14216,7 @@
       </c>
       <c r="AH110" s="22">
         <f>NPV(AN108,AG108,AH108,AI108,AJ108,AK108)</f>
-        <v>145113321681.79599</v>
+        <v>144778771722.03085</v>
       </c>
     </row>
     <row r="111" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -14260,7 +14243,7 @@
       </c>
       <c r="AH113" s="22">
         <f>AH110+AH111-AH112</f>
-        <v>132231321681.79599</v>
+        <v>131896771722.03085</v>
       </c>
     </row>
     <row r="114" spans="33:34" ht="20" x14ac:dyDescent="0.25">
@@ -14278,7 +14261,7 @@
       </c>
       <c r="AH115" s="48">
         <f>AH113/AH114</f>
-        <v>499.77648504564917</v>
+        <v>498.51203271440846</v>
       </c>
     </row>
     <row r="116" spans="33:34" ht="20" x14ac:dyDescent="0.25">
@@ -14287,23 +14270,23 @@
       </c>
       <c r="AH116" s="49" cm="1">
         <f t="array" ref="AH116">_FV(A1,"Price")</f>
-        <v>454.49</v>
+        <v>454.82499999999999</v>
       </c>
     </row>
     <row r="117" spans="33:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG117" s="46" t="s">
+      <c r="AG117" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="AH117" s="51">
+      <c r="AH117" s="58">
         <f>AH115/AH116-1</f>
-        <v>9.9642423476092201E-2</v>
+        <v>9.6052399745854888E-2</v>
       </c>
     </row>
     <row r="118" spans="33:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG118" s="46" t="s">
+      <c r="AG118" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="AH118" s="50" t="str">
+      <c r="AH118" s="59" t="str">
         <f>IF(AH115&gt;AH116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
@@ -14317,16 +14300,6 @@
     <mergeCell ref="AM98:AN98"/>
     <mergeCell ref="AM104:AN104"/>
   </mergeCells>
-  <conditionalFormatting sqref="AH117">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color rgb="FFFF5907"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AH118">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -14401,7 +14374,7 @@
     <hyperlink ref="AE74" r:id="rId61" tooltip="https://www.sec.gov/Archives/edgar/data/936468/000093646822000008/0000936468-22-000008-index.htm" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
     <hyperlink ref="AF36" r:id="rId62" tooltip="https://www.sec.gov/Archives/edgar/data/936468/000093646823000009/0000936468-23-000009-index.htm" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
     <hyperlink ref="AF74" r:id="rId63" tooltip="https://www.sec.gov/Archives/edgar/data/936468/000093646823000009/0000936468-23-000009-index.htm" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="AG1" r:id="rId64" display="https://finbox.com/NASDAQGS:FTNT/explorer/revenue_proj" xr:uid="{F0656187-5304-6A49-BB3A-32B14EAACEF1}"/>
+    <hyperlink ref="AG1" r:id="rId64" display="https://finbox.com/NYSE:LMT/explorer/revenue_proj" xr:uid="{F0656187-5304-6A49-BB3A-32B14EAACEF1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId65"/>

--- a/Industrials/Lockheed Martin.xlsx
+++ b/Industrials/Lockheed Martin.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A391E7-5930-314D-8106-EEC24F26C1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E95F250-8FE0-154C-9880-402F2D78B11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -507,9 +504,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -555,24 +549,46 @@
     <t>Forward P/S</t>
   </si>
   <si>
-    <t xml:space="preserve"> Forward P/E</t>
-  </si>
-  <si>
-    <t>Employees</t>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -689,15 +705,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <i/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -739,14 +748,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -794,12 +797,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -835,20 +899,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -889,7 +939,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -905,13 +958,37 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1330,11 +1407,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1374,7 +1451,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$AF$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$AF$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="31"/>
@@ -2190,16 +2267,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>31749</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>1603374</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>41275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>1587499</xdr:colOff>
       <xdr:row>125</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2225,6 +2302,68 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Small Cap Gems"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11">
+        <row r="8">
+          <cell r="C8">
+            <v>3.739E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2349,9 +2488,9 @@
     <v>Powered by Refinitiv</v>
     <v>508.1</v>
     <v>373.67</v>
-    <v>0.66910000000000003</v>
-    <v>5.1550000000000002</v>
-    <v>1.1464E-2</v>
+    <v>0.66979999999999995</v>
+    <v>-4.07</v>
+    <v>-8.7819999999999999E-3</v>
     <v>USD</v>
     <v>Lockheed Martin Corporation is a security and aerospace company. It operates through four segments. Aeronautics segment is engaged in the research, design, development, manufacture, support and upgrade of military aircraft, including combat and air mobility aircraft, unmanned air vehicles and related technologies. Missiles and Fire Control segment provides air and missile defense systems; fire control systems; manned and unmanned ground vehicles, and energy management solutions. Rotary and Mission Systems segment provides design, manufacture, service and support for various military and commercial helicopters, surface ships, sea and land-based missile defense systems, radar systems, sea and air-based mission and combat systems, command and control mission solutions, cyber solutions, and simulation and training solutions. Space segment is engaged in the research and development, design, engineering and production of satellites, space transportation systems, strike and defensive systems.</v>
     <v>116000</v>
@@ -2359,24 +2498,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>6801 ROCKLEDGE DR, BETHESDA, MD, 20817 US</v>
-    <v>456.35500000000002</v>
+    <v>465.42</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>45079.811997626559</v>
+    <v>45100.993896226566</v>
     <v>0</v>
-    <v>450.55500000000001</v>
-    <v>115761558692</v>
+    <v>458.13</v>
+    <v>116915800000</v>
     <v>LOCKHEED MARTIN CORPORATION</v>
     <v>LOCKHEED MARTIN CORPORATION</v>
-    <v>452.5</v>
-    <v>20.541899999999998</v>
-    <v>449.67</v>
-    <v>454.82499999999999</v>
+    <v>463.52</v>
+    <v>20.9846</v>
+    <v>463.43</v>
+    <v>459.36</v>
     <v>254518900</v>
     <v>LMT</v>
     <v>LOCKHEED MARTIN CORPORATION (XNYS:LMT)</v>
-    <v>556567</v>
-    <v>998738</v>
+    <v>765</v>
+    <v>1011282</v>
     <v>1994</v>
   </rv>
   <rv s="2">
@@ -2945,11 +3084,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AC94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AK13" sqref="AK13"/>
+      <selection pane="bottomRight" activeCell="AG126" sqref="AG126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3077,106 +3216,106 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
@@ -3293,22 +3432,22 @@
       <c r="AK3" s="19">
         <v>77246000000</v>
       </c>
-      <c r="AL3" s="27" t="s">
+      <c r="AL3" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM3" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN3" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="AM3" s="27" t="s">
+      <c r="AO3" s="54" t="s">
         <v>110</v>
-      </c>
-      <c r="AN3" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO3" s="27" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:41" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3451,20 +3590,20 @@
         <f t="shared" si="10"/>
         <v>4.7474405044409806E-2</v>
       </c>
-      <c r="AL4" s="28">
+      <c r="AL4" s="57">
         <f>(AF4+AE4+AD4)/3</f>
         <v>3.4250361051318436E-2</v>
       </c>
-      <c r="AM4" s="28">
+      <c r="AM4" s="57">
         <f>(AF20+AE20+AD20)/3</f>
         <v>-1.0535508636902891E-2</v>
       </c>
-      <c r="AN4" s="28">
+      <c r="AN4" s="57">
         <f>(AF29+AE29+AD29)/3</f>
         <v>-2.3779574072930448E-2</v>
       </c>
-      <c r="AO4" s="28">
-        <f>(AF105+AE105+AD105)/3</f>
+      <c r="AO4" s="57">
+        <f>(AF106+AE106+AD106)/3</f>
         <v>3.2500563967780303E-2</v>
       </c>
     </row>
@@ -3663,17 +3802,17 @@
       <c r="AF6" s="10">
         <v>8287000000</v>
       </c>
-      <c r="AL6" s="27" t="s">
+      <c r="AL6" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM6" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN6" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="AM6" s="27" t="s">
+      <c r="AO6" s="54" t="s">
         <v>114</v>
-      </c>
-      <c r="AN6" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="AO6" s="27" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -3773,20 +3912,20 @@
       <c r="AF7" s="2">
         <v>0.12559999999999999</v>
       </c>
-      <c r="AL7" s="28">
+      <c r="AL7" s="57">
         <f>AF7</f>
         <v>0.12559999999999999</v>
       </c>
-      <c r="AM7" s="28">
+      <c r="AM7" s="57">
         <f>AF21</f>
         <v>0.13200000000000001</v>
       </c>
-      <c r="AN7" s="28">
+      <c r="AN7" s="57">
         <f>AF30</f>
         <v>8.6900000000000005E-2</v>
       </c>
-      <c r="AO7" s="28">
-        <f>AF106/AF3</f>
+      <c r="AO7" s="57">
+        <f>AF107/AF3</f>
         <v>9.2931619786614933E-2</v>
       </c>
     </row>
@@ -3890,7 +4029,7 @@
     </row>
     <row r="9" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -4016,17 +4155,17 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AL9" s="27" t="s">
+      <c r="AL9" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM9" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="AM9" s="27" t="s">
+      <c r="AN9" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="AN9" s="27" t="s">
+      <c r="AO9" s="54" t="s">
         <v>98</v>
-      </c>
-      <c r="AO9" s="27" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -4034,113 +4173,113 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL10" s="28">
+        <v>91</v>
+      </c>
+      <c r="AL10" s="57">
         <f>AF9</f>
         <v>0</v>
       </c>
-      <c r="AM10" s="28">
+      <c r="AM10" s="57">
         <f>AF13</f>
         <v>0</v>
       </c>
-      <c r="AN10" s="28">
+      <c r="AN10" s="57">
         <f>AF80</f>
         <v>3.6069350145489817E-3</v>
       </c>
-      <c r="AO10" s="28">
+      <c r="AO10" s="57">
         <f>AF89</f>
-        <v>0</v>
+        <v>2.7112633365664402E-2</v>
       </c>
     </row>
     <row r="11" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -4148,97 +4287,97 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -4338,22 +4477,22 @@
       <c r="AF12" s="1">
         <v>0</v>
       </c>
-      <c r="AL12" s="27" t="s">
+      <c r="AL12" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM12" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN12" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="AM12" s="27" t="s">
+      <c r="AO12" s="54" t="s">
         <v>118</v>
-      </c>
-      <c r="AN12" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="AO12" s="27" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:41" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -4479,19 +4618,19 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AL13" s="28">
+      <c r="AL13" s="57">
         <f>AF28/AF72</f>
         <v>0.6186056550830995</v>
       </c>
-      <c r="AM13" s="28">
+      <c r="AM13" s="57">
         <f>AF28/AF54</f>
         <v>0.1083963691376702</v>
       </c>
-      <c r="AN13" s="28">
+      <c r="AN13" s="57">
         <f>AF22/(AF72+AF56+AF61)</f>
         <v>0.33804413848957277</v>
       </c>
-      <c r="AO13" s="29">
+      <c r="AO13" s="58">
         <f>AF67/AF72</f>
         <v>4.7068853874379455</v>
       </c>
@@ -4501,64 +4640,64 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J14" s="1">
         <v>968000000</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V14" s="1">
         <v>-238000000</v>
@@ -4591,7 +4730,7 @@
         <v>-62000000</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -4599,64 +4738,64 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J15" s="1">
         <v>968000000</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V15" s="1">
         <v>-238000000</v>
@@ -4691,17 +4830,17 @@
       <c r="AF15" s="1">
         <v>-74000000</v>
       </c>
-      <c r="AL15" s="27" t="s">
+      <c r="AL15" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM15" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN15" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="AM15" s="27" t="s">
+      <c r="AO15" s="54" t="s">
         <v>122</v>
-      </c>
-      <c r="AN15" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="AO15" s="27" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -4801,24 +4940,24 @@
       <c r="AF16" s="1">
         <v>57623000000</v>
       </c>
-      <c r="AL16" s="28">
+      <c r="AL16" s="57">
         <f>(AF35+AE35+AD35+AC35+AB35)/5</f>
         <v>-9.2423078964431332E-3</v>
       </c>
-      <c r="AM16" s="57">
+      <c r="AM16" s="56">
         <f>AN101/AF3</f>
-        <v>1.7543883167434529</v>
-      </c>
-      <c r="AN16" s="57">
+        <v>1.7718810620756547</v>
+      </c>
+      <c r="AN16" s="56">
         <f>AN101/AF28</f>
-        <v>20.19566620586183</v>
-      </c>
-      <c r="AO16" s="57">
-        <f>AN101/AF106</f>
-        <v>18.878271150032617</v>
+        <v>20.397034193998604</v>
+      </c>
+      <c r="AO16" s="56">
+        <f>AN101/AF107</f>
+        <v>19.066503587736463</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -4847,7 +4986,7 @@
         <v>809000000</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1">
         <v>700000000</v>
@@ -4916,7 +5055,7 @@
         <v>623000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -5013,17 +5152,20 @@
       <c r="AF18" s="1">
         <v>1404000000</v>
       </c>
-      <c r="AL18" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="AM18" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="AN18" s="27" t="s">
-        <v>161</v>
+      <c r="AL18" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM18" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN18" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO18" s="54" t="s">
+        <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -5120,22 +5262,41 @@
       <c r="AF19" s="10">
         <v>8707000000</v>
       </c>
-      <c r="AL19" s="30">
+      <c r="AG19" s="64">
+        <v>9851000001</v>
+      </c>
+      <c r="AH19" s="64">
+        <v>10115000002</v>
+      </c>
+      <c r="AI19" s="64">
+        <v>10434000003</v>
+      </c>
+      <c r="AJ19" s="64">
+        <v>10714000004</v>
+      </c>
+      <c r="AK19" s="64">
+        <v>11000000005</v>
+      </c>
+      <c r="AL19" s="55">
         <f>AF40-AF56-AF61</f>
         <v>-12882000000</v>
       </c>
-      <c r="AM19" s="57">
+      <c r="AM19" s="56">
         <f>AN101/AG3</f>
-        <v>1.7601234425337164</v>
-      </c>
-      <c r="AN19" s="57">
-        <f>AH116/AG32</f>
-        <v>17.002803738317755</v>
+        <v>1.777673371953352</v>
+      </c>
+      <c r="AN19" s="56">
+        <f>AN101/AG28</f>
+        <v>17.015834664966405</v>
+      </c>
+      <c r="AO19" s="56">
+        <f>AN101/AG105</f>
+        <v>14.223981250962936</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -5258,8 +5419,28 @@
         <f t="shared" ref="AF20" si="28">(AF19/AE19)-1</f>
         <v>-8.1830644310872058E-2</v>
       </c>
+      <c r="AG20" s="16">
+        <f t="shared" ref="AG20" si="29">(AG19/AF19)-1</f>
+        <v>0.13138853807281503</v>
+      </c>
+      <c r="AH20" s="16">
+        <f t="shared" ref="AH20" si="30">(AH19/AG19)-1</f>
+        <v>2.6799309813541949E-2</v>
+      </c>
+      <c r="AI20" s="16">
+        <f t="shared" ref="AI20" si="31">(AI19/AH19)-1</f>
+        <v>3.1537320903304522E-2</v>
+      </c>
+      <c r="AJ20" s="16">
+        <f t="shared" ref="AJ20" si="32">(AJ19/AI19)-1</f>
+        <v>2.6835346072406896E-2</v>
+      </c>
+      <c r="AK20" s="16">
+        <f t="shared" ref="AK20" si="33">(AK19/AJ19)-1</f>
+        <v>2.6694045257907861E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -5356,15 +5537,34 @@
       <c r="AF21" s="2">
         <v>0.13200000000000001</v>
       </c>
-      <c r="AL21" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="AM21" s="26" cm="1">
-        <f t="array" ref="AM21">_FV(A1,"Employees")</f>
-        <v>116000</v>
+      <c r="AG21" s="65">
+        <f>AG19/AG3</f>
+        <v>0.14978181211513023</v>
+      </c>
+      <c r="AH21" s="65">
+        <f t="shared" ref="AH21:AK21" si="34">AH19/AH3</f>
+        <v>0.14927465654284913</v>
+      </c>
+      <c r="AI21" s="65">
+        <f t="shared" si="34"/>
+        <v>0.14796012426438265</v>
+      </c>
+      <c r="AJ21" s="65">
+        <f t="shared" si="34"/>
+        <v>0.14528442611702488</v>
+      </c>
+      <c r="AK21" s="65">
+        <f t="shared" si="34"/>
+        <v>0.14240219564767106</v>
+      </c>
+      <c r="AN21" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO21" s="53" t="s">
+        <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -5461,11 +5661,17 @@
       <c r="AF22" s="10">
         <v>8348000000</v>
       </c>
-      <c r="AG22" s="19">
-        <v>7300000000</v>
+      <c r="AG22" s="19"/>
+      <c r="AN22" s="59">
+        <f>(-1*AF98)/AN101</f>
+        <v>2.5796342324989438E-2</v>
+      </c>
+      <c r="AO22" s="60">
+        <f>AF107/AN101</f>
+        <v>5.244800104006473E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -5563,7 +5769,7 @@
         <v>0.1265</v>
       </c>
     </row>
-    <row r="24" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -5661,7 +5867,7 @@
         <v>-1668000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -5759,7 +5965,7 @@
         <v>6680000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -5857,7 +6063,7 @@
         <v>0.1012</v>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -5955,7 +6161,7 @@
         <v>948000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -6052,10 +6258,25 @@
       <c r="AF28" s="11">
         <v>5732000000</v>
       </c>
+      <c r="AG28" s="62">
+        <v>6871000001</v>
+      </c>
+      <c r="AH28" s="62">
+        <v>6865000002</v>
+      </c>
+      <c r="AI28" s="62">
+        <v>7094000003</v>
+      </c>
+      <c r="AJ28" s="62">
+        <v>6850000004</v>
+      </c>
+      <c r="AK28" s="62">
+        <v>6848000005</v>
+      </c>
     </row>
-    <row r="29" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -6071,115 +6292,135 @@
         <v>-0.33005893909626716</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:Q29" si="29">(F28/E28)-1</f>
+        <f t="shared" ref="F29:Q29" si="35">(F28/E28)-1</f>
         <v>0.97507331378299122</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>-3.4892353377876772E-2</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>-0.22999999999999998</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>-0.61838161838161843</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>-2.3586387434554972</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>1.0154142581888248</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>-1.4780114722753346</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>1.1059999999999999</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.20227920227920237</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.44154818325434442</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.38575342465753426</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.19928825622775803</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" ref="R29" si="30">(R28/Q28)-1</f>
+        <f t="shared" ref="R29" si="36">(R28/Q28)-1</f>
         <v>6.0666007253544318E-2</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" ref="S29" si="31">(S28/R28)-1</f>
+        <f t="shared" ref="S29" si="37">(S28/R28)-1</f>
         <v>-5.9993783027665559E-2</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" ref="T29" si="32">(T28/S28)-1</f>
+        <f t="shared" ref="T29" si="38">(T28/S28)-1</f>
         <v>-3.240740740740744E-2</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" ref="U29" si="33">(U28/T28)-1</f>
+        <f t="shared" ref="U29" si="39">(U28/T28)-1</f>
         <v>-9.2617908407382044E-2</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" ref="V29" si="34">(V28/U28)-1</f>
+        <f t="shared" ref="V29" si="40">(V28/U28)-1</f>
         <v>3.3898305084745672E-2</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" ref="W29" si="35">(W28/V28)-1</f>
+        <f t="shared" ref="W29" si="41">(W28/V28)-1</f>
         <v>8.5974499089253253E-2</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" ref="X29" si="36">(X28/W28)-1</f>
+        <f t="shared" ref="X29" si="42">(X28/W28)-1</f>
         <v>0.21234485072123443</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" ref="Y29" si="37">(Y28/X28)-1</f>
+        <f t="shared" ref="Y29" si="43">(Y28/X28)-1</f>
         <v>-2.4903154399557037E-3</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" ref="Z29" si="38">(Z28/Y28)-1</f>
+        <f t="shared" ref="Z29" si="44">(Z28/Y28)-1</f>
         <v>0.47073509015256598</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" ref="AA29" si="39">(AA28/Z28)-1</f>
+        <f t="shared" ref="AA29" si="45">(AA28/Z28)-1</f>
         <v>-0.62240663900414939</v>
       </c>
       <c r="AB29" s="15">
-        <f t="shared" ref="AB29" si="40">(AB28/AA28)-1</f>
+        <f t="shared" ref="AB29" si="46">(AB28/AA28)-1</f>
         <v>1.5204795204795203</v>
       </c>
       <c r="AC29" s="15">
-        <f t="shared" ref="AC29" si="41">(AC28/AB28)-1</f>
+        <f t="shared" ref="AC29" si="47">(AC28/AB28)-1</f>
         <v>0.23464130003963546</v>
       </c>
       <c r="AD29" s="15">
-        <f t="shared" ref="AD29" si="42">(AD28/AC28)-1</f>
+        <f t="shared" ref="AD29" si="48">(AD28/AC28)-1</f>
         <v>9.6789727126805669E-2</v>
       </c>
       <c r="AE29" s="15">
-        <f t="shared" ref="AE29" si="43">(AE28/AD28)-1</f>
+        <f t="shared" ref="AE29" si="49">(AE28/AD28)-1</f>
         <v>-7.5808576028098984E-2</v>
       </c>
       <c r="AF29" s="15">
-        <f t="shared" ref="AF29" si="44">(AF28/AE28)-1</f>
+        <f t="shared" ref="AF29" si="50">(AF28/AE28)-1</f>
         <v>-9.2319873317498025E-2</v>
       </c>
+      <c r="AG29" s="16">
+        <f t="shared" ref="AG29" si="51">(AG28/AF28)-1</f>
+        <v>0.19870900226796939</v>
+      </c>
+      <c r="AH29" s="16">
+        <f t="shared" ref="AH29" si="52">(AH28/AG28)-1</f>
+        <v>-8.7323519125703797E-4</v>
+      </c>
+      <c r="AI29" s="16">
+        <f t="shared" ref="AI29" si="53">(AI28/AH28)-1</f>
+        <v>3.3357611206596527E-2</v>
+      </c>
+      <c r="AJ29" s="16">
+        <f t="shared" ref="AJ29" si="54">(AJ28/AI28)-1</f>
+        <v>-3.4395263447535185E-2</v>
+      </c>
+      <c r="AK29" s="16">
+        <f t="shared" ref="AK29" si="55">(AK28/AJ28)-1</f>
+        <v>-2.9197065676378475E-4</v>
+      </c>
     </row>
-    <row r="30" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -6276,8 +6517,28 @@
       <c r="AF30" s="2">
         <v>8.6900000000000005E-2</v>
       </c>
+      <c r="AG30" s="63">
+        <f>AG28/AG3</f>
+        <v>0.1044717116118536</v>
+      </c>
+      <c r="AH30" s="63">
+        <f t="shared" ref="AH30:AK30" si="56">AH28/AH3</f>
+        <v>0.10131196413866383</v>
+      </c>
+      <c r="AI30" s="63">
+        <f t="shared" si="56"/>
+        <v>0.10059700226889207</v>
+      </c>
+      <c r="AJ30" s="63">
+        <f t="shared" si="56"/>
+        <v>9.2887653454471489E-2</v>
+      </c>
+      <c r="AK30" s="63">
+        <f t="shared" si="56"/>
+        <v>8.8651839642182123E-2</v>
+      </c>
     </row>
-    <row r="31" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -6374,8 +6635,23 @@
       <c r="AF31" s="12">
         <v>20.74</v>
       </c>
+      <c r="AG31" s="24">
+        <v>27.13</v>
+      </c>
+      <c r="AH31" s="24">
+        <v>27.11</v>
+      </c>
+      <c r="AI31" s="24">
+        <v>28.01</v>
+      </c>
+      <c r="AJ31" s="24">
+        <v>27.05</v>
+      </c>
+      <c r="AK31" s="24">
+        <v>27.04</v>
+      </c>
     </row>
-    <row r="32" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -6472,9 +6748,7 @@
       <c r="AF32" s="12">
         <v>20.66</v>
       </c>
-      <c r="AG32" s="24">
-        <v>26.75</v>
-      </c>
+      <c r="AG32" s="24"/>
     </row>
     <row r="33" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -6674,7 +6948,7 @@
     </row>
     <row r="35" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="17">
@@ -6682,119 +6956,119 @@
         <v>0.12748597654258031</v>
       </c>
       <c r="D35" s="17">
-        <f t="shared" ref="D35:Q35" si="45">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:Q35" si="57">(D34-C34)/C34</f>
         <v>-1.2663952962460425E-2</v>
       </c>
       <c r="E35" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>2.2446174988547871E-2</v>
       </c>
       <c r="F35" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>-8.960573476702509E-4</v>
       </c>
       <c r="G35" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>-4.2600896860986545E-2</v>
       </c>
       <c r="H35" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>-0.10749414519906324</v>
       </c>
       <c r="I35" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>7.8719496195224347E-3</v>
       </c>
       <c r="J35" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>4.7450093725592293E-2</v>
       </c>
       <c r="K35" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>7.5000001056358387E-2</v>
       </c>
       <c r="L35" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>4.5086705202312137E-2</v>
       </c>
       <c r="M35" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>-4.4247787610619468E-3</v>
       </c>
       <c r="N35" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>-6.4444444444444445E-3</v>
       </c>
       <c r="O35" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>-3.1312905390293E-3</v>
       </c>
       <c r="P35" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>-2.0866053399147409E-2</v>
       </c>
       <c r="Q35" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>-2.1310724106324473E-2</v>
       </c>
       <c r="R35" s="17">
-        <f t="shared" ref="R35" si="46">(R34-Q34)/Q34</f>
+        <f t="shared" ref="R35" si="58">(R34-Q34)/Q34</f>
         <v>-4.0739873565909621E-2</v>
       </c>
       <c r="S35" s="17">
-        <f t="shared" ref="S35" si="47">(S34-R34)/R34</f>
+        <f t="shared" ref="S35" si="59">(S34-R34)/R34</f>
         <v>-5.0768855259946302E-2</v>
       </c>
       <c r="T35" s="17">
-        <f t="shared" ref="T35" si="48">(T34-S34)/S34</f>
+        <f t="shared" ref="T35" si="60">(T34-S34)/S34</f>
         <v>-5.2969915145281564E-2</v>
       </c>
       <c r="U35" s="17">
-        <f t="shared" ref="U35" si="49">(U34-T34)/T34</f>
+        <f t="shared" ref="U35" si="61">(U34-T34)/T34</f>
         <v>-7.7111050773825685E-2</v>
       </c>
       <c r="V35" s="17">
-        <f t="shared" ref="V35" si="50">(V34-U34)/U34</f>
+        <f t="shared" ref="V35" si="62">(V34-U34)/U34</f>
         <v>-3.3833480435422184E-2</v>
       </c>
       <c r="W35" s="17">
-        <f t="shared" ref="W35" si="51">(W34-V34)/V34</f>
+        <f t="shared" ref="W35" si="63">(W34-V34)/V34</f>
         <v>-5.7856272838002435E-3</v>
       </c>
       <c r="X35" s="17">
-        <f t="shared" ref="X35" si="52">(X34-W34)/W34</f>
+        <f t="shared" ref="X35" si="64">(X34-W34)/W34</f>
         <v>-1.2557427258805513E-2</v>
       </c>
       <c r="Y35" s="17">
-        <f t="shared" ref="Y35" si="53">(Y34-X34)/X34</f>
+        <f t="shared" ref="Y35" si="65">(Y34-X34)/X34</f>
         <v>-2.3883374689826303E-2</v>
       </c>
       <c r="Z35" s="17">
-        <f t="shared" ref="Z35" si="54">(Z34-Y34)/Y34</f>
+        <f t="shared" ref="Z35" si="66">(Z34-Y34)/Y34</f>
         <v>-3.6860502065459169E-2</v>
       </c>
       <c r="AA35" s="17">
-        <f t="shared" ref="AA35" si="55">(AA34-Z34)/Z34</f>
+        <f t="shared" ref="AA35" si="67">(AA34-Z34)/Z34</f>
         <v>-4.1240514681623229E-2</v>
       </c>
       <c r="AB35" s="17">
-        <f t="shared" ref="AB35" si="56">(AB34-AA34)/AA34</f>
+        <f t="shared" ref="AB35" si="68">(AB34-AA34)/AA34</f>
         <v>-1.307639366827254E-2</v>
       </c>
       <c r="AC35" s="17">
-        <f t="shared" ref="AC35" si="57">(AC34-AB34)/AB34</f>
+        <f t="shared" ref="AC35" si="69">(AC34-AB34)/AB34</f>
         <v>-1.0460251046025104E-2</v>
       </c>
       <c r="AD35" s="17">
-        <f t="shared" ref="AD35" si="58">(AD34-AC34)/AC34</f>
+        <f t="shared" ref="AD35" si="70">(AD34-AC34)/AC34</f>
         <v>-9.161381254404511E-3</v>
       </c>
       <c r="AE35" s="17">
-        <f t="shared" ref="AE35" si="59">(AE34-AD34)/AD34</f>
+        <f t="shared" ref="AE35" si="71">(AE34-AD34)/AD34</f>
         <v>-1.3513513513513514E-2</v>
       </c>
       <c r="AF35" s="17">
-        <f t="shared" ref="AF35" si="60">(AF34-AE34)/AE34</f>
+        <f t="shared" ref="AF35" si="72">(AF34-AE34)/AE34</f>
         <v>0</v>
       </c>
     </row>
@@ -6803,97 +7077,97 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:32" ht="21" x14ac:dyDescent="0.25">
@@ -6901,97 +7175,97 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -6999,22 +7273,22 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38" s="1">
         <v>653000000</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H38" s="1">
         <v>285000000</v>
@@ -7097,37 +7371,37 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M39" s="1">
         <v>240000000</v>
@@ -7148,7 +7422,7 @@
         <v>61000000</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T39" s="1">
         <v>516000000</v>
@@ -7157,37 +7431,37 @@
         <v>3000000</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -7195,22 +7469,22 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="1">
         <v>653000000</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H40" s="1">
         <v>285000000</v>
@@ -7293,13 +7567,13 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1">
         <v>3876000000</v>
@@ -7391,13 +7665,13 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1">
         <v>2804000000</v>
@@ -7489,13 +7763,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43" s="1">
         <v>844000000</v>
@@ -7587,13 +7861,13 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E44" s="10">
         <v>8177000000</v>
@@ -7685,13 +7959,13 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E45" s="1">
         <v>3165000000</v>
@@ -7783,13 +8057,13 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1">
         <v>2817000000</v>
@@ -7807,7 +8081,7 @@
         <v>9162000000</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1">
         <v>7371000000</v>
@@ -7881,13 +8155,13 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1">
         <v>1808000000</v>
@@ -7938,16 +8212,16 @@
         <v>127000000</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y47" s="1">
         <v>4147000000</v>
@@ -7979,13 +8253,13 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1">
         <v>4625000000</v>
@@ -8077,34 +8351,34 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1">
         <v>2210000000</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1">
         <v>1009000000</v>
@@ -8119,55 +8393,55 @@
         <v>196000000</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -8175,46 +8449,46 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P50" s="1">
         <v>1487000000</v>
@@ -8273,13 +8547,13 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51" s="1">
         <v>1681000000</v>
@@ -8371,13 +8645,13 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52" s="1">
         <v>9471000000</v>
@@ -8469,97 +8743,97 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -8567,13 +8841,13 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E54" s="11">
         <v>17648000000</v>
@@ -8665,13 +8939,13 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1">
         <v>787000000</v>
@@ -8763,13 +9037,13 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1">
         <v>722000000</v>
@@ -8814,28 +9088,28 @@
         <v>242000000</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V56" s="1">
         <v>150000000</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y56" s="1">
         <v>956000000</v>
       </c>
       <c r="Z56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA56" s="1">
         <v>750000000</v>
@@ -8861,34 +9135,34 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1">
         <v>107000000</v>
@@ -8897,28 +9171,28 @@
         <v>91000000</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V57" s="1">
         <v>1649000000</v>
@@ -8951,7 +9225,7 @@
         <v>3108000000</v>
       </c>
       <c r="AF57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -8959,13 +9233,13 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1">
         <v>1570000000</v>
@@ -8983,7 +9257,7 @@
         <v>4655000000</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1">
         <v>5002000000</v>
@@ -9049,7 +9323,7 @@
         <v>8107000000</v>
       </c>
       <c r="AF58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -9057,13 +9331,13 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59" s="1">
         <v>2212000000</v>
@@ -9155,13 +9429,13 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E60" s="10">
         <v>5291000000</v>
@@ -9253,13 +9527,13 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1">
         <v>3010000000</v>
@@ -9351,97 +9625,97 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -9449,28 +9723,28 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1">
         <v>736000000</v>
@@ -9479,67 +9753,67 @@
         <v>992000000</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -9547,13 +9821,13 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1">
         <v>2914000000</v>
@@ -9645,13 +9919,13 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E65" s="1">
         <v>5924000000</v>
@@ -9743,97 +10017,97 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -9841,13 +10115,13 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E67" s="10">
         <v>11215000000</v>
@@ -9939,13 +10213,13 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1">
         <v>199000000</v>
@@ -10037,13 +10311,13 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" s="1">
         <v>4838000000</v>
@@ -10135,13 +10409,13 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="1">
         <v>-5020000000</v>
@@ -10233,13 +10507,13 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E71" s="1">
         <v>6416000000</v>
@@ -10278,43 +10552,43 @@
         <v>755000000</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD71" s="1">
         <v>221000000</v>
@@ -10331,13 +10605,13 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E72" s="10">
         <v>6433000000</v>
@@ -10429,13 +10703,13 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E73" s="11">
         <v>17648000000</v>
@@ -10527,97 +10801,97 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="21" x14ac:dyDescent="0.25">
@@ -10625,97 +10899,97 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -10723,19 +10997,19 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G76" s="1">
         <v>1300000000</v>
@@ -10744,7 +11018,7 @@
         <v>1001000000</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J76" s="1">
         <v>-424000000</v>
@@ -11017,49 +11291,49 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q79" s="1">
         <v>149000000</v>
@@ -11112,130 +11386,130 @@
     </row>
     <row r="80" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AF80" si="61">B79/B3</f>
+        <f t="shared" ref="B80:AF80" si="73">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>#VALUE!</v>
       </c>
       <c r="N80" s="15" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>#VALUE!</v>
       </c>
       <c r="O80" s="15" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>#VALUE!</v>
       </c>
       <c r="P80" s="15" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>3.5593139362667813E-3</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>3.627343146661674E-3</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>3.4079090044037267E-3</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>3.6678820164618036E-3</v>
       </c>
       <c r="U80" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>3.3764166971332718E-3</v>
       </c>
       <c r="V80" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>3.5394853969734222E-3</v>
       </c>
       <c r="W80" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>4.1668503902288464E-3</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>3.5964912280701754E-3</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>2.9914159368767883E-3</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>3.1535726379952589E-3</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>3.0951261557749569E-3</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>3.2178862393512147E-3</v>
       </c>
       <c r="AC80" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>3.1599010232060457E-3</v>
       </c>
       <c r="AD80" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>3.379308235725863E-3</v>
       </c>
       <c r="AE80" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>3.3858361672931209E-3</v>
       </c>
       <c r="AF80" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>3.6069350145489817E-3</v>
       </c>
     </row>
@@ -11366,16 +11640,16 @@
         <v>130000000</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1">
         <v>394000000</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N82" s="1">
         <v>-87000000</v>
@@ -11384,22 +11658,22 @@
         <v>-390000000</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T82" s="1">
         <v>-15000000</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V82" s="1">
         <v>-460000000</v>
@@ -11432,7 +11706,7 @@
         <v>15000000</v>
       </c>
       <c r="AF82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:40" ht="21" x14ac:dyDescent="0.25">
@@ -11532,44 +11806,44 @@
       <c r="AF83" s="1">
         <v>-107000000</v>
       </c>
-      <c r="AM83" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="AN83" s="54"/>
+      <c r="AM83" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN83" s="49"/>
     </row>
     <row r="84" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1">
         <v>-317000000</v>
@@ -11634,10 +11908,10 @@
       <c r="AF84" s="1">
         <v>1274000000</v>
       </c>
-      <c r="AM84" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="AN84" s="55"/>
+      <c r="AM84" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN84" s="50"/>
     </row>
     <row r="85" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -11668,7 +11942,7 @@
         <v>-677000000</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K85" s="1">
         <v>-336000000</v>
@@ -11677,16 +11951,16 @@
         <v>320000000</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q85" s="1">
         <v>307000000</v>
@@ -11734,12 +12008,12 @@
         <v>607000000</v>
       </c>
       <c r="AF85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM85" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="AN85" s="32">
+        <v>91</v>
+      </c>
+      <c r="AM85" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN85" s="26">
         <f>AF17</f>
         <v>623000000</v>
       </c>
@@ -11767,7 +12041,7 @@
         <v>-379000000</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I86" s="1">
         <v>737000000</v>
@@ -11839,12 +12113,12 @@
         <v>1444000000</v>
       </c>
       <c r="AF86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM86" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN86" s="33">
+        <v>91</v>
+      </c>
+      <c r="AM86" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN86" s="27">
         <f>AF56</f>
         <v>0</v>
       </c>
@@ -11946,10 +12220,10 @@
       <c r="AF87" s="10">
         <v>7802000000</v>
       </c>
-      <c r="AM87" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="AN87" s="32">
+      <c r="AM87" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN87" s="26">
         <f>AF61</f>
         <v>15429000000</v>
       </c>
@@ -12019,178 +12293,178 @@
         <v>-814000000</v>
       </c>
       <c r="V88" s="1">
-        <v>0</v>
+        <v>-918000000</v>
       </c>
       <c r="W88" s="1">
-        <v>0</v>
+        <v>-852000000</v>
       </c>
       <c r="X88" s="1">
-        <v>0</v>
+        <v>-825000000</v>
       </c>
       <c r="Y88" s="1">
-        <v>0</v>
+        <v>-731000000</v>
       </c>
       <c r="Z88" s="1">
-        <v>0</v>
+        <v>-985000000</v>
       </c>
       <c r="AA88" s="1">
-        <v>0</v>
+        <v>-1147000000</v>
       </c>
       <c r="AB88" s="1">
-        <v>0</v>
+        <v>-1075000000</v>
       </c>
       <c r="AC88" s="1">
-        <v>0</v>
+        <v>-1241000000</v>
       </c>
       <c r="AD88" s="1">
-        <v>0</v>
+        <v>-1728000000</v>
       </c>
       <c r="AE88" s="1">
-        <v>0</v>
+        <v>-1161000000</v>
       </c>
       <c r="AF88" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM88" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="AN88" s="35">
+        <v>-1789000000</v>
+      </c>
+      <c r="AM88" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN88" s="29">
         <f>AN85/(AN86+AN87)</f>
         <v>4.0378508004407287E-2</v>
       </c>
     </row>
     <row r="89" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" ref="B89:AF89" si="74">(-1*B88)/B3</f>
+        <v>3.106674984404242E-2</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="74"/>
+        <v>2.3931776577220162E-2</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="74"/>
+        <v>2.2221252073692483E-2</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="74"/>
+        <v>2.3235461427383714E-2</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="74"/>
+        <v>2.7423255813953488E-2</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="74"/>
+        <v>2.6719868894509956E-2</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="74"/>
+        <v>2.6536206502703115E-2</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="74"/>
+        <v>2.6204465334900118E-2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="74"/>
+        <v>1.9740218721623435E-2</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="74"/>
+        <v>2.5802417674030846E-2</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="74"/>
+        <v>2.4907818496500866E-2</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="74"/>
+        <v>2.1587481146304675E-2</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="74"/>
+        <v>2.1646118335866688E-2</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="74"/>
+        <v>2.3244565071346035E-2</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="74"/>
+        <v>2.2539121655729428E-2</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="74"/>
+        <v>2.2454732215374324E-2</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="74"/>
+        <v>2.1670450024572324E-2</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="74"/>
+        <v>1.8854145920467372E-2</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="74"/>
+        <v>1.7902757461301662E-2</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="74"/>
+        <v>1.7505752811888427E-2</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="74"/>
+        <v>1.9456572421686236E-2</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="74"/>
+        <v>1.8783896997222101E-2</v>
+      </c>
+      <c r="X89" s="15">
+        <f t="shared" si="74"/>
+        <v>1.8092105263157895E-2</v>
+      </c>
+      <c r="Y89" s="15">
+        <f t="shared" si="74"/>
+        <v>1.5845833694615452E-2</v>
+      </c>
+      <c r="Z89" s="15">
+        <f t="shared" si="74"/>
+        <v>2.0847443278022348E-2</v>
+      </c>
+      <c r="AA89" s="15">
+        <f t="shared" si="74"/>
+        <v>2.246904873844225E-2</v>
+      </c>
+      <c r="AB89" s="15">
+        <f t="shared" si="74"/>
+        <v>1.9995535880361594E-2</v>
+      </c>
+      <c r="AC89" s="15">
+        <f t="shared" si="74"/>
+        <v>2.074834481374975E-2</v>
+      </c>
+      <c r="AD89" s="15">
+        <f t="shared" si="74"/>
+        <v>2.6422826386128015E-2</v>
+      </c>
+      <c r="AE89" s="15">
+        <f t="shared" si="74"/>
+        <v>1.7316985860032219E-2</v>
+      </c>
+      <c r="AF89" s="15">
+        <f t="shared" si="74"/>
+        <v>2.7112633365664402E-2</v>
+      </c>
+      <c r="AM89" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15">
-        <f t="shared" ref="B89:AF89" si="62">(-1*B88)/B3</f>
-        <v>3.106674984404242E-2</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="62"/>
-        <v>2.3931776577220162E-2</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="62"/>
-        <v>2.2221252073692483E-2</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="62"/>
-        <v>2.3235461427383714E-2</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="62"/>
-        <v>2.7423255813953488E-2</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="62"/>
-        <v>2.6719868894509956E-2</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="62"/>
-        <v>2.6536206502703115E-2</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="62"/>
-        <v>2.6204465334900118E-2</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="62"/>
-        <v>1.9740218721623435E-2</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="62"/>
-        <v>2.5802417674030846E-2</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="62"/>
-        <v>2.4907818496500866E-2</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="62"/>
-        <v>2.1587481146304675E-2</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="62"/>
-        <v>2.1646118335866688E-2</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="62"/>
-        <v>2.3244565071346035E-2</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="62"/>
-        <v>2.2539121655729428E-2</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="62"/>
-        <v>2.2454732215374324E-2</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="62"/>
-        <v>2.1670450024572324E-2</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="62"/>
-        <v>1.8854145920467372E-2</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="62"/>
-        <v>1.7902757461301662E-2</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="62"/>
-        <v>1.7505752811888427E-2</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="X89" s="15">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="Y89" s="15">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="Z89" s="15">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="AA89" s="15">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="AB89" s="15">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="AC89" s="15">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="AD89" s="15">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="AE89" s="15">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="AF89" s="15">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="AM89" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="AN89" s="32">
+      <c r="AN89" s="26">
         <f>AF27</f>
         <v>948000000</v>
       </c>
@@ -12224,7 +12498,7 @@
         <v>160000000</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1">
         <v>825000000</v>
@@ -12272,30 +12546,30 @@
         <v>-9003000000</v>
       </c>
       <c r="Z90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD90" s="1">
         <v>-282000000</v>
       </c>
       <c r="AE90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM90" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM90" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="AN90" s="32">
+      <c r="AN90" s="26">
         <f>AF25</f>
         <v>6680000000</v>
       </c>
@@ -12308,34 +12582,34 @@
         <v>-200000000</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K91" s="1">
         <v>-192000000</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M91" s="1">
         <v>-240000000</v>
@@ -12347,13 +12621,13 @@
         <v>-33000000</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S91" s="1">
         <v>-279000000</v>
@@ -12362,45 +12636,45 @@
         <v>-171000000</v>
       </c>
       <c r="U91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM91" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="AN91" s="35">
+        <v>91</v>
+      </c>
+      <c r="AM91" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN91" s="29">
         <f>AN89/AN90</f>
         <v>0.14191616766467066</v>
       </c>
@@ -12413,99 +12687,99 @@
         <v>214000000</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R92" s="1">
         <v>272000000</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM92" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="AN92" s="35">
+        <v>91</v>
+      </c>
+      <c r="AM92" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN92" s="29">
         <f>AN88*(1-AN91)</f>
         <v>3.464814489240458E-2</v>
       </c>
@@ -12607,10 +12881,10 @@
       <c r="AF93" s="1">
         <v>-1789000000</v>
       </c>
-      <c r="AM93" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN93" s="56"/>
+      <c r="AM93" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="AN93" s="51"/>
     </row>
     <row r="94" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -12709,11 +12983,12 @@
       <c r="AF94" s="10">
         <v>-1789000000</v>
       </c>
-      <c r="AM94" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="AN94" s="36">
-        <v>4.095E-2</v>
+      <c r="AM94" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="AN94" s="66">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.739E-2</v>
       </c>
     </row>
     <row r="95" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -12745,7 +13020,7 @@
         <v>-1935000000</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1">
         <v>-2578000000</v>
@@ -12775,19 +13050,19 @@
         <v>-242000000</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U95" s="1">
         <v>-632000000</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W95" s="1">
         <v>-150000000</v>
       </c>
       <c r="X95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y95" s="1">
         <v>-6000000000</v>
@@ -12796,7 +13071,7 @@
         <v>-952000000</v>
       </c>
       <c r="AA95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB95" s="1">
         <v>-750000000</v>
@@ -12813,12 +13088,12 @@
       <c r="AF95" s="1">
         <v>-2250000000</v>
       </c>
-      <c r="AM95" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN95" s="37" cm="1">
+      <c r="AM95" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN95" s="31" cm="1">
         <f t="array" ref="AN95">_FV(A1,"Beta")</f>
-        <v>0.66910000000000003</v>
+        <v>0.66979999999999995</v>
       </c>
     </row>
     <row r="96" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -12883,45 +13158,45 @@
         <v>73000000</v>
       </c>
       <c r="U96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM96" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN96" s="36">
+        <v>91</v>
+      </c>
+      <c r="AM96" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN96" s="30">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -12933,16 +13208,16 @@
         <v>-266000000</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1">
         <v>-150000000</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1">
         <v>-1571000000</v>
@@ -12951,13 +13226,13 @@
         <v>-51000000</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L97" s="1">
         <v>-50000000</v>
@@ -13022,12 +13297,12 @@
       <c r="AF97" s="1">
         <v>-7900000000</v>
       </c>
-      <c r="AM97" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="AN97" s="35">
+      <c r="AM97" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="AN97" s="29">
         <f>(AN94)+((AN95)*(AN96-AN94))</f>
-        <v>6.9754755000000002E-2</v>
+        <v>6.8609377999999999E-2</v>
       </c>
     </row>
     <row r="98" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -13127,10 +13402,10 @@
       <c r="AF98" s="1">
         <v>-3016000000</v>
       </c>
-      <c r="AM98" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="AN98" s="56"/>
+      <c r="AM98" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN98" s="51"/>
     </row>
     <row r="99" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -13164,19 +13439,19 @@
         <v>-2559000000</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M99" s="1">
         <v>825000000</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P99" s="1">
         <v>-353000000</v>
@@ -13229,10 +13504,10 @@
       <c r="AF99" s="1">
         <v>6096000000</v>
       </c>
-      <c r="AM99" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN99" s="32">
+      <c r="AM99" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="AN99" s="26">
         <f>AN86+AN87</f>
         <v>15429000000</v>
       </c>
@@ -13334,12 +13609,12 @@
       <c r="AF100" s="10">
         <v>-7070000000</v>
       </c>
-      <c r="AM100" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN100" s="35">
+      <c r="AM100" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN100" s="29">
         <f>AN99/AN103</f>
-        <v>0.1176075485448852</v>
+        <v>0.11658183774504174</v>
       </c>
     </row>
     <row r="101" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -13347,52 +13622,52 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R101" s="1">
         <v>-56000000</v>
@@ -13404,47 +13679,47 @@
         <v>5000000</v>
       </c>
       <c r="U101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF101" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM101" s="31" t="s">
-        <v>141</v>
+        <v>91</v>
+      </c>
+      <c r="AM101" s="25" t="s">
+        <v>139</v>
       </c>
       <c r="AN101" s="22" cm="1">
         <f t="array" ref="AN101">_FV(A1,"Market cap",TRUE)</f>
-        <v>115761558692</v>
+        <v>116915800000</v>
       </c>
     </row>
     <row r="102" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -13544,12 +13819,12 @@
       <c r="AF102" s="10">
         <v>-1057000000</v>
       </c>
-      <c r="AM102" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="AN102" s="35">
+      <c r="AM102" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN102" s="29">
         <f>AN101/AN103</f>
-        <v>0.8823924514551148</v>
+        <v>0.88341816225495828</v>
       </c>
     </row>
     <row r="103" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -13572,10 +13847,10 @@
         <v>653000000</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I103" s="1">
         <v>285000000</v>
@@ -13649,15 +13924,15 @@
       <c r="AF103" s="1">
         <v>3604000000</v>
       </c>
-      <c r="AM103" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="AN103" s="38">
+      <c r="AM103" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN103" s="32">
         <f>AN99+AN101</f>
-        <v>131190558692</v>
+        <v>132344800000</v>
       </c>
     </row>
-    <row r="104" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:40" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -13674,10 +13949,10 @@
         <v>653000000</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H104" s="11">
         <v>285000000</v>
@@ -13754,474 +14029,486 @@
       <c r="AF104" s="11">
         <v>2547000000</v>
       </c>
-      <c r="AM104" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="AN104" s="55"/>
+      <c r="AM104" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN104" s="50"/>
     </row>
-    <row r="105" spans="1:40" ht="20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:40" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
-        <v>0.35735294117647065</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>6.6088840736728161E-2</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>-0.22662601626016265</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>0.18134034165571622</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>-0.49054505005561733</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:Q105" si="63">(H106/G106)-1</f>
-        <v>1.9126637554585151</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="63"/>
-        <v>-0.69415292353823088</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="63"/>
-        <v>2.715686274509804</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="63"/>
-        <v>-0.20448548812664913</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="63"/>
-        <v>0.34825870646766166</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="63"/>
-        <v>-0.30996309963099633</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="63"/>
-        <v>0.92067736185383242</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="63"/>
-        <v>8.0742459396751842E-2</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="63"/>
-        <v>0.24087591240875916</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="63"/>
-        <v>0.14221453287197239</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" ref="R105" si="64">(R106/Q106)-1</f>
-        <v>5.8770069675855741E-2</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" ref="S105" si="65">(S106/R106)-1</f>
-        <v>-0.33590844062947067</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" ref="T105" si="66">(T106/S106)-1</f>
-        <v>0.17492460146488575</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" ref="U105" si="67">(U106/T106)-1</f>
-        <v>0.19765309864319769</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" ref="V105" si="68">(V106/U106)-1</f>
-        <v>-0.81047152480097973</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" ref="W105" si="69">(W106/V106)-1</f>
-        <v>4.9935379644588043</v>
-      </c>
-      <c r="X105" s="15">
-        <f t="shared" ref="X105" si="70">(X106/W106)-1</f>
-        <v>-0.18571428571428572</v>
-      </c>
-      <c r="Y105" s="15">
-        <f t="shared" ref="Y105" si="71">(Y106/X106)-1</f>
-        <v>0.37768950678583257</v>
-      </c>
-      <c r="Z105" s="15">
-        <f t="shared" ref="Z105" si="72">(Z106/Y106)-1</f>
-        <v>-8.6496876501681585E-3</v>
-      </c>
-      <c r="AA105" s="15">
-        <f t="shared" ref="AA105" si="73">(AA106/Z106)-1</f>
-        <v>0.28429471643238013</v>
-      </c>
-      <c r="AB105" s="15">
-        <f t="shared" ref="AB105" si="74">(AB106/AA106)-1</f>
-        <v>-0.64899037554255523</v>
-      </c>
-      <c r="AC105" s="15">
-        <f t="shared" ref="AC105" si="75">(AC106/AB106)-1</f>
-        <v>2.1327956989247312</v>
-      </c>
-      <c r="AD105" s="15">
-        <f t="shared" ref="AD105" si="76">(AD106/AC106)-1</f>
-        <v>0.10125278874206289</v>
-      </c>
-      <c r="AE105" s="15">
-        <f t="shared" ref="AE105" si="77">(AE106/AD106)-1</f>
-        <v>0.19978182951534995</v>
-      </c>
-      <c r="AF105" s="15">
-        <f t="shared" ref="AF105" si="78">(AF106/AE106)-1</f>
-        <v>-0.20353292635407194</v>
-      </c>
-      <c r="AG105" s="15"/>
-      <c r="AH105" s="15"/>
-      <c r="AI105" s="15"/>
-      <c r="AJ105" s="15"/>
-      <c r="AK105" s="15"/>
-      <c r="AL105" s="15"/>
-      <c r="AM105" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="AN105" s="40">
+        <v>158</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:AE105" si="75">(B22*(1-$AN$91))+B77+B88+B81</f>
+        <v>1021357485.0299401</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="75"/>
+        <v>1250449101.7964072</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="75"/>
+        <v>1550531137.7245512</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="75"/>
+        <v>813063473.05389214</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="75"/>
+        <v>2369289221.5568862</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="75"/>
+        <v>1353018562.8742514</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="75"/>
+        <v>2148213173.6526947</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="75"/>
+        <v>806709580.83832359</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="75"/>
+        <v>3061947305.3892217</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="75"/>
+        <v>1671023353.2934132</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="75"/>
+        <v>2134405389.2215567</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="75"/>
+        <v>1294573652.6946106</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="75"/>
+        <v>2108537125.7485027</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="75"/>
+        <v>2508238323.3532934</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="75"/>
+        <v>3519005389.2215571</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="75"/>
+        <v>4017545508.9820366</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="75"/>
+        <v>3977828143.712575</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="75"/>
+        <v>3343202395.2095814</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="75"/>
+        <v>2609569461.0778446</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="75"/>
+        <v>4013173652.6946106</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="75"/>
+        <v>395743712.57485008</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="75"/>
+        <v>3894667664.6706581</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="75"/>
+        <v>4066404790.4191618</v>
+      </c>
+      <c r="Y105" s="1">
+        <f t="shared" si="75"/>
+        <v>5133543712.5748501</v>
+      </c>
+      <c r="Z105" s="1">
+        <f t="shared" si="75"/>
+        <v>5123507185.6287422</v>
+      </c>
+      <c r="AA105" s="1">
+        <f t="shared" si="75"/>
+        <v>4803714371.2574854</v>
+      </c>
+      <c r="AB105" s="1">
+        <f t="shared" si="75"/>
+        <v>2481186826.3473053</v>
+      </c>
+      <c r="AC105" s="1">
+        <f t="shared" si="75"/>
+        <v>6538326347.3053894</v>
+      </c>
+      <c r="AD105" s="1">
+        <f t="shared" si="75"/>
+        <v>5864276646.7065868</v>
+      </c>
+      <c r="AE105" s="1">
+        <f t="shared" si="75"/>
+        <v>8085298802.3952103</v>
+      </c>
+      <c r="AF105" s="1">
+        <f>(AF22*(1-$AN$91))+AF77+AF88+AF81</f>
+        <v>7963283832.33533</v>
+      </c>
+      <c r="AG105" s="20">
+        <f>AF105*(1+$AN$106)</f>
+        <v>8219625570.1676369</v>
+      </c>
+      <c r="AH105" s="20">
+        <f t="shared" ref="AH105:AK105" si="76">AG105*(1+$AN$106)</f>
+        <v>8484219065.4329853</v>
+      </c>
+      <c r="AI105" s="20">
+        <f t="shared" si="76"/>
+        <v>8757329945.9659576</v>
+      </c>
+      <c r="AJ105" s="20">
+        <f t="shared" si="76"/>
+        <v>9039232390.282259</v>
+      </c>
+      <c r="AK105" s="20">
+        <f t="shared" si="76"/>
+        <v>9330209402.8290424</v>
+      </c>
+      <c r="AL105" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM105" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN105" s="34">
         <f>(AN100*AN92)+(AN102*AN97)</f>
-        <v>6.5625952647524619E-2</v>
+        <v>6.4650115032228769E-2</v>
       </c>
     </row>
     <row r="106" spans="1:40" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
-        <v>680000000</v>
-      </c>
-      <c r="C106" s="1">
-        <v>923000000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>984000000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>761000000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>899000000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>458000000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>1334000000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>408000000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>1516000000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>1206000000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>1626000000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>1122000000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>2155000000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>2329000000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>2890000000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>3301000000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>3495000000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>2321000000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>2727000000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>3266000000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>619000000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>3710000000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>3021000000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>4162000000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>4126000000</v>
-      </c>
-      <c r="AA106" s="1">
-        <v>5299000000</v>
-      </c>
-      <c r="AB106" s="1">
-        <v>1860000000</v>
-      </c>
-      <c r="AC106" s="1">
-        <v>5827000000</v>
-      </c>
-      <c r="AD106" s="1">
-        <v>6417000000</v>
-      </c>
-      <c r="AE106" s="1">
-        <v>7699000000</v>
-      </c>
-      <c r="AF106" s="1">
-        <v>6132000000</v>
-      </c>
-      <c r="AG106" s="20">
-        <f>AF106*(1+$AN$106)</f>
-        <v>6329391876.2012444</v>
-      </c>
-      <c r="AH106" s="20">
-        <f t="shared" ref="AH106:AK106" si="79">AG106*(1+$AN$106)</f>
-        <v>6533137886.9084005</v>
-      </c>
-      <c r="AI106" s="20">
-        <f t="shared" si="79"/>
-        <v>6743442574.6087074</v>
-      </c>
-      <c r="AJ106" s="20">
-        <f t="shared" si="79"/>
-        <v>6960517066.1053419</v>
-      </c>
-      <c r="AK106" s="20">
-        <f t="shared" si="79"/>
-        <v>7184579284.4695492</v>
+      <c r="A106" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f>(C107/B107)-1</f>
+        <v>0.35735294117647065</v>
+      </c>
+      <c r="D106" s="15">
+        <f>(D107/C107)-1</f>
+        <v>6.6088840736728161E-2</v>
+      </c>
+      <c r="E106" s="15">
+        <f>(E107/D107)-1</f>
+        <v>-0.22662601626016265</v>
+      </c>
+      <c r="F106" s="15">
+        <f>(F107/E107)-1</f>
+        <v>0.18134034165571622</v>
+      </c>
+      <c r="G106" s="15">
+        <f>(G107/F107)-1</f>
+        <v>-0.49054505005561733</v>
+      </c>
+      <c r="H106" s="15">
+        <f>(H107/G107)-1</f>
+        <v>1.9126637554585151</v>
+      </c>
+      <c r="I106" s="15">
+        <f>(I107/H107)-1</f>
+        <v>-0.69415292353823088</v>
+      </c>
+      <c r="J106" s="15">
+        <f>(J107/I107)-1</f>
+        <v>2.715686274509804</v>
+      </c>
+      <c r="K106" s="15">
+        <f>(K107/J107)-1</f>
+        <v>-0.20448548812664913</v>
+      </c>
+      <c r="L106" s="15">
+        <f>(L107/K107)-1</f>
+        <v>0.34825870646766166</v>
+      </c>
+      <c r="M106" s="15">
+        <f>(M107/L107)-1</f>
+        <v>-0.30996309963099633</v>
+      </c>
+      <c r="N106" s="15">
+        <f>(N107/M107)-1</f>
+        <v>0.92067736185383242</v>
+      </c>
+      <c r="O106" s="15">
+        <f>(O107/N107)-1</f>
+        <v>8.0742459396751842E-2</v>
+      </c>
+      <c r="P106" s="15">
+        <f>(P107/O107)-1</f>
+        <v>0.24087591240875916</v>
+      </c>
+      <c r="Q106" s="15">
+        <f>(Q107/P107)-1</f>
+        <v>0.14221453287197239</v>
+      </c>
+      <c r="R106" s="15">
+        <f>(R107/Q107)-1</f>
+        <v>5.8770069675855741E-2</v>
+      </c>
+      <c r="S106" s="15">
+        <f>(S107/R107)-1</f>
+        <v>-0.33590844062947067</v>
+      </c>
+      <c r="T106" s="15">
+        <f>(T107/S107)-1</f>
+        <v>0.17492460146488575</v>
+      </c>
+      <c r="U106" s="15">
+        <f>(U107/T107)-1</f>
+        <v>0.19765309864319769</v>
+      </c>
+      <c r="V106" s="15">
+        <f>(V107/U107)-1</f>
+        <v>-0.81047152480097973</v>
+      </c>
+      <c r="W106" s="15">
+        <f>(W107/V107)-1</f>
+        <v>4.9935379644588043</v>
+      </c>
+      <c r="X106" s="15">
+        <f>(X107/W107)-1</f>
+        <v>-0.18571428571428572</v>
+      </c>
+      <c r="Y106" s="15">
+        <f>(Y107/X107)-1</f>
+        <v>0.37768950678583257</v>
+      </c>
+      <c r="Z106" s="15">
+        <f>(Z107/Y107)-1</f>
+        <v>-8.6496876501681585E-3</v>
+      </c>
+      <c r="AA106" s="15">
+        <f>(AA107/Z107)-1</f>
+        <v>0.28429471643238013</v>
+      </c>
+      <c r="AB106" s="15">
+        <f>(AB107/AA107)-1</f>
+        <v>-0.64899037554255523</v>
+      </c>
+      <c r="AC106" s="15">
+        <f>(AC107/AB107)-1</f>
+        <v>2.1327956989247312</v>
+      </c>
+      <c r="AD106" s="15">
+        <f>(AD107/AC107)-1</f>
+        <v>0.10125278874206289</v>
+      </c>
+      <c r="AE106" s="15">
+        <f>(AE107/AD107)-1</f>
+        <v>0.19978182951534995</v>
+      </c>
+      <c r="AF106" s="15">
+        <f>(AF107/AE107)-1</f>
+        <v>-0.20353292635407194</v>
+      </c>
+      <c r="AG106" s="52">
+        <v>6663000000</v>
+      </c>
+      <c r="AH106" s="52">
+        <v>6891000000</v>
+      </c>
+      <c r="AI106" s="52">
+        <v>7109000000</v>
+      </c>
+      <c r="AJ106" s="52">
+        <v>7373000000</v>
+      </c>
+      <c r="AK106" s="52">
+        <v>7650000000</v>
       </c>
       <c r="AL106" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM106" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="AN106" s="42">
+        <v>162</v>
+      </c>
+      <c r="AM106" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="AN106" s="36">
         <f>(SUM(AG4:AK4)/5)</f>
         <v>3.2190456001507585E-2</v>
       </c>
     </row>
     <row r="107" spans="1:40" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="B107" s="51">
-        <f t="shared" ref="B107:AE107" si="80">B106/B3</f>
-        <v>4.2420461634435434E-2</v>
-      </c>
-      <c r="C107" s="51">
-        <f t="shared" si="80"/>
-        <v>4.1210876456668301E-2</v>
-      </c>
-      <c r="D107" s="51">
-        <f t="shared" si="80"/>
-        <v>4.2958176896882916E-2</v>
-      </c>
-      <c r="E107" s="51">
-        <f t="shared" si="80"/>
-        <v>3.3299785586137484E-2</v>
-      </c>
-      <c r="F107" s="51">
-        <f t="shared" si="80"/>
-        <v>3.3451162790697674E-2</v>
-      </c>
-      <c r="G107" s="51">
-        <f t="shared" si="80"/>
-        <v>1.6316933271580746E-2</v>
-      </c>
-      <c r="H107" s="51">
-        <f t="shared" si="80"/>
-        <v>5.0788091068301226E-2</v>
-      </c>
-      <c r="I107" s="51">
-        <f t="shared" si="80"/>
-        <v>1.5981198589894243E-2</v>
-      </c>
-      <c r="J107" s="51">
-        <f t="shared" si="80"/>
-        <v>5.9852343163962256E-2</v>
-      </c>
-      <c r="K107" s="51">
-        <f t="shared" si="80"/>
-        <v>5.0270946227594829E-2</v>
-      </c>
-      <c r="L107" s="51">
-        <f t="shared" si="80"/>
-        <v>6.1178418240650165E-2</v>
-      </c>
-      <c r="M107" s="51">
-        <f t="shared" si="80"/>
-        <v>3.5256410256410256E-2</v>
-      </c>
-      <c r="N107" s="51">
-        <f t="shared" si="80"/>
-        <v>6.0659798457467773E-2</v>
-      </c>
-      <c r="O107" s="51">
-        <f t="shared" si="80"/>
-        <v>6.2585655550479666E-2</v>
-      </c>
-      <c r="P107" s="51">
-        <f t="shared" si="80"/>
-        <v>7.29429581019687E-2</v>
-      </c>
-      <c r="Q107" s="51">
-        <f t="shared" si="80"/>
-        <v>7.8854330896756003E-2</v>
-      </c>
-      <c r="R107" s="51">
-        <f t="shared" si="80"/>
-        <v>8.179073740375839E-2</v>
-      </c>
-      <c r="S107" s="51">
-        <f t="shared" si="80"/>
-        <v>5.1362057137799025E-2</v>
-      </c>
-      <c r="T107" s="51">
-        <f t="shared" si="80"/>
-        <v>5.9537584874353205E-2</v>
-      </c>
-      <c r="U107" s="51">
-        <f t="shared" si="80"/>
-        <v>7.0238069635906147E-2</v>
-      </c>
-      <c r="V107" s="51">
-        <f t="shared" si="80"/>
-        <v>1.3119409944470349E-2</v>
-      </c>
-      <c r="W107" s="51">
-        <f t="shared" si="80"/>
-        <v>8.1793729882269947E-2</v>
-      </c>
-      <c r="X107" s="51">
-        <f t="shared" si="80"/>
-        <v>6.6250000000000003E-2</v>
-      </c>
-      <c r="Y107" s="51">
-        <f t="shared" si="80"/>
-        <v>9.0219370502037627E-2</v>
-      </c>
-      <c r="Z107" s="51">
-        <f t="shared" si="80"/>
-        <v>8.7326447680325089E-2</v>
-      </c>
-      <c r="AA107" s="51">
-        <f t="shared" si="80"/>
-        <v>0.10380426265475631</v>
-      </c>
-      <c r="AB107" s="51">
-        <f t="shared" si="80"/>
-        <v>3.4596927197648897E-2</v>
-      </c>
-      <c r="AC107" s="51">
-        <f t="shared" si="80"/>
-        <v>9.7421922022336654E-2</v>
-      </c>
-      <c r="AD107" s="51">
-        <f t="shared" si="80"/>
-        <v>9.8122266735985814E-2</v>
-      </c>
-      <c r="AE107" s="51">
-        <f t="shared" si="80"/>
-        <v>0.11483503370920589</v>
-      </c>
-      <c r="AF107" s="51">
-        <f>AF106/AF3</f>
-        <v>9.2931619786614933E-2</v>
+      <c r="A107" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="B107" s="1">
+        <v>680000000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>923000000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>984000000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>761000000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>899000000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>458000000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>1334000000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>408000000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>1516000000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>1206000000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>1626000000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>1122000000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>2155000000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>2329000000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>2890000000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>3301000000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>3495000000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>2321000000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>2727000000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>3266000000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>619000000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>3710000000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>3021000000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>4162000000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>4126000000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>5299000000</v>
+      </c>
+      <c r="AB107" s="1">
+        <v>1860000000</v>
+      </c>
+      <c r="AC107" s="1">
+        <v>5827000000</v>
+      </c>
+      <c r="AD107" s="1">
+        <v>6417000000</v>
+      </c>
+      <c r="AE107" s="1">
+        <v>7699000000</v>
+      </c>
+      <c r="AF107" s="1">
+        <v>6132000000</v>
       </c>
       <c r="AG107" s="21"/>
       <c r="AH107" s="21"/>
       <c r="AI107" s="21"/>
       <c r="AJ107" s="21"/>
-      <c r="AK107" s="22">
+      <c r="AK107" s="61">
         <f>AK106*(1+AN107)/(AN108-AN107)</f>
-        <v>160616281851.08212</v>
+        <v>174758788289.07248</v>
       </c>
       <c r="AL107" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM107" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="AN107" s="44">
+        <v>144</v>
+      </c>
+      <c r="AM107" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN107" s="38">
         <v>0.02</v>
       </c>
     </row>
     <row r="108" spans="1:40" ht="19" x14ac:dyDescent="0.25">
-      <c r="AG108" s="22">
-        <f t="shared" ref="AG108:AI108" si="81">AG107+AG106</f>
-        <v>6329391876.2012444</v>
-      </c>
-      <c r="AH108" s="22">
-        <f t="shared" si="81"/>
-        <v>6533137886.9084005</v>
-      </c>
-      <c r="AI108" s="22">
-        <f t="shared" si="81"/>
-        <v>6743442574.6087074</v>
-      </c>
-      <c r="AJ108" s="22">
-        <f>AJ107+AJ106</f>
-        <v>6960517066.1053419</v>
-      </c>
-      <c r="AK108" s="22">
+      <c r="AG108" s="61">
+        <f t="shared" ref="AG108:AJ108" si="77">AG107+AG106</f>
+        <v>6663000000</v>
+      </c>
+      <c r="AH108" s="61">
+        <f t="shared" si="77"/>
+        <v>6891000000</v>
+      </c>
+      <c r="AI108" s="61">
+        <f t="shared" si="77"/>
+        <v>7109000000</v>
+      </c>
+      <c r="AJ108" s="61">
+        <f t="shared" si="77"/>
+        <v>7373000000</v>
+      </c>
+      <c r="AK108" s="61">
         <f>AK107+AK106</f>
-        <v>167800861135.55167</v>
+        <v>182408788289.07248</v>
       </c>
       <c r="AL108" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM108" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN108" s="42">
+        <v>141</v>
+      </c>
+      <c r="AM108" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="AN108" s="36">
         <f>AN105</f>
-        <v>6.5625952647524619E-2</v>
+        <v>6.4650115032228769E-2</v>
       </c>
     </row>
     <row r="109" spans="1:40" ht="19" x14ac:dyDescent="0.25">
-      <c r="AG109" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH109" s="52"/>
+      <c r="AG109" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH109" s="47"/>
     </row>
     <row r="110" spans="1:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG110" s="46" t="s">
-        <v>151</v>
+      <c r="AG110" s="40" t="s">
+        <v>148</v>
       </c>
       <c r="AH110" s="22">
         <f>NPV(AN108,AG108,AH108,AI108,AJ108,AK108)</f>
-        <v>144778771722.03085</v>
+        <v>157323218384.54132</v>
       </c>
     </row>
     <row r="111" spans="1:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG111" s="46" t="s">
-        <v>152</v>
+      <c r="AG111" s="40" t="s">
+        <v>149</v>
       </c>
       <c r="AH111" s="22">
         <f>AF40</f>
@@ -14229,8 +14516,8 @@
       </c>
     </row>
     <row r="112" spans="1:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG112" s="46" t="s">
-        <v>139</v>
+      <c r="AG112" s="40" t="s">
+        <v>137</v>
       </c>
       <c r="AH112" s="22">
         <f>AN99</f>
@@ -14238,55 +14525,55 @@
       </c>
     </row>
     <row r="113" spans="33:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG113" s="46" t="s">
-        <v>153</v>
+      <c r="AG113" s="40" t="s">
+        <v>150</v>
       </c>
       <c r="AH113" s="22">
         <f>AH110+AH111-AH112</f>
-        <v>131896771722.03085</v>
+        <v>144441218384.54132</v>
       </c>
     </row>
     <row r="114" spans="33:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG114" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="AH114" s="46">
+      <c r="AG114" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH114" s="40">
         <f>AF34*(1+(5*AL16))</f>
         <v>264580918.94763336</v>
       </c>
     </row>
     <row r="115" spans="33:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG115" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="AH115" s="48">
+      <c r="AG115" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH115" s="42">
         <f>AH113/AH114</f>
-        <v>498.51203271440846</v>
+        <v>545.92454723890944</v>
       </c>
     </row>
     <row r="116" spans="33:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG116" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="AH116" s="49" cm="1">
+      <c r="AG116" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH116" s="43" cm="1">
         <f t="array" ref="AH116">_FV(A1,"Price")</f>
-        <v>454.82499999999999</v>
+        <v>459.36</v>
       </c>
     </row>
     <row r="117" spans="33:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG117" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="AH117" s="58">
+      <c r="AG117" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH117" s="45">
         <f>AH115/AH116-1</f>
-        <v>9.6052399745854888E-2</v>
+        <v>0.18844598406241175</v>
       </c>
     </row>
     <row r="118" spans="33:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG118" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH118" s="59" t="str">
+      <c r="AG118" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH118" s="46" t="str">
         <f>IF(AH115&gt;AH116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
@@ -14375,8 +14662,9 @@
     <hyperlink ref="AF36" r:id="rId62" tooltip="https://www.sec.gov/Archives/edgar/data/936468/000093646823000009/0000936468-23-000009-index.htm" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
     <hyperlink ref="AF74" r:id="rId63" tooltip="https://www.sec.gov/Archives/edgar/data/936468/000093646823000009/0000936468-23-000009-index.htm" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
     <hyperlink ref="AG1" r:id="rId64" display="https://finbox.com/NYSE:LMT/explorer/revenue_proj" xr:uid="{F0656187-5304-6A49-BB3A-32B14EAACEF1}"/>
+    <hyperlink ref="AL106" r:id="rId65" xr:uid="{87ACC1A8-2470-5F46-A811-B65357141DE6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId65"/>
+  <drawing r:id="rId66"/>
 </worksheet>
 </file>
--- a/Industrials/Lockheed Martin.xlsx
+++ b/Industrials/Lockheed Martin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E95F250-8FE0-154C-9880-402F2D78B11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BCA6DD-B490-564B-BBD5-677B68886CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -586,7 +586,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -863,7 +863,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -943,21 +943,6 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -977,10 +962,10 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -988,7 +973,21 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2348,7 +2347,7 @@
       <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.739E-2</v>
+            <v>3.7190000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2488,9 +2487,9 @@
     <v>Powered by Refinitiv</v>
     <v>508.1</v>
     <v>373.67</v>
-    <v>0.66979999999999995</v>
-    <v>-4.07</v>
-    <v>-8.7819999999999999E-3</v>
+    <v>0.66790000000000005</v>
+    <v>0.35</v>
+    <v>7.7299999999999992E-4</v>
     <v>USD</v>
     <v>Lockheed Martin Corporation is a security and aerospace company. It operates through four segments. Aeronautics segment is engaged in the research, design, development, manufacture, support and upgrade of military aircraft, including combat and air mobility aircraft, unmanned air vehicles and related technologies. Missiles and Fire Control segment provides air and missile defense systems; fire control systems; manned and unmanned ground vehicles, and energy management solutions. Rotary and Mission Systems segment provides design, manufacture, service and support for various military and commercial helicopters, surface ships, sea and land-based missile defense systems, radar systems, sea and air-based mission and combat systems, command and control mission solutions, cyber solutions, and simulation and training solutions. Space segment is engaged in the research and development, design, engineering and production of satellites, space transportation systems, strike and defensive systems.</v>
     <v>116000</v>
@@ -2498,24 +2497,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>6801 ROCKLEDGE DR, BETHESDA, MD, 20817 US</v>
-    <v>465.42</v>
+    <v>455.63</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>45100.993896226566</v>
+    <v>45104.991251666404</v>
     <v>0</v>
-    <v>458.13</v>
-    <v>116915800000</v>
+    <v>452.42</v>
+    <v>115246200000</v>
     <v>LOCKHEED MARTIN CORPORATION</v>
     <v>LOCKHEED MARTIN CORPORATION</v>
-    <v>463.52</v>
-    <v>20.9846</v>
-    <v>463.43</v>
-    <v>459.36</v>
+    <v>452.79</v>
+    <v>20.700900000000001</v>
+    <v>452.8</v>
+    <v>453.15</v>
     <v>254518900</v>
     <v>LMT</v>
     <v>LOCKHEED MARTIN CORPORATION (XNYS:LMT)</v>
-    <v>765</v>
-    <v>1011282</v>
+    <v>671166</v>
+    <v>1002758</v>
     <v>1994</v>
   </rv>
   <rv s="2">
@@ -2668,10 +2667,10 @@
       <v>4</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
     </spb>
   </spbData>
@@ -3085,10 +3084,10 @@
   <dimension ref="A1:AO118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AC94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AC12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG126" sqref="AG126"/>
+      <selection pane="bottomRight" activeCell="AH26" sqref="AH26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3432,16 +3431,16 @@
       <c r="AK3" s="19">
         <v>77246000000</v>
       </c>
-      <c r="AL3" s="54" t="s">
+      <c r="AL3" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="AM3" s="54" t="s">
+      <c r="AM3" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="AN3" s="54" t="s">
+      <c r="AN3" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="AO3" s="54" t="s">
+      <c r="AO3" s="49" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3590,19 +3589,19 @@
         <f t="shared" si="10"/>
         <v>4.7474405044409806E-2</v>
       </c>
-      <c r="AL4" s="57">
+      <c r="AL4" s="52">
         <f>(AF4+AE4+AD4)/3</f>
         <v>3.4250361051318436E-2</v>
       </c>
-      <c r="AM4" s="57">
+      <c r="AM4" s="52">
         <f>(AF20+AE20+AD20)/3</f>
         <v>-1.0535508636902891E-2</v>
       </c>
-      <c r="AN4" s="57">
+      <c r="AN4" s="52">
         <f>(AF29+AE29+AD29)/3</f>
         <v>-2.3779574072930448E-2</v>
       </c>
-      <c r="AO4" s="57">
+      <c r="AO4" s="52">
         <f>(AF106+AE106+AD106)/3</f>
         <v>3.2500563967780303E-2</v>
       </c>
@@ -3802,16 +3801,16 @@
       <c r="AF6" s="10">
         <v>8287000000</v>
       </c>
-      <c r="AL6" s="54" t="s">
+      <c r="AL6" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="AM6" s="54" t="s">
+      <c r="AM6" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="AN6" s="54" t="s">
+      <c r="AN6" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="AO6" s="54" t="s">
+      <c r="AO6" s="49" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3912,19 +3911,19 @@
       <c r="AF7" s="2">
         <v>0.12559999999999999</v>
       </c>
-      <c r="AL7" s="57">
+      <c r="AL7" s="52">
         <f>AF7</f>
         <v>0.12559999999999999</v>
       </c>
-      <c r="AM7" s="57">
+      <c r="AM7" s="52">
         <f>AF21</f>
         <v>0.13200000000000001</v>
       </c>
-      <c r="AN7" s="57">
+      <c r="AN7" s="52">
         <f>AF30</f>
         <v>8.6900000000000005E-2</v>
       </c>
-      <c r="AO7" s="57">
+      <c r="AO7" s="52">
         <f>AF107/AF3</f>
         <v>9.2931619786614933E-2</v>
       </c>
@@ -4155,16 +4154,16 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AL9" s="54" t="s">
+      <c r="AL9" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="AM9" s="54" t="s">
+      <c r="AM9" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="AN9" s="54" t="s">
+      <c r="AN9" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="AO9" s="54" t="s">
+      <c r="AO9" s="49" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4265,19 +4264,19 @@
       <c r="AF10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AL10" s="57">
+      <c r="AL10" s="52">
         <f>AF9</f>
         <v>0</v>
       </c>
-      <c r="AM10" s="57">
+      <c r="AM10" s="52">
         <f>AF13</f>
         <v>0</v>
       </c>
-      <c r="AN10" s="57">
+      <c r="AN10" s="52">
         <f>AF80</f>
         <v>3.6069350145489817E-3</v>
       </c>
-      <c r="AO10" s="57">
+      <c r="AO10" s="52">
         <f>AF89</f>
         <v>2.7112633365664402E-2</v>
       </c>
@@ -4477,16 +4476,16 @@
       <c r="AF12" s="1">
         <v>0</v>
       </c>
-      <c r="AL12" s="54" t="s">
+      <c r="AL12" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="AM12" s="54" t="s">
+      <c r="AM12" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="AN12" s="54" t="s">
+      <c r="AN12" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="AO12" s="54" t="s">
+      <c r="AO12" s="49" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4618,19 +4617,19 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AL13" s="57">
+      <c r="AL13" s="52">
         <f>AF28/AF72</f>
         <v>0.6186056550830995</v>
       </c>
-      <c r="AM13" s="57">
+      <c r="AM13" s="52">
         <f>AF28/AF54</f>
         <v>0.1083963691376702</v>
       </c>
-      <c r="AN13" s="57">
+      <c r="AN13" s="52">
         <f>AF22/(AF72+AF56+AF61)</f>
         <v>0.33804413848957277</v>
       </c>
-      <c r="AO13" s="58">
+      <c r="AO13" s="53">
         <f>AF67/AF72</f>
         <v>4.7068853874379455</v>
       </c>
@@ -4830,16 +4829,16 @@
       <c r="AF15" s="1">
         <v>-74000000</v>
       </c>
-      <c r="AL15" s="54" t="s">
+      <c r="AL15" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="AM15" s="54" t="s">
+      <c r="AM15" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="AN15" s="54" t="s">
+      <c r="AN15" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="AO15" s="54" t="s">
+      <c r="AO15" s="49" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4940,21 +4939,21 @@
       <c r="AF16" s="1">
         <v>57623000000</v>
       </c>
-      <c r="AL16" s="57">
+      <c r="AL16" s="52">
         <f>(AF35+AE35+AD35+AC35+AB35)/5</f>
         <v>-9.2423078964431332E-3</v>
       </c>
-      <c r="AM16" s="56">
+      <c r="AM16" s="51">
         <f>AN101/AF3</f>
-        <v>1.7718810620756547</v>
-      </c>
-      <c r="AN16" s="56">
+        <v>1.7465779582929195</v>
+      </c>
+      <c r="AN16" s="51">
         <f>AN101/AF28</f>
-        <v>20.397034193998604</v>
-      </c>
-      <c r="AO16" s="56">
+        <v>20.105757152826239</v>
+      </c>
+      <c r="AO16" s="51">
         <f>AN101/AF107</f>
-        <v>19.066503587736463</v>
+        <v>18.794227005870841</v>
       </c>
     </row>
     <row r="17" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -5152,16 +5151,16 @@
       <c r="AF18" s="1">
         <v>1404000000</v>
       </c>
-      <c r="AL18" s="54" t="s">
+      <c r="AL18" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="AM18" s="54" t="s">
+      <c r="AM18" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="AN18" s="54" t="s">
+      <c r="AN18" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="AO18" s="54" t="s">
+      <c r="AO18" s="49" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5262,36 +5261,36 @@
       <c r="AF19" s="10">
         <v>8707000000</v>
       </c>
-      <c r="AG19" s="64">
+      <c r="AG19" s="59">
         <v>9851000001</v>
       </c>
-      <c r="AH19" s="64">
+      <c r="AH19" s="59">
         <v>10115000002</v>
       </c>
-      <c r="AI19" s="64">
+      <c r="AI19" s="59">
         <v>10434000003</v>
       </c>
-      <c r="AJ19" s="64">
+      <c r="AJ19" s="59">
         <v>10714000004</v>
       </c>
-      <c r="AK19" s="64">
+      <c r="AK19" s="59">
         <v>11000000005</v>
       </c>
-      <c r="AL19" s="55">
+      <c r="AL19" s="50">
         <f>AF40-AF56-AF61</f>
         <v>-12882000000</v>
       </c>
-      <c r="AM19" s="56">
+      <c r="AM19" s="51">
         <f>AN101/AG3</f>
-        <v>1.777673371953352</v>
-      </c>
-      <c r="AN19" s="56">
+        <v>1.7522875518861469</v>
+      </c>
+      <c r="AN19" s="51">
         <f>AN101/AG28</f>
-        <v>17.015834664966405</v>
-      </c>
-      <c r="AO19" s="56">
+        <v>16.772842378580577</v>
+      </c>
+      <c r="AO19" s="51">
         <f>AN101/AG105</f>
-        <v>14.223981250962936</v>
+        <v>14.020857643233205</v>
       </c>
     </row>
     <row r="20" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5537,30 +5536,30 @@
       <c r="AF21" s="2">
         <v>0.13200000000000001</v>
       </c>
-      <c r="AG21" s="65">
+      <c r="AG21" s="60">
         <f>AG19/AG3</f>
         <v>0.14978181211513023</v>
       </c>
-      <c r="AH21" s="65">
+      <c r="AH21" s="60">
         <f t="shared" ref="AH21:AK21" si="34">AH19/AH3</f>
         <v>0.14927465654284913</v>
       </c>
-      <c r="AI21" s="65">
+      <c r="AI21" s="60">
         <f t="shared" si="34"/>
         <v>0.14796012426438265</v>
       </c>
-      <c r="AJ21" s="65">
+      <c r="AJ21" s="60">
         <f t="shared" si="34"/>
         <v>0.14528442611702488</v>
       </c>
-      <c r="AK21" s="65">
+      <c r="AK21" s="60">
         <f t="shared" si="34"/>
         <v>0.14240219564767106</v>
       </c>
-      <c r="AN21" s="54" t="s">
+      <c r="AN21" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="AO21" s="53" t="s">
+      <c r="AO21" s="48" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5662,13 +5661,13 @@
         <v>8348000000</v>
       </c>
       <c r="AG22" s="19"/>
-      <c r="AN22" s="59">
+      <c r="AN22" s="54">
         <f>(-1*AF98)/AN101</f>
-        <v>2.5796342324989438E-2</v>
-      </c>
-      <c r="AO22" s="60">
+        <v>2.6170060270967719E-2</v>
+      </c>
+      <c r="AO22" s="55">
         <f>AF107/AN101</f>
-        <v>5.244800104006473E-2</v>
+        <v>5.3207828110601478E-2</v>
       </c>
     </row>
     <row r="23" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -6258,19 +6257,19 @@
       <c r="AF28" s="11">
         <v>5732000000</v>
       </c>
-      <c r="AG28" s="62">
+      <c r="AG28" s="57">
         <v>6871000001</v>
       </c>
-      <c r="AH28" s="62">
+      <c r="AH28" s="57">
         <v>6865000002</v>
       </c>
-      <c r="AI28" s="62">
+      <c r="AI28" s="57">
         <v>7094000003</v>
       </c>
-      <c r="AJ28" s="62">
+      <c r="AJ28" s="57">
         <v>6850000004</v>
       </c>
-      <c r="AK28" s="62">
+      <c r="AK28" s="57">
         <v>6848000005</v>
       </c>
     </row>
@@ -6517,23 +6516,23 @@
       <c r="AF30" s="2">
         <v>8.6900000000000005E-2</v>
       </c>
-      <c r="AG30" s="63">
+      <c r="AG30" s="58">
         <f>AG28/AG3</f>
         <v>0.1044717116118536</v>
       </c>
-      <c r="AH30" s="63">
+      <c r="AH30" s="58">
         <f t="shared" ref="AH30:AK30" si="56">AH28/AH3</f>
         <v>0.10131196413866383</v>
       </c>
-      <c r="AI30" s="63">
+      <c r="AI30" s="58">
         <f t="shared" si="56"/>
         <v>0.10059700226889207</v>
       </c>
-      <c r="AJ30" s="63">
+      <c r="AJ30" s="58">
         <f t="shared" si="56"/>
         <v>9.2887653454471489E-2</v>
       </c>
-      <c r="AK30" s="63">
+      <c r="AK30" s="58">
         <f t="shared" si="56"/>
         <v>8.8651839642182123E-2</v>
       </c>
@@ -11806,10 +11805,10 @@
       <c r="AF83" s="1">
         <v>-107000000</v>
       </c>
-      <c r="AM83" s="48" t="s">
+      <c r="AM83" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="AN83" s="49"/>
+      <c r="AN83" s="63"/>
     </row>
     <row r="84" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -11908,10 +11907,10 @@
       <c r="AF84" s="1">
         <v>1274000000</v>
       </c>
-      <c r="AM84" s="50" t="s">
+      <c r="AM84" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="AN84" s="50"/>
+      <c r="AN84" s="64"/>
     </row>
     <row r="85" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -12881,10 +12880,10 @@
       <c r="AF93" s="1">
         <v>-1789000000</v>
       </c>
-      <c r="AM93" s="51" t="s">
+      <c r="AM93" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="AN93" s="51"/>
+      <c r="AN93" s="65"/>
     </row>
     <row r="94" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -12986,9 +12985,9 @@
       <c r="AM94" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="AN94" s="66">
+      <c r="AN94" s="30">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.739E-2</v>
+        <v>3.7190000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -13093,7 +13092,7 @@
       </c>
       <c r="AN95" s="31" cm="1">
         <f t="array" ref="AN95">_FV(A1,"Beta")</f>
-        <v>0.66979999999999995</v>
+        <v>0.66790000000000005</v>
       </c>
     </row>
     <row r="96" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -13302,7 +13301,7 @@
       </c>
       <c r="AN97" s="29">
         <f>(AN94)+((AN95)*(AN96-AN94))</f>
-        <v>6.8609377999999999E-2</v>
+        <v>6.8454398999999999E-2</v>
       </c>
     </row>
     <row r="98" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -13402,10 +13401,10 @@
       <c r="AF98" s="1">
         <v>-3016000000</v>
       </c>
-      <c r="AM98" s="51" t="s">
+      <c r="AM98" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="AN98" s="51"/>
+      <c r="AN98" s="65"/>
     </row>
     <row r="99" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -13614,7 +13613,7 @@
       </c>
       <c r="AN100" s="29">
         <f>AN99/AN103</f>
-        <v>0.11658183774504174</v>
+        <v>0.11807137084925066</v>
       </c>
     </row>
     <row r="101" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -13719,7 +13718,7 @@
       </c>
       <c r="AN101" s="22" cm="1">
         <f t="array" ref="AN101">_FV(A1,"Market cap",TRUE)</f>
-        <v>116915800000</v>
+        <v>115246200000</v>
       </c>
     </row>
     <row r="102" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -13824,7 +13823,7 @@
       </c>
       <c r="AN102" s="29">
         <f>AN101/AN103</f>
-        <v>0.88341816225495828</v>
+        <v>0.88192862915074932</v>
       </c>
     </row>
     <row r="103" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -13929,7 +13928,7 @@
       </c>
       <c r="AN103" s="32">
         <f>AN99+AN101</f>
-        <v>132344800000</v>
+        <v>130675200000</v>
       </c>
     </row>
     <row r="104" spans="1:40" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -14029,10 +14028,10 @@
       <c r="AF104" s="11">
         <v>2547000000</v>
       </c>
-      <c r="AM104" s="50" t="s">
+      <c r="AM104" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="AN104" s="50"/>
+      <c r="AN104" s="64"/>
     </row>
     <row r="105" spans="1:40" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -14190,7 +14189,7 @@
       </c>
       <c r="AN105" s="34">
         <f>(AN100*AN92)+(AN102*AN97)</f>
-        <v>6.4650115032228769E-2</v>
+        <v>6.446284823423809E-2</v>
       </c>
     </row>
     <row r="106" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -14199,138 +14198,138 @@
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15">
-        <f>(C107/B107)-1</f>
+        <f t="shared" ref="C106:AF106" si="77">(C107/B107)-1</f>
         <v>0.35735294117647065</v>
       </c>
       <c r="D106" s="15">
-        <f>(D107/C107)-1</f>
+        <f t="shared" si="77"/>
         <v>6.6088840736728161E-2</v>
       </c>
       <c r="E106" s="15">
-        <f>(E107/D107)-1</f>
+        <f t="shared" si="77"/>
         <v>-0.22662601626016265</v>
       </c>
       <c r="F106" s="15">
-        <f>(F107/E107)-1</f>
+        <f t="shared" si="77"/>
         <v>0.18134034165571622</v>
       </c>
       <c r="G106" s="15">
-        <f>(G107/F107)-1</f>
+        <f t="shared" si="77"/>
         <v>-0.49054505005561733</v>
       </c>
       <c r="H106" s="15">
-        <f>(H107/G107)-1</f>
+        <f t="shared" si="77"/>
         <v>1.9126637554585151</v>
       </c>
       <c r="I106" s="15">
-        <f>(I107/H107)-1</f>
+        <f t="shared" si="77"/>
         <v>-0.69415292353823088</v>
       </c>
       <c r="J106" s="15">
-        <f>(J107/I107)-1</f>
+        <f t="shared" si="77"/>
         <v>2.715686274509804</v>
       </c>
       <c r="K106" s="15">
-        <f>(K107/J107)-1</f>
+        <f t="shared" si="77"/>
         <v>-0.20448548812664913</v>
       </c>
       <c r="L106" s="15">
-        <f>(L107/K107)-1</f>
+        <f t="shared" si="77"/>
         <v>0.34825870646766166</v>
       </c>
       <c r="M106" s="15">
-        <f>(M107/L107)-1</f>
+        <f t="shared" si="77"/>
         <v>-0.30996309963099633</v>
       </c>
       <c r="N106" s="15">
-        <f>(N107/M107)-1</f>
+        <f t="shared" si="77"/>
         <v>0.92067736185383242</v>
       </c>
       <c r="O106" s="15">
-        <f>(O107/N107)-1</f>
+        <f t="shared" si="77"/>
         <v>8.0742459396751842E-2</v>
       </c>
       <c r="P106" s="15">
-        <f>(P107/O107)-1</f>
+        <f t="shared" si="77"/>
         <v>0.24087591240875916</v>
       </c>
       <c r="Q106" s="15">
-        <f>(Q107/P107)-1</f>
+        <f t="shared" si="77"/>
         <v>0.14221453287197239</v>
       </c>
       <c r="R106" s="15">
-        <f>(R107/Q107)-1</f>
+        <f t="shared" si="77"/>
         <v>5.8770069675855741E-2</v>
       </c>
       <c r="S106" s="15">
-        <f>(S107/R107)-1</f>
+        <f t="shared" si="77"/>
         <v>-0.33590844062947067</v>
       </c>
       <c r="T106" s="15">
-        <f>(T107/S107)-1</f>
+        <f t="shared" si="77"/>
         <v>0.17492460146488575</v>
       </c>
       <c r="U106" s="15">
-        <f>(U107/T107)-1</f>
+        <f t="shared" si="77"/>
         <v>0.19765309864319769</v>
       </c>
       <c r="V106" s="15">
-        <f>(V107/U107)-1</f>
+        <f t="shared" si="77"/>
         <v>-0.81047152480097973</v>
       </c>
       <c r="W106" s="15">
-        <f>(W107/V107)-1</f>
+        <f t="shared" si="77"/>
         <v>4.9935379644588043</v>
       </c>
       <c r="X106" s="15">
-        <f>(X107/W107)-1</f>
+        <f t="shared" si="77"/>
         <v>-0.18571428571428572</v>
       </c>
       <c r="Y106" s="15">
-        <f>(Y107/X107)-1</f>
+        <f t="shared" si="77"/>
         <v>0.37768950678583257</v>
       </c>
       <c r="Z106" s="15">
-        <f>(Z107/Y107)-1</f>
+        <f t="shared" si="77"/>
         <v>-8.6496876501681585E-3</v>
       </c>
       <c r="AA106" s="15">
-        <f>(AA107/Z107)-1</f>
+        <f t="shared" si="77"/>
         <v>0.28429471643238013</v>
       </c>
       <c r="AB106" s="15">
-        <f>(AB107/AA107)-1</f>
+        <f t="shared" si="77"/>
         <v>-0.64899037554255523</v>
       </c>
       <c r="AC106" s="15">
-        <f>(AC107/AB107)-1</f>
+        <f t="shared" si="77"/>
         <v>2.1327956989247312</v>
       </c>
       <c r="AD106" s="15">
-        <f>(AD107/AC107)-1</f>
+        <f t="shared" si="77"/>
         <v>0.10125278874206289</v>
       </c>
       <c r="AE106" s="15">
-        <f>(AE107/AD107)-1</f>
+        <f t="shared" si="77"/>
         <v>0.19978182951534995</v>
       </c>
       <c r="AF106" s="15">
-        <f>(AF107/AE107)-1</f>
+        <f t="shared" si="77"/>
         <v>-0.20353292635407194</v>
       </c>
-      <c r="AG106" s="52">
+      <c r="AG106" s="47">
         <v>6663000000</v>
       </c>
-      <c r="AH106" s="52">
+      <c r="AH106" s="47">
         <v>6891000000</v>
       </c>
-      <c r="AI106" s="52">
+      <c r="AI106" s="47">
         <v>7109000000</v>
       </c>
-      <c r="AJ106" s="52">
+      <c r="AJ106" s="47">
         <v>7373000000</v>
       </c>
-      <c r="AK106" s="52">
+      <c r="AK106" s="47">
         <v>7650000000</v>
       </c>
       <c r="AL106" s="21" t="s">
@@ -14445,9 +14444,9 @@
       <c r="AH107" s="21"/>
       <c r="AI107" s="21"/>
       <c r="AJ107" s="21"/>
-      <c r="AK107" s="61">
+      <c r="AK107" s="56">
         <f>AK106*(1+AN107)/(AN108-AN107)</f>
-        <v>174758788289.07248</v>
+        <v>175494830175.80042</v>
       </c>
       <c r="AL107" s="23" t="s">
         <v>144</v>
@@ -14460,25 +14459,25 @@
       </c>
     </row>
     <row r="108" spans="1:40" ht="19" x14ac:dyDescent="0.25">
-      <c r="AG108" s="61">
-        <f t="shared" ref="AG108:AJ108" si="77">AG107+AG106</f>
+      <c r="AG108" s="56">
+        <f t="shared" ref="AG108:AJ108" si="78">AG107+AG106</f>
         <v>6663000000</v>
       </c>
-      <c r="AH108" s="61">
-        <f t="shared" si="77"/>
+      <c r="AH108" s="56">
+        <f t="shared" si="78"/>
         <v>6891000000</v>
       </c>
-      <c r="AI108" s="61">
-        <f t="shared" si="77"/>
+      <c r="AI108" s="56">
+        <f t="shared" si="78"/>
         <v>7109000000</v>
       </c>
-      <c r="AJ108" s="61">
-        <f t="shared" si="77"/>
+      <c r="AJ108" s="56">
+        <f t="shared" si="78"/>
         <v>7373000000</v>
       </c>
-      <c r="AK108" s="61">
+      <c r="AK108" s="56">
         <f>AK107+AK106</f>
-        <v>182408788289.07248</v>
+        <v>183144830175.80042</v>
       </c>
       <c r="AL108" s="23" t="s">
         <v>141</v>
@@ -14488,14 +14487,14 @@
       </c>
       <c r="AN108" s="36">
         <f>AN105</f>
-        <v>6.4650115032228769E-2</v>
+        <v>6.446284823423809E-2</v>
       </c>
     </row>
     <row r="109" spans="1:40" ht="19" x14ac:dyDescent="0.25">
-      <c r="AG109" s="47" t="s">
+      <c r="AG109" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="AH109" s="47"/>
+      <c r="AH109" s="61"/>
     </row>
     <row r="110" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="AG110" s="40" t="s">
@@ -14503,7 +14502,7 @@
       </c>
       <c r="AH110" s="22">
         <f>NPV(AN108,AG108,AH108,AI108,AJ108,AK108)</f>
-        <v>157323218384.54132</v>
+        <v>157989532436.3428</v>
       </c>
     </row>
     <row r="111" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -14530,7 +14529,7 @@
       </c>
       <c r="AH113" s="22">
         <f>AH110+AH111-AH112</f>
-        <v>144441218384.54132</v>
+        <v>145107532436.3428</v>
       </c>
     </row>
     <row r="114" spans="33:34" ht="20" x14ac:dyDescent="0.25">
@@ -14548,7 +14547,7 @@
       </c>
       <c r="AH115" s="42">
         <f>AH113/AH114</f>
-        <v>545.92454723890944</v>
+        <v>548.44292254145103</v>
       </c>
     </row>
     <row r="116" spans="33:34" ht="20" x14ac:dyDescent="0.25">
@@ -14557,7 +14556,7 @@
       </c>
       <c r="AH116" s="43" cm="1">
         <f t="array" ref="AH116">_FV(A1,"Price")</f>
-        <v>459.36</v>
+        <v>453.15</v>
       </c>
     </row>
     <row r="117" spans="33:34" ht="20" x14ac:dyDescent="0.25">
@@ -14566,7 +14565,7 @@
       </c>
       <c r="AH117" s="45">
         <f>AH115/AH116-1</f>
-        <v>0.18844598406241175</v>
+        <v>0.21029001995244623</v>
       </c>
     </row>
     <row r="118" spans="33:34" ht="20" x14ac:dyDescent="0.25">

--- a/Industrials/Lockheed Martin.xlsx
+++ b/Industrials/Lockheed Martin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BCA6DD-B490-564B-BBD5-677B68886CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AE56FF-C828-3D4B-AC47-5C3F2DE29575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -558,9 +558,6 @@
     <t>Levered FCF</t>
   </si>
   <si>
-    <t>Unlevered FCF Proj</t>
-  </si>
-  <si>
     <t>Unlevered FCF Forecast</t>
   </si>
   <si>
@@ -573,7 +570,13 @@
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>5Y Fwd Income CAGR</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
   </si>
 </sst>
 </file>
@@ -588,7 +591,7 @@
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -700,6 +703,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -863,7 +873,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -892,58 +902,25 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="37" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -962,31 +939,118 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1042,7 +1106,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000"/>
+              <a:rPr lang="en-US" sz="2400"/>
               <a:t>Lockheed Martin</a:t>
             </a:r>
           </a:p>
@@ -1081,15 +1145,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.9193388429752071E-2"/>
-          <c:y val="0.14190108424945283"/>
-          <c:w val="0.87981487603305786"/>
-          <c:h val="0.67899272974264802"/>
+          <c:x val="0.10115932427956276"/>
+          <c:y val="0.14903648634956837"/>
+          <c:w val="0.82464392182841995"/>
+          <c:h val="0.59953857355341167"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1138,12 +1202,129 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AK$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$AF$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$AK$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>16030000000</c:v>
                 </c:pt>
@@ -1236,13 +1417,28 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>65984000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>66650000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>68501000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>71013000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>74522000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>77647000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F8F1-BB4C-88BF-9B3C309416E6}"/>
+              <c16:uniqueId val="{00000000-091D-994A-A62A-51167E4250CF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1251,11 +1447,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1293,111 +1489,243 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AK$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$AF$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$AK$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>765000000</c:v>
+                  <c:v>-361000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2520000000</c:v>
+                  <c:v>829000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2879000000</c:v>
+                  <c:v>1018000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2298000000</c:v>
+                  <c:v>682000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3930000000</c:v>
+                  <c:v>1347000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3831000000</c:v>
+                  <c:v>1300000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3527000000</c:v>
+                  <c:v>1001000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2623000000</c:v>
+                  <c:v>382000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1159000000</c:v>
+                  <c:v>-519000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>586000000</c:v>
+                  <c:v>-1046000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1683000000</c:v>
+                  <c:v>500000000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2628000000</c:v>
+                  <c:v>1053000000</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>1266000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1825000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2529000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3033000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3217000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3024000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2926000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2655000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>2745000000</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>3691000000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4717000000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5539000000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5888000000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5443000000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5293000000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4981000000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5443000000</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>5526000000</c:v>
+                  <c:v>2981000000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6592000000</c:v>
+                  <c:v>3614000000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6492000000</c:v>
+                  <c:v>3605000000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8313000000</c:v>
+                  <c:v>5302000000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7188000000</c:v>
+                  <c:v>2002000000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7667000000</c:v>
+                  <c:v>5046000000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9083000000</c:v>
+                  <c:v>6230000000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10061000000</c:v>
+                  <c:v>6833000000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9483000000</c:v>
+                  <c:v>6315000000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8707000000</c:v>
+                  <c:v>5732000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6847000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6907000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7117000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6833000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7066000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F8F1-BB4C-88BF-9B3C309416E6}"/>
+              <c16:uniqueId val="{00000001-091D-994A-A62A-51167E4250CF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1448,12 +1776,129 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AK$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$107:$AF$107</c:f>
+              <c:f>'Sheet 1'!$B$107:$AK$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>680000000</c:v>
                 </c:pt>
@@ -1546,13 +1991,28 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>6132000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6645000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6912000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7165000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7347000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7600000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F8F1-BB4C-88BF-9B3C309416E6}"/>
+              <c16:uniqueId val="{00000002-091D-994A-A62A-51167E4250CF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1564,13 +2024,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="670984735"/>
-        <c:axId val="670069343"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1524068816"/>
+        <c:axId val="1524071088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="670984735"/>
+        <c:axId val="1524068816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1598,7 +2058,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1610,7 +2070,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="670069343"/>
+        <c:crossAx val="1524071088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1618,9 +2078,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="670069343"/>
+        <c:axId val="1524071088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1666,7 +2127,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="670984735"/>
+        <c:crossAx val="1524068816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1684,10 +2145,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37491934665191645"/>
-          <c:y val="0.90895046665492696"/>
-          <c:w val="0.30305376456042166"/>
-          <c:h val="6.549042791376318E-2"/>
+          <c:x val="0.34279797502953741"/>
+          <c:y val="0.88791245036497946"/>
+          <c:w val="0.31378033448298304"/>
+          <c:h val="6.2614758005821544E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1794,7 +2255,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2032,7 +2493,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2266,23 +2726,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>1603374</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>41275</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>31749</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>1587499</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0987DF61-29BE-6164-AE1F-072A69B4C1F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91D5A9DA-6A49-D5B0-CF6A-DC89FC141DDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2310,27 +2770,23 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="Software"/>
       <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
       <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
-      <sheetName val="Private Companies"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Growth"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -2339,27 +2795,23 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="C8">
+            <v>4.9020000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
-        <row r="8">
-          <cell r="C8">
-            <v>3.7190000000000001E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2486,10 +2938,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>508.1</v>
-    <v>373.67</v>
-    <v>0.66790000000000005</v>
-    <v>0.35</v>
-    <v>7.7299999999999992E-4</v>
+    <v>393.77</v>
+    <v>0.62090000000000001</v>
+    <v>3.11</v>
+    <v>6.9720000000000008E-3</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Lockheed Martin Corporation is a security and aerospace company. It operates through four segments. Aeronautics segment is engaged in the research, design, development, manufacture, support and upgrade of military aircraft, including combat and air mobility aircraft, unmanned air vehicles and related technologies. Missiles and Fire Control segment provides air and missile defense systems; fire control systems; manned and unmanned ground vehicles, and energy management solutions. Rotary and Mission Systems segment provides design, manufacture, service and support for various military and commercial helicopters, surface ships, sea and land-based missile defense systems, radar systems, sea and air-based mission and combat systems, command and control mission solutions, cyber solutions, and simulation and training solutions. Space segment is engaged in the research and development, design, engineering and production of satellites, space transportation systems, strike and defensive systems.</v>
     <v>116000</v>
@@ -2497,24 +2951,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>6801 ROCKLEDGE DR, BETHESDA, MD, 20817 US</v>
-    <v>455.63</v>
+    <v>449.67</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>45104.991251666404</v>
+    <v>45218.999850856249</v>
     <v>0</v>
-    <v>452.42</v>
-    <v>115246200000</v>
+    <v>442.19150000000002</v>
+    <v>111440974066</v>
     <v>LOCKHEED MARTIN CORPORATION</v>
     <v>LOCKHEED MARTIN CORPORATION</v>
-    <v>452.79</v>
-    <v>20.700900000000001</v>
-    <v>452.8</v>
-    <v>453.15</v>
-    <v>254518900</v>
+    <v>443.66</v>
+    <v>16.289400000000001</v>
+    <v>446.07</v>
+    <v>449.18</v>
+    <v>449.18</v>
+    <v>248098700</v>
     <v>LMT</v>
     <v>LOCKHEED MARTIN CORPORATION (XNYS:LMT)</v>
-    <v>671166</v>
-    <v>1002758</v>
+    <v>2012401</v>
+    <v>1507157</v>
     <v>1994</v>
   </rv>
   <rv s="2">
@@ -2546,6 +3001,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2566,6 +3023,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2582,7 +3040,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2593,13 +3051,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2665,13 +3126,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2716,6 +3183,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2723,6 +3193,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3081,13 +3554,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO118"/>
+  <dimension ref="A1:AO119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AC12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AC94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH26" sqref="AH26"/>
+      <selection pane="bottomRight" activeCell="AF109" sqref="AF109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3417,30 +3890,30 @@
         <v>65984000000</v>
       </c>
       <c r="AG3" s="19">
-        <v>65769000000</v>
+        <v>66650000000</v>
       </c>
       <c r="AH3" s="19">
-        <v>67761000000</v>
+        <v>68501000000</v>
       </c>
       <c r="AI3" s="19">
-        <v>70519000000</v>
+        <v>71013000000</v>
       </c>
       <c r="AJ3" s="19">
-        <v>73745000000</v>
+        <v>74522000000</v>
       </c>
       <c r="AK3" s="19">
-        <v>77246000000</v>
-      </c>
-      <c r="AL3" s="49" t="s">
+        <v>77647000000</v>
+      </c>
+      <c r="AL3" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="AM3" s="49" t="s">
+      <c r="AM3" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="AN3" s="49" t="s">
+      <c r="AN3" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="AO3" s="49" t="s">
+      <c r="AO3" s="28" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3449,159 +3922,159 @@
         <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="38">
         <f>(C3/B3)-1</f>
         <v>0.39719276356830946</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="38">
         <f>(D3/C3)-1</f>
         <v>2.2726257980979492E-2</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="38">
         <f>(E3/D3)-1</f>
         <v>-2.3138042434296402E-3</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="38">
         <f t="shared" ref="F4:V4" si="0">(F3/E3)-1</f>
         <v>0.17599439898481606</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="38">
         <f t="shared" si="0"/>
         <v>4.4427906976744147E-2</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="38">
         <f t="shared" si="0"/>
         <v>-6.4234564822401974E-2</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="38">
         <f t="shared" si="0"/>
         <v>-2.8021015761821366E-2</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="38">
         <f t="shared" si="0"/>
         <v>-7.8730904817860825E-3</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="38">
         <f t="shared" si="0"/>
         <v>-5.2864305736507577E-2</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="38">
         <f t="shared" si="0"/>
         <v>0.10787828261775734</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="38">
         <f t="shared" si="0"/>
         <v>0.19738129279855521</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="38">
         <f t="shared" si="0"/>
         <v>0.11632730015082959</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="38">
         <f t="shared" si="0"/>
         <v>4.7486348026797298E-2</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="38">
         <f t="shared" si="0"/>
         <v>6.4681697256335102E-2</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="38">
         <f t="shared" si="0"/>
         <v>5.658758202927805E-2</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="38">
         <f t="shared" si="0"/>
         <v>2.075868329272379E-2</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="38">
         <f t="shared" si="0"/>
         <v>5.7522641641899241E-2</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="38">
         <f t="shared" si="0"/>
         <v>1.3587377459116201E-2</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="38">
         <f t="shared" si="0"/>
         <v>1.5195511211056001E-2</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="38">
         <f t="shared" si="0"/>
         <v>1.4688487924471527E-2</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="38">
         <f t="shared" ref="W4" si="1">(W3/V3)-1</f>
         <v>-3.865881056335041E-2</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="38">
         <f t="shared" ref="X4" si="2">(X3/W3)-1</f>
         <v>5.3353322456899388E-3</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="38">
         <f t="shared" ref="Y4" si="3">(Y3/X3)-1</f>
         <v>1.1666666666666714E-2</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="38">
         <f t="shared" ref="Z4" si="4">(Z3/Y3)-1</f>
         <v>2.4191450619960086E-2</v>
       </c>
-      <c r="AA4" s="16">
+      <c r="AA4" s="38">
         <f t="shared" ref="AA4" si="5">(AA3/Z3)-1</f>
         <v>8.0426684727395781E-2</v>
       </c>
-      <c r="AB4" s="16">
+      <c r="AB4" s="38">
         <f t="shared" ref="AB4" si="6">(AB3/AA3)-1</f>
         <v>5.3165648017552192E-2</v>
       </c>
-      <c r="AC4" s="16">
+      <c r="AC4" s="38">
         <f t="shared" ref="AC4" si="7">(AC3/AB3)-1</f>
         <v>0.11253301588482567</v>
       </c>
-      <c r="AD4" s="16">
+      <c r="AD4" s="38">
         <f t="shared" ref="AD4" si="8">(AD3/AC3)-1</f>
         <v>9.3392630241423191E-2</v>
       </c>
-      <c r="AE4" s="16">
+      <c r="AE4" s="38">
         <f t="shared" ref="AE4" si="9">(AE3/AD3)-1</f>
         <v>2.516896541178637E-2</v>
       </c>
-      <c r="AF4" s="16">
+      <c r="AF4" s="38">
         <f t="shared" ref="AF4:AK4" si="10">(AF3/AE3)-1</f>
         <v>-1.5810512499254248E-2</v>
       </c>
       <c r="AG4" s="16">
         <f t="shared" si="10"/>
-        <v>-3.2583656644035175E-3</v>
+        <v>1.0093355965082429E-2</v>
       </c>
       <c r="AH4" s="16">
         <f t="shared" si="10"/>
-        <v>3.0287825571317706E-2</v>
+        <v>2.7771942985746367E-2</v>
       </c>
       <c r="AI4" s="16">
         <f t="shared" si="10"/>
-        <v>4.0701878661766999E-2</v>
+        <v>3.6670997503686076E-2</v>
       </c>
       <c r="AJ4" s="16">
         <f t="shared" si="10"/>
-        <v>4.5746536394446924E-2</v>
+        <v>4.9413487671271517E-2</v>
       </c>
       <c r="AK4" s="16">
         <f t="shared" si="10"/>
-        <v>4.7474405044409806E-2</v>
-      </c>
-      <c r="AL4" s="52">
+        <v>4.1933925552186002E-2</v>
+      </c>
+      <c r="AL4" s="31">
         <f>(AF4+AE4+AD4)/3</f>
         <v>3.4250361051318436E-2</v>
       </c>
-      <c r="AM4" s="52">
+      <c r="AM4" s="31">
         <f>(AF20+AE20+AD20)/3</f>
         <v>-1.0535508636902891E-2</v>
       </c>
-      <c r="AN4" s="52">
+      <c r="AN4" s="31">
         <f>(AF29+AE29+AD29)/3</f>
         <v>-2.3779574072930448E-2</v>
       </c>
-      <c r="AO4" s="52">
+      <c r="AO4" s="31">
         <f>(AF106+AE106+AD106)/3</f>
         <v>3.2500563967780303E-2</v>
       </c>
@@ -3801,16 +4274,20 @@
       <c r="AF6" s="10">
         <v>8287000000</v>
       </c>
-      <c r="AL6" s="49" t="s">
+      <c r="AG6" s="36">
+        <f>AG3*AG7</f>
+        <v>8344580000</v>
+      </c>
+      <c r="AL6" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="AM6" s="49" t="s">
+      <c r="AM6" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="AN6" s="49" t="s">
+      <c r="AN6" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="AO6" s="49" t="s">
+      <c r="AO6" s="28" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3911,21 +4388,24 @@
       <c r="AF7" s="2">
         <v>0.12559999999999999</v>
       </c>
-      <c r="AL7" s="52">
-        <f>AF7</f>
-        <v>0.12559999999999999</v>
-      </c>
-      <c r="AM7" s="52">
-        <f>AF21</f>
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="AN7" s="52">
-        <f>AF30</f>
-        <v>8.6900000000000005E-2</v>
-      </c>
-      <c r="AO7" s="52">
-        <f>AF107/AF3</f>
-        <v>9.2931619786614933E-2</v>
+      <c r="AG7" s="2">
+        <v>0.12520000000000001</v>
+      </c>
+      <c r="AL7" s="31">
+        <f>AG7</f>
+        <v>0.12520000000000001</v>
+      </c>
+      <c r="AM7" s="31">
+        <f>AG21</f>
+        <v>0.14834208553638409</v>
+      </c>
+      <c r="AN7" s="31">
+        <f>AG30</f>
+        <v>0.10273068268567141</v>
+      </c>
+      <c r="AO7" s="31">
+        <f>AG107/AG3</f>
+        <v>9.9699924981245316E-2</v>
       </c>
     </row>
     <row r="8" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -4154,16 +4634,16 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AL9" s="49" t="s">
+      <c r="AL9" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="AM9" s="49" t="s">
+      <c r="AM9" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="AN9" s="49" t="s">
+      <c r="AN9" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="AO9" s="49" t="s">
+      <c r="AO9" s="28" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4264,19 +4744,19 @@
       <c r="AF10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AL10" s="52">
+      <c r="AL10" s="31">
         <f>AF9</f>
         <v>0</v>
       </c>
-      <c r="AM10" s="52">
+      <c r="AM10" s="31">
         <f>AF13</f>
         <v>0</v>
       </c>
-      <c r="AN10" s="52">
+      <c r="AN10" s="31">
         <f>AF80</f>
         <v>3.6069350145489817E-3</v>
       </c>
-      <c r="AO10" s="52">
+      <c r="AO10" s="31">
         <f>AF89</f>
         <v>2.7112633365664402E-2</v>
       </c>
@@ -4476,16 +4956,16 @@
       <c r="AF12" s="1">
         <v>0</v>
       </c>
-      <c r="AL12" s="49" t="s">
+      <c r="AL12" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="AM12" s="49" t="s">
+      <c r="AM12" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="AN12" s="49" t="s">
+      <c r="AN12" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="AO12" s="49" t="s">
+      <c r="AO12" s="28" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4617,19 +5097,19 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AL13" s="52">
+      <c r="AL13" s="31">
         <f>AF28/AF72</f>
         <v>0.6186056550830995</v>
       </c>
-      <c r="AM13" s="52">
+      <c r="AM13" s="31">
         <f>AF28/AF54</f>
         <v>0.1083963691376702</v>
       </c>
-      <c r="AN13" s="52">
+      <c r="AN13" s="31">
         <f>AF22/(AF72+AF56+AF61)</f>
         <v>0.33804413848957277</v>
       </c>
-      <c r="AO13" s="53">
+      <c r="AO13" s="32">
         <f>AF67/AF72</f>
         <v>4.7068853874379455</v>
       </c>
@@ -4829,16 +5309,16 @@
       <c r="AF15" s="1">
         <v>-74000000</v>
       </c>
-      <c r="AL15" s="49" t="s">
+      <c r="AL15" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="AM15" s="49" t="s">
+      <c r="AM15" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="AN15" s="49" t="s">
+      <c r="AN15" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="AO15" s="49" t="s">
+      <c r="AO15" s="28" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4939,21 +5419,21 @@
       <c r="AF16" s="1">
         <v>57623000000</v>
       </c>
-      <c r="AL16" s="52">
+      <c r="AL16" s="31">
         <f>(AF35+AE35+AD35+AC35+AB35)/5</f>
         <v>-9.2423078964431332E-3</v>
       </c>
-      <c r="AM16" s="51">
-        <f>AN101/AF3</f>
-        <v>1.7465779582929195</v>
-      </c>
-      <c r="AN16" s="51">
-        <f>AN101/AF28</f>
-        <v>20.105757152826239</v>
-      </c>
-      <c r="AO16" s="51">
-        <f>AN101/AF107</f>
-        <v>18.794227005870841</v>
+      <c r="AM16" s="30">
+        <f>AN102/AF3</f>
+        <v>1.6889090395550437</v>
+      </c>
+      <c r="AN16" s="30">
+        <f>AN102/AF28</f>
+        <v>19.44190056978367</v>
+      </c>
+      <c r="AO16" s="30">
+        <f>AN102/AF107</f>
+        <v>18.173674831376385</v>
       </c>
     </row>
     <row r="17" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -5151,17 +5631,17 @@
       <c r="AF18" s="1">
         <v>1404000000</v>
       </c>
-      <c r="AL18" s="49" t="s">
+      <c r="AL18" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="AM18" s="49" t="s">
+      <c r="AM18" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="AN18" s="49" t="s">
+      <c r="AN18" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO18" s="28" t="s">
         <v>163</v>
-      </c>
-      <c r="AO18" s="49" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -5261,36 +5741,36 @@
       <c r="AF19" s="10">
         <v>8707000000</v>
       </c>
-      <c r="AG19" s="59">
-        <v>9851000001</v>
-      </c>
-      <c r="AH19" s="59">
-        <v>10115000002</v>
-      </c>
-      <c r="AI19" s="59">
-        <v>10434000003</v>
-      </c>
-      <c r="AJ19" s="59">
+      <c r="AG19" s="36">
+        <v>9887000001</v>
+      </c>
+      <c r="AH19" s="36">
+        <v>10139000002</v>
+      </c>
+      <c r="AI19" s="36">
+        <v>10479000003</v>
+      </c>
+      <c r="AJ19" s="36">
         <v>10714000004</v>
       </c>
-      <c r="AK19" s="59">
+      <c r="AK19" s="36">
         <v>11000000005</v>
       </c>
-      <c r="AL19" s="50">
+      <c r="AL19" s="29">
         <f>AF40-AF56-AF61</f>
         <v>-12882000000</v>
       </c>
-      <c r="AM19" s="51">
-        <f>AN101/AG3</f>
-        <v>1.7522875518861469</v>
-      </c>
-      <c r="AN19" s="51">
-        <f>AN101/AG28</f>
-        <v>16.772842378580577</v>
-      </c>
-      <c r="AO19" s="51">
-        <f>AN101/AG105</f>
-        <v>14.020857643233205</v>
+      <c r="AM19" s="30">
+        <f>AN102/AG3</f>
+        <v>1.6720326191447863</v>
+      </c>
+      <c r="AN19" s="30">
+        <f>AN102/AG28</f>
+        <v>16.275883459869156</v>
+      </c>
+      <c r="AO19" s="30">
+        <f>AN102/AG107</f>
+        <v>16.770650724755455</v>
       </c>
     </row>
     <row r="20" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5420,19 +5900,19 @@
       </c>
       <c r="AG20" s="16">
         <f t="shared" ref="AG20" si="29">(AG19/AF19)-1</f>
-        <v>0.13138853807281503</v>
+        <v>0.13552314241414964</v>
       </c>
       <c r="AH20" s="16">
         <f t="shared" ref="AH20" si="30">(AH19/AG19)-1</f>
-        <v>2.6799309813541949E-2</v>
+        <v>2.5488014663144654E-2</v>
       </c>
       <c r="AI20" s="16">
         <f t="shared" ref="AI20" si="31">(AI19/AH19)-1</f>
-        <v>3.1537320903304522E-2</v>
+        <v>3.3533879172791492E-2</v>
       </c>
       <c r="AJ20" s="16">
         <f t="shared" ref="AJ20" si="32">(AJ19/AI19)-1</f>
-        <v>2.6835346072406896E-2</v>
+        <v>2.2425804077939038E-2</v>
       </c>
       <c r="AK20" s="16">
         <f t="shared" ref="AK20" si="33">(AK19/AJ19)-1</f>
@@ -5536,31 +6016,34 @@
       <c r="AF21" s="2">
         <v>0.13200000000000001</v>
       </c>
-      <c r="AG21" s="60">
+      <c r="AG21" s="37">
         <f>AG19/AG3</f>
-        <v>0.14978181211513023</v>
-      </c>
-      <c r="AH21" s="60">
+        <v>0.14834208553638409</v>
+      </c>
+      <c r="AH21" s="37">
         <f t="shared" ref="AH21:AK21" si="34">AH19/AH3</f>
-        <v>0.14927465654284913</v>
-      </c>
-      <c r="AI21" s="60">
+        <v>0.14801243780382767</v>
+      </c>
+      <c r="AI21" s="37">
         <f t="shared" si="34"/>
-        <v>0.14796012426438265</v>
-      </c>
-      <c r="AJ21" s="60">
+        <v>0.14756453048033458</v>
+      </c>
+      <c r="AJ21" s="37">
         <f t="shared" si="34"/>
-        <v>0.14528442611702488</v>
-      </c>
-      <c r="AK21" s="60">
+        <v>0.14376962513083386</v>
+      </c>
+      <c r="AK21" s="37">
         <f t="shared" si="34"/>
-        <v>0.14240219564767106</v>
-      </c>
-      <c r="AN21" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="AO21" s="48" t="s">
+        <v>0.14166677405437428</v>
+      </c>
+      <c r="AM21" s="63" t="s">
         <v>166</v>
+      </c>
+      <c r="AN21" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="AO21" s="27" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -5661,13 +6144,17 @@
         <v>8348000000</v>
       </c>
       <c r="AG22" s="19"/>
-      <c r="AN22" s="54">
-        <f>(-1*AF98)/AN101</f>
-        <v>2.6170060270967719E-2</v>
-      </c>
-      <c r="AO22" s="55">
-        <f>AF107/AN101</f>
-        <v>5.3207828110601478E-2</v>
+      <c r="AM22" s="64">
+        <f>SUM(AG29:AK29)/5</f>
+        <v>4.557673054772822E-2</v>
+      </c>
+      <c r="AN22" s="65">
+        <f>(-1*AF98)/AN102</f>
+        <v>2.7063654327122075E-2</v>
+      </c>
+      <c r="AO22" s="33">
+        <f>AG107/AN102</f>
+        <v>5.9627978449511336E-2</v>
       </c>
     </row>
     <row r="23" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -6257,20 +6744,20 @@
       <c r="AF28" s="11">
         <v>5732000000</v>
       </c>
-      <c r="AG28" s="57">
-        <v>6871000001</v>
-      </c>
-      <c r="AH28" s="57">
-        <v>6865000002</v>
-      </c>
-      <c r="AI28" s="57">
-        <v>7094000003</v>
-      </c>
-      <c r="AJ28" s="57">
-        <v>6850000004</v>
-      </c>
-      <c r="AK28" s="57">
-        <v>6848000005</v>
+      <c r="AG28" s="34">
+        <v>6847000001</v>
+      </c>
+      <c r="AH28" s="34">
+        <v>6907000002</v>
+      </c>
+      <c r="AI28" s="34">
+        <v>7117000003</v>
+      </c>
+      <c r="AJ28" s="34">
+        <v>6833000004</v>
+      </c>
+      <c r="AK28" s="34">
+        <v>7066000005</v>
       </c>
     </row>
     <row r="29" spans="1:41" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -6400,23 +6887,23 @@
       </c>
       <c r="AG29" s="16">
         <f t="shared" ref="AG29" si="51">(AG28/AF28)-1</f>
-        <v>0.19870900226796939</v>
+        <v>0.19452198203070492</v>
       </c>
       <c r="AH29" s="16">
         <f t="shared" ref="AH29" si="52">(AH28/AG28)-1</f>
-        <v>-8.7323519125703797E-4</v>
+        <v>8.7629620258853347E-3</v>
       </c>
       <c r="AI29" s="16">
         <f t="shared" ref="AI29" si="53">(AI28/AH28)-1</f>
-        <v>3.3357611206596527E-2</v>
+        <v>3.0403938169855538E-2</v>
       </c>
       <c r="AJ29" s="16">
         <f t="shared" ref="AJ29" si="54">(AJ28/AI28)-1</f>
-        <v>-3.4395263447535185E-2</v>
+        <v>-3.9904453966599251E-2</v>
       </c>
       <c r="AK29" s="16">
         <f t="shared" ref="AK29" si="55">(AK28/AJ28)-1</f>
-        <v>-2.9197065676378475E-4</v>
+        <v>3.4099224478794543E-2</v>
       </c>
     </row>
     <row r="30" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -6516,25 +7003,25 @@
       <c r="AF30" s="2">
         <v>8.6900000000000005E-2</v>
       </c>
-      <c r="AG30" s="58">
+      <c r="AG30" s="35">
         <f>AG28/AG3</f>
-        <v>0.1044717116118536</v>
-      </c>
-      <c r="AH30" s="58">
+        <v>0.10273068268567141</v>
+      </c>
+      <c r="AH30" s="35">
         <f t="shared" ref="AH30:AK30" si="56">AH28/AH3</f>
-        <v>0.10131196413866383</v>
-      </c>
-      <c r="AI30" s="58">
+        <v>0.10083064483730164</v>
+      </c>
+      <c r="AI30" s="35">
         <f t="shared" si="56"/>
-        <v>0.10059700226889207</v>
-      </c>
-      <c r="AJ30" s="58">
+        <v>0.10022108632222269</v>
+      </c>
+      <c r="AJ30" s="35">
         <f t="shared" si="56"/>
-        <v>9.2887653454471489E-2</v>
-      </c>
-      <c r="AK30" s="58">
+        <v>9.1691044309063094E-2</v>
+      </c>
+      <c r="AK30" s="35">
         <f t="shared" si="56"/>
-        <v>8.8651839642182123E-2</v>
+        <v>9.1001584156503154E-2</v>
       </c>
     </row>
     <row r="31" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -6634,20 +7121,20 @@
       <c r="AF31" s="12">
         <v>20.74</v>
       </c>
-      <c r="AG31" s="24">
+      <c r="AG31" s="20">
+        <v>27.19</v>
+      </c>
+      <c r="AH31" s="20">
+        <v>27.43</v>
+      </c>
+      <c r="AI31" s="20">
+        <v>28.26</v>
+      </c>
+      <c r="AJ31" s="20">
         <v>27.13</v>
       </c>
-      <c r="AH31" s="24">
-        <v>27.11</v>
-      </c>
-      <c r="AI31" s="24">
-        <v>28.01</v>
-      </c>
-      <c r="AJ31" s="24">
-        <v>27.05</v>
-      </c>
-      <c r="AK31" s="24">
-        <v>27.04</v>
+      <c r="AK31" s="20">
+        <v>28.06</v>
       </c>
     </row>
     <row r="32" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -6747,7 +7234,7 @@
       <c r="AF32" s="12">
         <v>20.66</v>
       </c>
-      <c r="AG32" s="24"/>
+      <c r="AG32" s="20"/>
     </row>
     <row r="33" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -11708,7 +12195,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:40" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -11805,12 +12292,8 @@
       <c r="AF83" s="1">
         <v>-107000000</v>
       </c>
-      <c r="AM83" s="62" t="s">
-        <v>123</v>
-      </c>
-      <c r="AN83" s="63"/>
     </row>
-    <row r="84" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:40" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -11907,12 +12390,18 @@
       <c r="AF84" s="1">
         <v>1274000000</v>
       </c>
-      <c r="AM84" s="64" t="s">
-        <v>124</v>
-      </c>
-      <c r="AN84" s="64"/>
+      <c r="AG84" s="39"/>
+      <c r="AH84" s="39"/>
+      <c r="AI84" s="39"/>
+      <c r="AJ84" s="39"/>
+      <c r="AK84" s="39"/>
+      <c r="AL84" s="39"/>
+      <c r="AM84" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN84" s="70"/>
     </row>
-    <row r="85" spans="1:40" ht="20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:40" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -12009,13 +12498,16 @@
       <c r="AF85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AM85" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="AN85" s="26">
-        <f>AF17</f>
-        <v>623000000</v>
-      </c>
+      <c r="AG85" s="39"/>
+      <c r="AH85" s="39"/>
+      <c r="AI85" s="39"/>
+      <c r="AJ85" s="39"/>
+      <c r="AK85" s="39"/>
+      <c r="AL85" s="39"/>
+      <c r="AM85" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN85" s="72"/>
     </row>
     <row r="86" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -12114,12 +12606,18 @@
       <c r="AF86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AM86" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="AN86" s="27">
-        <f>AF56</f>
-        <v>0</v>
+      <c r="AG86" s="39"/>
+      <c r="AH86" s="39"/>
+      <c r="AI86" s="39"/>
+      <c r="AJ86" s="39"/>
+      <c r="AK86" s="39"/>
+      <c r="AL86" s="39"/>
+      <c r="AM86" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN86" s="40">
+        <f>AF17</f>
+        <v>623000000</v>
       </c>
     </row>
     <row r="87" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -12219,12 +12717,18 @@
       <c r="AF87" s="10">
         <v>7802000000</v>
       </c>
-      <c r="AM87" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="AN87" s="26">
-        <f>AF61</f>
-        <v>15429000000</v>
+      <c r="AG87" s="39"/>
+      <c r="AH87" s="39"/>
+      <c r="AI87" s="39"/>
+      <c r="AJ87" s="39"/>
+      <c r="AK87" s="39"/>
+      <c r="AL87" s="39"/>
+      <c r="AM87" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN87" s="41">
+        <f>AF56</f>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -12324,12 +12828,18 @@
       <c r="AF88" s="1">
         <v>-1789000000</v>
       </c>
-      <c r="AM88" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN88" s="29">
-        <f>AN85/(AN86+AN87)</f>
-        <v>4.0378508004407287E-2</v>
+      <c r="AG88" s="39"/>
+      <c r="AH88" s="39"/>
+      <c r="AI88" s="39"/>
+      <c r="AJ88" s="39"/>
+      <c r="AK88" s="39"/>
+      <c r="AL88" s="39"/>
+      <c r="AM88" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN88" s="40">
+        <f>AF61</f>
+        <v>15429000000</v>
       </c>
     </row>
     <row r="89" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -12460,12 +12970,18 @@
         <f t="shared" si="74"/>
         <v>2.7112633365664402E-2</v>
       </c>
-      <c r="AM89" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="AN89" s="26">
-        <f>AF27</f>
-        <v>948000000</v>
+      <c r="AG89" s="39"/>
+      <c r="AH89" s="39"/>
+      <c r="AI89" s="39"/>
+      <c r="AJ89" s="39"/>
+      <c r="AK89" s="39"/>
+      <c r="AL89" s="39"/>
+      <c r="AM89" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN89" s="42">
+        <f>AN86/(AN87+AN88)</f>
+        <v>4.0378508004407287E-2</v>
       </c>
     </row>
     <row r="90" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -12565,12 +13081,18 @@
       <c r="AF90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AM90" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN90" s="26">
-        <f>AF25</f>
-        <v>6680000000</v>
+      <c r="AG90" s="39"/>
+      <c r="AH90" s="39"/>
+      <c r="AI90" s="39"/>
+      <c r="AJ90" s="39"/>
+      <c r="AK90" s="39"/>
+      <c r="AL90" s="39"/>
+      <c r="AM90" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN90" s="40">
+        <f>AF27</f>
+        <v>948000000</v>
       </c>
     </row>
     <row r="91" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -12670,12 +13192,18 @@
       <c r="AF91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AM91" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="AN91" s="29">
-        <f>AN89/AN90</f>
-        <v>0.14191616766467066</v>
+      <c r="AG91" s="39"/>
+      <c r="AH91" s="39"/>
+      <c r="AI91" s="39"/>
+      <c r="AJ91" s="39"/>
+      <c r="AK91" s="39"/>
+      <c r="AL91" s="39"/>
+      <c r="AM91" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN91" s="40">
+        <f>AF25</f>
+        <v>6680000000</v>
       </c>
     </row>
     <row r="92" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -12775,15 +13303,21 @@
       <c r="AF92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AM92" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="AN92" s="29">
-        <f>AN88*(1-AN91)</f>
-        <v>3.464814489240458E-2</v>
+      <c r="AG92" s="39"/>
+      <c r="AH92" s="39"/>
+      <c r="AI92" s="39"/>
+      <c r="AJ92" s="39"/>
+      <c r="AK92" s="39"/>
+      <c r="AL92" s="39"/>
+      <c r="AM92" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN92" s="42">
+        <f>AN90/AN91</f>
+        <v>0.14191616766467066</v>
       </c>
     </row>
-    <row r="93" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:40" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -12880,12 +13414,21 @@
       <c r="AF93" s="1">
         <v>-1789000000</v>
       </c>
-      <c r="AM93" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="AN93" s="65"/>
+      <c r="AG93" s="39"/>
+      <c r="AH93" s="39"/>
+      <c r="AI93" s="39"/>
+      <c r="AJ93" s="39"/>
+      <c r="AK93" s="39"/>
+      <c r="AL93" s="39"/>
+      <c r="AM93" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN93" s="42">
+        <f>AN89*(1-AN92)</f>
+        <v>3.464814489240458E-2</v>
+      </c>
     </row>
-    <row r="94" spans="1:40" ht="20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -12982,13 +13525,16 @@
       <c r="AF94" s="10">
         <v>-1789000000</v>
       </c>
-      <c r="AM94" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="AN94" s="30">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.7190000000000001E-2</v>
-      </c>
+      <c r="AG94" s="39"/>
+      <c r="AH94" s="39"/>
+      <c r="AI94" s="39"/>
+      <c r="AJ94" s="39"/>
+      <c r="AK94" s="39"/>
+      <c r="AL94" s="39"/>
+      <c r="AM94" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="AN94" s="72"/>
     </row>
     <row r="95" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -13087,12 +13633,18 @@
       <c r="AF95" s="1">
         <v>-2250000000</v>
       </c>
-      <c r="AM95" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN95" s="31" cm="1">
-        <f t="array" ref="AN95">_FV(A1,"Beta")</f>
-        <v>0.66790000000000005</v>
+      <c r="AG95" s="39"/>
+      <c r="AH95" s="39"/>
+      <c r="AI95" s="39"/>
+      <c r="AJ95" s="39"/>
+      <c r="AK95" s="39"/>
+      <c r="AL95" s="39"/>
+      <c r="AM95" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="AN95" s="43">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.9020000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -13192,11 +13744,18 @@
       <c r="AF96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AM96" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="AN96" s="30">
-        <v>8.4000000000000005E-2</v>
+      <c r="AG96" s="39"/>
+      <c r="AH96" s="39"/>
+      <c r="AI96" s="39"/>
+      <c r="AJ96" s="39"/>
+      <c r="AK96" s="39"/>
+      <c r="AL96" s="39"/>
+      <c r="AM96" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN96" s="44" cm="1">
+        <f t="array" ref="AN96">_FV(A1,"Beta")</f>
+        <v>0.62090000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -13296,15 +13855,20 @@
       <c r="AF97" s="1">
         <v>-7900000000</v>
       </c>
-      <c r="AM97" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN97" s="29">
-        <f>(AN94)+((AN95)*(AN96-AN94))</f>
-        <v>6.8454398999999999E-2</v>
+      <c r="AG97" s="39"/>
+      <c r="AH97" s="39"/>
+      <c r="AI97" s="39"/>
+      <c r="AJ97" s="39"/>
+      <c r="AK97" s="39"/>
+      <c r="AL97" s="39"/>
+      <c r="AM97" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN97" s="43">
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:40" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -13401,12 +13965,21 @@
       <c r="AF98" s="1">
         <v>-3016000000</v>
       </c>
-      <c r="AM98" s="65" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN98" s="65"/>
+      <c r="AG98" s="39"/>
+      <c r="AH98" s="39"/>
+      <c r="AI98" s="39"/>
+      <c r="AJ98" s="39"/>
+      <c r="AK98" s="39"/>
+      <c r="AL98" s="39"/>
+      <c r="AM98" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="AN98" s="42">
+        <f>(AN95)+((AN96)*(AN97-AN95))</f>
+        <v>7.0739082000000009E-2</v>
+      </c>
     </row>
-    <row r="99" spans="1:40" ht="20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -13503,13 +14076,16 @@
       <c r="AF99" s="1">
         <v>6096000000</v>
       </c>
-      <c r="AM99" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="AN99" s="26">
-        <f>AN86+AN87</f>
-        <v>15429000000</v>
-      </c>
+      <c r="AG99" s="39"/>
+      <c r="AH99" s="39"/>
+      <c r="AI99" s="39"/>
+      <c r="AJ99" s="39"/>
+      <c r="AK99" s="39"/>
+      <c r="AL99" s="39"/>
+      <c r="AM99" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN99" s="72"/>
     </row>
     <row r="100" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -13608,12 +14184,18 @@
       <c r="AF100" s="10">
         <v>-7070000000</v>
       </c>
-      <c r="AM100" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="AN100" s="29">
-        <f>AN99/AN103</f>
-        <v>0.11807137084925066</v>
+      <c r="AG100" s="39"/>
+      <c r="AH100" s="39"/>
+      <c r="AI100" s="39"/>
+      <c r="AJ100" s="39"/>
+      <c r="AK100" s="39"/>
+      <c r="AL100" s="39"/>
+      <c r="AM100" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="AN100" s="40">
+        <f>AN87+AN88</f>
+        <v>15429000000</v>
       </c>
     </row>
     <row r="101" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -13713,12 +14295,18 @@
       <c r="AF101" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AM101" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN101" s="22" cm="1">
-        <f t="array" ref="AN101">_FV(A1,"Market cap",TRUE)</f>
-        <v>115246200000</v>
+      <c r="AG101" s="39"/>
+      <c r="AH101" s="39"/>
+      <c r="AI101" s="39"/>
+      <c r="AJ101" s="39"/>
+      <c r="AK101" s="39"/>
+      <c r="AL101" s="39"/>
+      <c r="AM101" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN101" s="42">
+        <f>AN100/AN104</f>
+        <v>0.12161269925044331</v>
       </c>
     </row>
     <row r="102" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -13818,12 +14406,18 @@
       <c r="AF102" s="10">
         <v>-1057000000</v>
       </c>
-      <c r="AM102" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN102" s="29">
-        <f>AN101/AN103</f>
-        <v>0.88192862915074932</v>
+      <c r="AG102" s="39"/>
+      <c r="AH102" s="39"/>
+      <c r="AI102" s="39"/>
+      <c r="AJ102" s="39"/>
+      <c r="AK102" s="39"/>
+      <c r="AL102" s="39"/>
+      <c r="AM102" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN102" s="45" cm="1">
+        <f t="array" ref="AN102">_FV(A1,"Market cap",TRUE)</f>
+        <v>111440974066</v>
       </c>
     </row>
     <row r="103" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -13923,15 +14517,21 @@
       <c r="AF103" s="1">
         <v>3604000000</v>
       </c>
-      <c r="AM103" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="AN103" s="32">
-        <f>AN99+AN101</f>
-        <v>130675200000</v>
+      <c r="AG103" s="39"/>
+      <c r="AH103" s="39"/>
+      <c r="AI103" s="39"/>
+      <c r="AJ103" s="39"/>
+      <c r="AK103" s="39"/>
+      <c r="AL103" s="39"/>
+      <c r="AM103" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN103" s="42">
+        <f>AN102/AN104</f>
+        <v>0.87838730074955673</v>
       </c>
     </row>
-    <row r="104" spans="1:40" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:40" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -14028,17 +14628,28 @@
       <c r="AF104" s="11">
         <v>2547000000</v>
       </c>
-      <c r="AM104" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="AN104" s="64"/>
+      <c r="AG104" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH104" s="73"/>
+      <c r="AI104" s="73"/>
+      <c r="AJ104" s="73"/>
+      <c r="AK104" s="73"/>
+      <c r="AL104" s="39"/>
+      <c r="AM104" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN104" s="46">
+        <f>AN100+AN102</f>
+        <v>126869974066</v>
+      </c>
     </row>
-    <row r="105" spans="1:40" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:40" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>158</v>
       </c>
       <c r="B105" s="1">
-        <f t="shared" ref="B105:AE105" si="75">(B22*(1-$AN$91))+B77+B88+B81</f>
+        <f t="shared" ref="B105:AF105" si="75">(B22*(1-$AN$92))+B77+B88+B81</f>
         <v>1021357485.0299401</v>
       </c>
       <c r="C105" s="1">
@@ -14158,193 +14769,196 @@
         <v>8085298802.3952103</v>
       </c>
       <c r="AF105" s="1">
-        <f>(AF22*(1-$AN$91))+AF77+AF88+AF81</f>
+        <f t="shared" si="75"/>
         <v>7963283832.33533</v>
       </c>
-      <c r="AG105" s="20">
-        <f>AF105*(1+$AN$106)</f>
-        <v>8219625570.1676369</v>
-      </c>
-      <c r="AH105" s="20">
-        <f t="shared" ref="AH105:AK105" si="76">AG105*(1+$AN$106)</f>
-        <v>8484219065.4329853</v>
-      </c>
-      <c r="AI105" s="20">
-        <f t="shared" si="76"/>
-        <v>8757329945.9659576</v>
-      </c>
-      <c r="AJ105" s="20">
-        <f t="shared" si="76"/>
-        <v>9039232390.282259</v>
-      </c>
-      <c r="AK105" s="20">
-        <f t="shared" si="76"/>
-        <v>9330209402.8290424</v>
-      </c>
-      <c r="AL105" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="AM105" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="AN105" s="34">
-        <f>(AN100*AN92)+(AN102*AN97)</f>
-        <v>6.446284823423809E-2</v>
-      </c>
+      <c r="AG105" s="66">
+        <f>AG107/AG3</f>
+        <v>9.9699924981245316E-2</v>
+      </c>
+      <c r="AH105" s="66">
+        <f>AH107/AH3</f>
+        <v>0.1009036364432636</v>
+      </c>
+      <c r="AI105" s="66">
+        <f>AI107/AI3</f>
+        <v>0.10089701885570247</v>
+      </c>
+      <c r="AJ105" s="66">
+        <f>AJ107/AJ3</f>
+        <v>9.8588336330211218E-2</v>
+      </c>
+      <c r="AK105" s="66">
+        <f>AK107/AK3</f>
+        <v>9.7878862029440933E-2</v>
+      </c>
+      <c r="AL105" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM105" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN105" s="72"/>
     </row>
-    <row r="106" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>159</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15">
-        <f t="shared" ref="C106:AF106" si="77">(C107/B107)-1</f>
+        <f t="shared" ref="C106:AF106" si="76">(C107/B107)-1</f>
         <v>0.35735294117647065</v>
       </c>
       <c r="D106" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>6.6088840736728161E-2</v>
       </c>
       <c r="E106" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>-0.22662601626016265</v>
       </c>
       <c r="F106" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>0.18134034165571622</v>
       </c>
       <c r="G106" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>-0.49054505005561733</v>
       </c>
       <c r="H106" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>1.9126637554585151</v>
       </c>
       <c r="I106" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>-0.69415292353823088</v>
       </c>
       <c r="J106" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>2.715686274509804</v>
       </c>
       <c r="K106" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>-0.20448548812664913</v>
       </c>
       <c r="L106" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>0.34825870646766166</v>
       </c>
       <c r="M106" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>-0.30996309963099633</v>
       </c>
       <c r="N106" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>0.92067736185383242</v>
       </c>
       <c r="O106" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>8.0742459396751842E-2</v>
       </c>
       <c r="P106" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>0.24087591240875916</v>
       </c>
       <c r="Q106" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>0.14221453287197239</v>
       </c>
       <c r="R106" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>5.8770069675855741E-2</v>
       </c>
       <c r="S106" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>-0.33590844062947067</v>
       </c>
       <c r="T106" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>0.17492460146488575</v>
       </c>
       <c r="U106" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>0.19765309864319769</v>
       </c>
       <c r="V106" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>-0.81047152480097973</v>
       </c>
       <c r="W106" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>4.9935379644588043</v>
       </c>
       <c r="X106" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>-0.18571428571428572</v>
       </c>
       <c r="Y106" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>0.37768950678583257</v>
       </c>
       <c r="Z106" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>-8.6496876501681585E-3</v>
       </c>
       <c r="AA106" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>0.28429471643238013</v>
       </c>
       <c r="AB106" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>-0.64899037554255523</v>
       </c>
       <c r="AC106" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>2.1327956989247312</v>
       </c>
       <c r="AD106" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>0.10125278874206289</v>
       </c>
       <c r="AE106" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>0.19978182951534995</v>
       </c>
       <c r="AF106" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>-0.20353292635407194</v>
       </c>
-      <c r="AG106" s="47">
-        <v>6663000000</v>
-      </c>
-      <c r="AH106" s="47">
-        <v>6891000000</v>
-      </c>
-      <c r="AI106" s="47">
-        <v>7109000000</v>
-      </c>
-      <c r="AJ106" s="47">
-        <v>7373000000</v>
-      </c>
-      <c r="AK106" s="47">
-        <v>7650000000</v>
-      </c>
-      <c r="AL106" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="AM106" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="AN106" s="36">
-        <f>(SUM(AG4:AK4)/5)</f>
-        <v>3.2190456001507585E-2</v>
+      <c r="AG106" s="48">
+        <f>(AG107/AF107)-1</f>
+        <v>8.3659491193737834E-2</v>
+      </c>
+      <c r="AH106" s="48">
+        <f>(AH107/AG107)-1</f>
+        <v>4.0180586907449189E-2</v>
+      </c>
+      <c r="AI106" s="48">
+        <f>(AI107/AH107)-1</f>
+        <v>3.66030092592593E-2</v>
+      </c>
+      <c r="AJ106" s="48">
+        <f>(AJ107/AI107)-1</f>
+        <v>2.5401256106071246E-2</v>
+      </c>
+      <c r="AK106" s="48">
+        <f>(AK107/AJ107)-1</f>
+        <v>3.4435824145909955E-2</v>
+      </c>
+      <c r="AL106" s="49">
+        <f>SUM(AG106:AK106)/5</f>
+        <v>4.4056033522485508E-2</v>
+      </c>
+      <c r="AM106" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN106" s="50">
+        <f>(AN101*AN93)+(AN103*AN98)</f>
+        <v>6.6349965719867343E-2</v>
       </c>
     </row>
     <row r="107" spans="1:40" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="44" t="s">
+      <c r="A107" s="26" t="s">
         <v>160</v>
       </c>
       <c r="B107" s="1">
@@ -14440,153 +15054,241 @@
       <c r="AF107" s="1">
         <v>6132000000</v>
       </c>
-      <c r="AG107" s="21"/>
-      <c r="AH107" s="21"/>
-      <c r="AI107" s="21"/>
-      <c r="AJ107" s="21"/>
-      <c r="AK107" s="56">
-        <f>AK106*(1+AN107)/(AN108-AN107)</f>
-        <v>175494830175.80042</v>
-      </c>
-      <c r="AL107" s="23" t="s">
+      <c r="AG107" s="51">
+        <v>6645000000</v>
+      </c>
+      <c r="AH107" s="51">
+        <v>6912000000</v>
+      </c>
+      <c r="AI107" s="51">
+        <v>7165000000</v>
+      </c>
+      <c r="AJ107" s="51">
+        <v>7347000000</v>
+      </c>
+      <c r="AK107" s="51">
+        <v>7600000000</v>
+      </c>
+      <c r="AL107" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM107" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="AN107" s="24">
+        <f>(SUM(AG4:AK4)/5)</f>
+        <v>3.317674193559448E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:40" ht="19" x14ac:dyDescent="0.2">
+      <c r="AG108" s="68"/>
+      <c r="AH108" s="68"/>
+      <c r="AI108" s="68"/>
+      <c r="AJ108" s="68"/>
+      <c r="AK108" s="53">
+        <f>AK107*(1+AN108)/(AN109-AN108)</f>
+        <v>167249314634.92325</v>
+      </c>
+      <c r="AL108" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="AM107" s="37" t="s">
+      <c r="AM108" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="AN107" s="38">
+      <c r="AN108" s="25">
         <v>0.02</v>
       </c>
     </row>
-    <row r="108" spans="1:40" ht="19" x14ac:dyDescent="0.25">
-      <c r="AG108" s="56">
-        <f t="shared" ref="AG108:AJ108" si="78">AG107+AG106</f>
-        <v>6663000000</v>
-      </c>
-      <c r="AH108" s="56">
-        <f t="shared" si="78"/>
-        <v>6891000000</v>
-      </c>
-      <c r="AI108" s="56">
-        <f t="shared" si="78"/>
-        <v>7109000000</v>
-      </c>
-      <c r="AJ108" s="56">
-        <f t="shared" si="78"/>
-        <v>7373000000</v>
-      </c>
-      <c r="AK108" s="56">
-        <f>AK107+AK106</f>
-        <v>183144830175.80042</v>
-      </c>
-      <c r="AL108" s="23" t="s">
+    <row r="109" spans="1:40" ht="19" x14ac:dyDescent="0.2">
+      <c r="AG109" s="53">
+        <f t="shared" ref="AG109:AJ109" si="77">AG108+AG107</f>
+        <v>6645000000</v>
+      </c>
+      <c r="AH109" s="53">
+        <f t="shared" si="77"/>
+        <v>6912000000</v>
+      </c>
+      <c r="AI109" s="53">
+        <f t="shared" si="77"/>
+        <v>7165000000</v>
+      </c>
+      <c r="AJ109" s="53">
+        <f t="shared" si="77"/>
+        <v>7347000000</v>
+      </c>
+      <c r="AK109" s="53">
+        <f>AK108+AK107</f>
+        <v>174849314634.92325</v>
+      </c>
+      <c r="AL109" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="AM108" s="39" t="s">
+      <c r="AM109" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="AN108" s="36">
-        <f>AN105</f>
-        <v>6.446284823423809E-2</v>
+      <c r="AN109" s="24">
+        <f>AN106</f>
+        <v>6.6349965719867343E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:40" ht="19" x14ac:dyDescent="0.25">
-      <c r="AG109" s="61" t="s">
+    <row r="110" spans="1:40" ht="19" x14ac:dyDescent="0.2">
+      <c r="AG110" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="AH109" s="61"/>
+      <c r="AH110" s="71"/>
+      <c r="AI110" s="39"/>
+      <c r="AJ110" s="39"/>
+      <c r="AK110" s="39"/>
+      <c r="AL110" s="39"/>
+      <c r="AM110" s="39"/>
+      <c r="AN110" s="39"/>
     </row>
-    <row r="110" spans="1:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG110" s="40" t="s">
+    <row r="111" spans="1:40" ht="20" x14ac:dyDescent="0.2">
+      <c r="AG111" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="AH110" s="22">
-        <f>NPV(AN108,AG108,AH108,AI108,AJ108,AK108)</f>
-        <v>157989532436.3428</v>
-      </c>
+      <c r="AH111" s="45">
+        <f>NPV(AN109,AG109,AH109,AI109,AJ109,AK109)</f>
+        <v>150714711811.60019</v>
+      </c>
+      <c r="AI111" s="39"/>
+      <c r="AJ111" s="39"/>
+      <c r="AK111" s="39"/>
+      <c r="AL111" s="39"/>
+      <c r="AM111" s="39"/>
+      <c r="AN111" s="39"/>
     </row>
-    <row r="111" spans="1:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG111" s="40" t="s">
+    <row r="112" spans="1:40" ht="20" x14ac:dyDescent="0.2">
+      <c r="AG112" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="AH111" s="22">
+      <c r="AH112" s="45">
         <f>AF40</f>
         <v>2547000000</v>
       </c>
+      <c r="AI112" s="39"/>
+      <c r="AJ112" s="39"/>
+      <c r="AK112" s="39"/>
+      <c r="AL112" s="39"/>
+      <c r="AM112" s="39"/>
+      <c r="AN112" s="39"/>
     </row>
-    <row r="112" spans="1:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG112" s="40" t="s">
+    <row r="113" spans="33:40" ht="20" x14ac:dyDescent="0.2">
+      <c r="AG113" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="AH112" s="22">
-        <f>AN99</f>
+      <c r="AH113" s="45">
+        <f>AN100</f>
         <v>15429000000</v>
       </c>
+      <c r="AI113" s="39"/>
+      <c r="AJ113" s="39"/>
+      <c r="AK113" s="39"/>
+      <c r="AL113" s="39"/>
+      <c r="AM113" s="39"/>
+      <c r="AN113" s="39"/>
     </row>
-    <row r="113" spans="33:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG113" s="40" t="s">
+    <row r="114" spans="33:40" ht="20" x14ac:dyDescent="0.2">
+      <c r="AG114" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="AH113" s="22">
-        <f>AH110+AH111-AH112</f>
-        <v>145107532436.3428</v>
-      </c>
+      <c r="AH114" s="45">
+        <f>AH111+AH112-AH113</f>
+        <v>137832711811.60019</v>
+      </c>
+      <c r="AI114" s="39"/>
+      <c r="AJ114" s="39"/>
+      <c r="AK114" s="39"/>
+      <c r="AL114" s="39"/>
+      <c r="AM114" s="39"/>
+      <c r="AN114" s="39"/>
     </row>
-    <row r="114" spans="33:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG114" s="40" t="s">
+    <row r="115" spans="33:40" ht="20" x14ac:dyDescent="0.2">
+      <c r="AG115" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="AH114" s="40">
+      <c r="AH115" s="57">
         <f>AF34*(1+(5*AL16))</f>
         <v>264580918.94763336</v>
       </c>
+      <c r="AI115" s="39"/>
+      <c r="AJ115" s="39"/>
+      <c r="AK115" s="39"/>
+      <c r="AL115" s="39"/>
+      <c r="AM115" s="39"/>
+      <c r="AN115" s="39"/>
     </row>
-    <row r="115" spans="33:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG115" s="41" t="s">
+    <row r="116" spans="33:40" ht="20" x14ac:dyDescent="0.2">
+      <c r="AG116" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="AH115" s="42">
-        <f>AH113/AH114</f>
-        <v>548.44292254145103</v>
-      </c>
+      <c r="AH116" s="59">
+        <f>AH114/AH115</f>
+        <v>520.94728659885129</v>
+      </c>
+      <c r="AI116" s="39"/>
+      <c r="AJ116" s="39"/>
+      <c r="AK116" s="39"/>
+      <c r="AL116" s="39"/>
+      <c r="AM116" s="39"/>
+      <c r="AN116" s="39"/>
     </row>
-    <row r="116" spans="33:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG116" s="40" t="s">
+    <row r="117" spans="33:40" ht="20" x14ac:dyDescent="0.2">
+      <c r="AG117" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="AH116" s="43" cm="1">
-        <f t="array" ref="AH116">_FV(A1,"Price")</f>
-        <v>453.15</v>
-      </c>
+      <c r="AH117" s="60" cm="1">
+        <f t="array" ref="AH117">_FV(A1,"Price")</f>
+        <v>449.18</v>
+      </c>
+      <c r="AI117" s="39"/>
+      <c r="AJ117" s="39"/>
+      <c r="AK117" s="39"/>
+      <c r="AL117" s="39"/>
+      <c r="AM117" s="39"/>
+      <c r="AN117" s="39"/>
     </row>
-    <row r="117" spans="33:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG117" s="41" t="s">
+    <row r="118" spans="33:40" ht="20" x14ac:dyDescent="0.2">
+      <c r="AG118" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="AH117" s="45">
-        <f>AH115/AH116-1</f>
-        <v>0.21029001995244623</v>
-      </c>
+      <c r="AH118" s="61">
+        <f>AH116/AH117-1</f>
+        <v>0.15977400284707977</v>
+      </c>
+      <c r="AI118" s="39"/>
+      <c r="AJ118" s="39"/>
+      <c r="AK118" s="39"/>
+      <c r="AL118" s="39"/>
+      <c r="AM118" s="39"/>
+      <c r="AN118" s="39"/>
     </row>
-    <row r="118" spans="33:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG118" s="41" t="s">
+    <row r="119" spans="33:40" ht="20" x14ac:dyDescent="0.2">
+      <c r="AG119" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="AH118" s="46" t="str">
-        <f>IF(AH115&gt;AH116,"BUY","SELL")</f>
+      <c r="AH119" s="62" t="str">
+        <f>IF(AH116&gt;AH117,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
+      <c r="AI119" s="39"/>
+      <c r="AJ119" s="39"/>
+      <c r="AK119" s="39"/>
+      <c r="AL119" s="39"/>
+      <c r="AM119" s="39"/>
+      <c r="AN119" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="AG109:AH109"/>
-    <mergeCell ref="AM83:AN83"/>
+  <mergeCells count="7">
     <mergeCell ref="AM84:AN84"/>
-    <mergeCell ref="AM93:AN93"/>
-    <mergeCell ref="AM98:AN98"/>
-    <mergeCell ref="AM104:AN104"/>
+    <mergeCell ref="AG110:AH110"/>
+    <mergeCell ref="AM105:AN105"/>
+    <mergeCell ref="AM99:AN99"/>
+    <mergeCell ref="AM85:AN85"/>
+    <mergeCell ref="AM94:AN94"/>
+    <mergeCell ref="AG104:AK104"/>
   </mergeCells>
-  <conditionalFormatting sqref="AH118">
+  <conditionalFormatting sqref="AH119">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -14661,7 +15363,7 @@
     <hyperlink ref="AF36" r:id="rId62" tooltip="https://www.sec.gov/Archives/edgar/data/936468/000093646823000009/0000936468-23-000009-index.htm" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
     <hyperlink ref="AF74" r:id="rId63" tooltip="https://www.sec.gov/Archives/edgar/data/936468/000093646823000009/0000936468-23-000009-index.htm" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
     <hyperlink ref="AG1" r:id="rId64" display="https://finbox.com/NYSE:LMT/explorer/revenue_proj" xr:uid="{F0656187-5304-6A49-BB3A-32B14EAACEF1}"/>
-    <hyperlink ref="AL106" r:id="rId65" xr:uid="{87ACC1A8-2470-5F46-A811-B65357141DE6}"/>
+    <hyperlink ref="AL107" r:id="rId65" xr:uid="{87ACC1A8-2470-5F46-A811-B65357141DE6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId66"/>

--- a/Industrials/Lockheed Martin.xlsx
+++ b/Industrials/Lockheed Martin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AE56FF-C828-3D4B-AC47-5C3F2DE29575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C35FD5B-C430-F943-89AD-1345CA35F12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2798,7 +2798,7 @@
       <sheetData sheetId="6">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.9880000000000008E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2939,11 +2939,11 @@
     <v>Powered by Refinitiv</v>
     <v>508.1</v>
     <v>393.77</v>
-    <v>0.62090000000000001</v>
-    <v>3.11</v>
-    <v>6.9720000000000008E-3</v>
-    <v>0</v>
-    <v>0</v>
+    <v>0.6159</v>
+    <v>-5.01</v>
+    <v>-1.1153999999999999E-2</v>
+    <v>0.04</v>
+    <v>9.0060000000000002E-5</v>
     <v>USD</v>
     <v>Lockheed Martin Corporation is a security and aerospace company. It operates through four segments. Aeronautics segment is engaged in the research, design, development, manufacture, support and upgrade of military aircraft, including combat and air mobility aircraft, unmanned air vehicles and related technologies. Missiles and Fire Control segment provides air and missile defense systems; fire control systems; manned and unmanned ground vehicles, and energy management solutions. Rotary and Mission Systems segment provides design, manufacture, service and support for various military and commercial helicopters, surface ships, sea and land-based missile defense systems, radar systems, sea and air-based mission and combat systems, command and control mission solutions, cyber solutions, and simulation and training solutions. Space segment is engaged in the research and development, design, engineering and production of satellites, space transportation systems, strike and defensive systems.</v>
     <v>116000</v>
@@ -2951,25 +2951,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>6801 ROCKLEDGE DR, BETHESDA, MD, 20817 US</v>
-    <v>449.67</v>
+    <v>452.6</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>45218.999850856249</v>
+    <v>45219.999668703123</v>
     <v>0</v>
-    <v>442.19150000000002</v>
-    <v>111440974066</v>
+    <v>444.01</v>
+    <v>110197999579</v>
     <v>LOCKHEED MARTIN CORPORATION</v>
     <v>LOCKHEED MARTIN CORPORATION</v>
-    <v>443.66</v>
-    <v>16.289400000000001</v>
-    <v>446.07</v>
+    <v>451.37</v>
+    <v>16.402999999999999</v>
     <v>449.18</v>
-    <v>449.18</v>
+    <v>444.17</v>
+    <v>444.21</v>
     <v>248098700</v>
     <v>LMT</v>
     <v>LOCKHEED MARTIN CORPORATION (XNYS:LMT)</v>
-    <v>2012401</v>
-    <v>1507157</v>
+    <v>1715061</v>
+    <v>1547957</v>
     <v>1994</v>
   </rv>
   <rv s="2">
@@ -3560,7 +3560,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AC94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF109" sqref="AF109"/>
+      <selection pane="bottomRight" activeCell="AF115" sqref="AF115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5425,15 +5425,15 @@
       </c>
       <c r="AM16" s="30">
         <f>AN102/AF3</f>
-        <v>1.6889090395550437</v>
+        <v>1.6700715261123908</v>
       </c>
       <c r="AN16" s="30">
         <f>AN102/AF28</f>
-        <v>19.44190056978367</v>
+        <v>19.225052264305653</v>
       </c>
       <c r="AO16" s="30">
         <f>AN102/AF107</f>
-        <v>18.173674831376385</v>
+        <v>17.970971881767774</v>
       </c>
     </row>
     <row r="17" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -5762,15 +5762,15 @@
       </c>
       <c r="AM19" s="30">
         <f>AN102/AG3</f>
-        <v>1.6720326191447863</v>
+        <v>1.65338333951988</v>
       </c>
       <c r="AN19" s="30">
         <f>AN102/AG28</f>
-        <v>16.275883459869156</v>
+        <v>16.094347825749328</v>
       </c>
       <c r="AO19" s="30">
         <f>AN102/AG107</f>
-        <v>16.770650724755455</v>
+        <v>16.583596625884123</v>
       </c>
     </row>
     <row r="20" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6150,11 +6150,11 @@
       </c>
       <c r="AN22" s="65">
         <f>(-1*AF98)/AN102</f>
-        <v>2.7063654327122075E-2</v>
+        <v>2.7368917870762757E-2</v>
       </c>
       <c r="AO22" s="33">
         <f>AG107/AN102</f>
-        <v>5.9627978449511336E-2</v>
+        <v>6.0300550149608265E-2</v>
       </c>
     </row>
     <row r="23" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -13644,7 +13644,7 @@
       </c>
       <c r="AN95" s="43">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.9880000000000008E-2</v>
       </c>
     </row>
     <row r="96" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -13755,7 +13755,7 @@
       </c>
       <c r="AN96" s="44" cm="1">
         <f t="array" ref="AN96">_FV(A1,"Beta")</f>
-        <v>0.62090000000000001</v>
+        <v>0.6159</v>
       </c>
     </row>
     <row r="97" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -13976,7 +13976,7 @@
       </c>
       <c r="AN98" s="42">
         <f>(AN95)+((AN96)*(AN97-AN95))</f>
-        <v>7.0739082000000009E-2</v>
+        <v>7.0894508000000009E-2</v>
       </c>
     </row>
     <row r="99" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -14306,7 +14306,7 @@
       </c>
       <c r="AN101" s="42">
         <f>AN100/AN104</f>
-        <v>0.12161269925044331</v>
+        <v>0.12281595558045259</v>
       </c>
     </row>
     <row r="102" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -14417,7 +14417,7 @@
       </c>
       <c r="AN102" s="45" cm="1">
         <f t="array" ref="AN102">_FV(A1,"Market cap",TRUE)</f>
-        <v>111440974066</v>
+        <v>110197999579</v>
       </c>
     </row>
     <row r="103" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -14528,7 +14528,7 @@
       </c>
       <c r="AN103" s="42">
         <f>AN102/AN104</f>
-        <v>0.87838730074955673</v>
+        <v>0.87718404441954745</v>
       </c>
     </row>
     <row r="104" spans="1:40" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14641,7 +14641,7 @@
       </c>
       <c r="AN104" s="46">
         <f>AN100+AN102</f>
-        <v>126869974066</v>
+        <v>125626999579</v>
       </c>
     </row>
     <row r="105" spans="1:40" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -14954,7 +14954,7 @@
       </c>
       <c r="AN106" s="50">
         <f>(AN101*AN93)+(AN103*AN98)</f>
-        <v>6.6349965719867343E-2</v>
+        <v>6.6442876278624621E-2</v>
       </c>
     </row>
     <row r="107" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -15087,7 +15087,7 @@
       <c r="AJ108" s="68"/>
       <c r="AK108" s="53">
         <f>AK107*(1+AN108)/(AN109-AN108)</f>
-        <v>167249314634.92325</v>
+        <v>166914726673.97791</v>
       </c>
       <c r="AL108" s="54" t="s">
         <v>144</v>
@@ -15118,7 +15118,7 @@
       </c>
       <c r="AK109" s="53">
         <f>AK108+AK107</f>
-        <v>174849314634.92325</v>
+        <v>174514726673.97791</v>
       </c>
       <c r="AL109" s="54" t="s">
         <v>141</v>
@@ -15128,7 +15128,7 @@
       </c>
       <c r="AN109" s="24">
         <f>AN106</f>
-        <v>6.6349965719867343E-2</v>
+        <v>6.6442876278624621E-2</v>
       </c>
     </row>
     <row r="110" spans="1:40" ht="19" x14ac:dyDescent="0.2">
@@ -15149,7 +15149,7 @@
       </c>
       <c r="AH111" s="45">
         <f>NPV(AN109,AG109,AH109,AI109,AJ109,AK109)</f>
-        <v>150714711811.60019</v>
+        <v>150411792348.34967</v>
       </c>
       <c r="AI111" s="39"/>
       <c r="AJ111" s="39"/>
@@ -15194,7 +15194,7 @@
       </c>
       <c r="AH114" s="45">
         <f>AH111+AH112-AH113</f>
-        <v>137832711811.60019</v>
+        <v>137529792348.34967</v>
       </c>
       <c r="AI114" s="39"/>
       <c r="AJ114" s="39"/>
@@ -15224,7 +15224,7 @@
       </c>
       <c r="AH116" s="59">
         <f>AH114/AH115</f>
-        <v>520.94728659885129</v>
+        <v>519.80238369181109</v>
       </c>
       <c r="AI116" s="39"/>
       <c r="AJ116" s="39"/>
@@ -15239,7 +15239,7 @@
       </c>
       <c r="AH117" s="60" cm="1">
         <f t="array" ref="AH117">_FV(A1,"Price")</f>
-        <v>449.18</v>
+        <v>444.17</v>
       </c>
       <c r="AI117" s="39"/>
       <c r="AJ117" s="39"/>
@@ -15254,7 +15254,7 @@
       </c>
       <c r="AH118" s="61">
         <f>AH116/AH117-1</f>
-        <v>0.15977400284707977</v>
+        <v>0.17027800997773612</v>
       </c>
       <c r="AI118" s="39"/>
       <c r="AJ118" s="39"/>

--- a/Industrials/Lockheed Martin.xlsx
+++ b/Industrials/Lockheed Martin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C35FD5B-C430-F943-89AD-1345CA35F12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485606DC-4CC6-5D4F-B660-76B2C449FDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2773,13 +2773,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth"/>
       <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="Value"/>
+      <sheetName val="Concentrated"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
@@ -2795,14 +2797,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9880000000000008E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -2812,6 +2814,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2939,11 +2943,11 @@
     <v>Powered by Refinitiv</v>
     <v>508.1</v>
     <v>393.77</v>
-    <v>0.6159</v>
-    <v>-5.01</v>
-    <v>-1.1153999999999999E-2</v>
-    <v>0.04</v>
-    <v>9.0060000000000002E-5</v>
+    <v>0.60219999999999996</v>
+    <v>-1.72</v>
+    <v>-3.8419999999999999E-3</v>
+    <v>0.02</v>
+    <v>4.4850000000000006E-5</v>
     <v>USD</v>
     <v>Lockheed Martin Corporation is a security and aerospace company. It operates through four segments. Aeronautics segment is engaged in the research, design, development, manufacture, support and upgrade of military aircraft, including combat and air mobility aircraft, unmanned air vehicles and related technologies. Missiles and Fire Control segment provides air and missile defense systems; fire control systems; manned and unmanned ground vehicles, and energy management solutions. Rotary and Mission Systems segment provides design, manufacture, service and support for various military and commercial helicopters, surface ships, sea and land-based missile defense systems, radar systems, sea and air-based mission and combat systems, command and control mission solutions, cyber solutions, and simulation and training solutions. Space segment is engaged in the research and development, design, engineering and production of satellites, space transportation systems, strike and defensive systems.</v>
     <v>116000</v>
@@ -2951,25 +2955,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>6801 ROCKLEDGE DR, BETHESDA, MD, 20817 US</v>
-    <v>452.6</v>
+    <v>451.09</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>45219.999668703123</v>
+    <v>45225.996457418747</v>
     <v>0</v>
-    <v>444.01</v>
-    <v>110197999579</v>
+    <v>443.68</v>
+    <v>110644577239</v>
     <v>LOCKHEED MARTIN CORPORATION</v>
     <v>LOCKHEED MARTIN CORPORATION</v>
-    <v>451.37</v>
-    <v>16.402999999999999</v>
-    <v>449.18</v>
-    <v>444.17</v>
-    <v>444.21</v>
+    <v>448.01</v>
+    <v>16.348600000000001</v>
+    <v>447.69</v>
+    <v>445.97</v>
+    <v>445.99</v>
     <v>248098700</v>
     <v>LMT</v>
     <v>LOCKHEED MARTIN CORPORATION (XNYS:LMT)</v>
-    <v>1715061</v>
-    <v>1547957</v>
+    <v>1432131</v>
+    <v>1598915</v>
     <v>1994</v>
   </rv>
   <rv s="2">
@@ -3560,7 +3564,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AC94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF115" sqref="AF115"/>
+      <selection pane="bottomRight" activeCell="AH127" sqref="AH127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5425,15 +5429,15 @@
       </c>
       <c r="AM16" s="30">
         <f>AN102/AF3</f>
-        <v>1.6700715261123908</v>
+        <v>1.6768394950139427</v>
       </c>
       <c r="AN16" s="30">
         <f>AN102/AF28</f>
-        <v>19.225052264305653</v>
+        <v>19.302961835136077</v>
       </c>
       <c r="AO16" s="30">
         <f>AN102/AF107</f>
-        <v>17.970971881767774</v>
+        <v>18.043799288812785</v>
       </c>
     </row>
     <row r="17" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -5762,15 +5766,15 @@
       </c>
       <c r="AM19" s="30">
         <f>AN102/AG3</f>
-        <v>1.65338333951988</v>
+        <v>1.6600836795048761</v>
       </c>
       <c r="AN19" s="30">
         <f>AN102/AG28</f>
-        <v>16.094347825749328</v>
+        <v>16.159570209265436</v>
       </c>
       <c r="AO19" s="30">
         <f>AN102/AG107</f>
-        <v>16.583596625884123</v>
+        <v>16.650801691346878</v>
       </c>
     </row>
     <row r="20" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6150,11 +6154,11 @@
       </c>
       <c r="AN22" s="65">
         <f>(-1*AF98)/AN102</f>
-        <v>2.7368917870762757E-2</v>
+        <v>2.7258452924314853E-2</v>
       </c>
       <c r="AO22" s="33">
         <f>AG107/AN102</f>
-        <v>6.0300550149608265E-2</v>
+        <v>6.0057168329599529E-2</v>
       </c>
     </row>
     <row r="23" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -13644,7 +13648,7 @@
       </c>
       <c r="AN95" s="43">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9880000000000008E-2</v>
+        <v>4.845E-2</v>
       </c>
     </row>
     <row r="96" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -13755,7 +13759,7 @@
       </c>
       <c r="AN96" s="44" cm="1">
         <f t="array" ref="AN96">_FV(A1,"Beta")</f>
-        <v>0.6159</v>
+        <v>0.60219999999999996</v>
       </c>
     </row>
     <row r="97" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -13976,7 +13980,7 @@
       </c>
       <c r="AN98" s="42">
         <f>(AN95)+((AN96)*(AN97-AN95))</f>
-        <v>7.0894508000000009E-2</v>
+        <v>6.9858210000000004E-2</v>
       </c>
     </row>
     <row r="99" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -14306,7 +14310,7 @@
       </c>
       <c r="AN101" s="42">
         <f>AN100/AN104</f>
-        <v>0.12281595558045259</v>
+        <v>0.12238091706362041</v>
       </c>
     </row>
     <row r="102" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -14417,7 +14421,7 @@
       </c>
       <c r="AN102" s="45" cm="1">
         <f t="array" ref="AN102">_FV(A1,"Market cap",TRUE)</f>
-        <v>110197999579</v>
+        <v>110644577239</v>
       </c>
     </row>
     <row r="103" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -14528,7 +14532,7 @@
       </c>
       <c r="AN103" s="42">
         <f>AN102/AN104</f>
-        <v>0.87718404441954745</v>
+        <v>0.87761908293637958</v>
       </c>
     </row>
     <row r="104" spans="1:40" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14641,7 +14645,7 @@
       </c>
       <c r="AN104" s="46">
         <f>AN100+AN102</f>
-        <v>125626999579</v>
+        <v>126073577239</v>
       </c>
     </row>
     <row r="105" spans="1:40" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -14954,7 +14958,7 @@
       </c>
       <c r="AN106" s="50">
         <f>(AN101*AN93)+(AN103*AN98)</f>
-        <v>6.6442876278624621E-2</v>
+        <v>6.5549169942262689E-2</v>
       </c>
     </row>
     <row r="107" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -15087,7 +15091,7 @@
       <c r="AJ108" s="68"/>
       <c r="AK108" s="53">
         <f>AK107*(1+AN108)/(AN109-AN108)</f>
-        <v>166914726673.97791</v>
+        <v>170189709490.34412</v>
       </c>
       <c r="AL108" s="54" t="s">
         <v>144</v>
@@ -15118,7 +15122,7 @@
       </c>
       <c r="AK109" s="53">
         <f>AK108+AK107</f>
-        <v>174514726673.97791</v>
+        <v>177789709490.34412</v>
       </c>
       <c r="AL109" s="54" t="s">
         <v>141</v>
@@ -15128,7 +15132,7 @@
       </c>
       <c r="AN109" s="24">
         <f>AN106</f>
-        <v>6.6442876278624621E-2</v>
+        <v>6.5549169942262689E-2</v>
       </c>
     </row>
     <row r="110" spans="1:40" ht="19" x14ac:dyDescent="0.2">
@@ -15149,7 +15153,7 @@
       </c>
       <c r="AH111" s="45">
         <f>NPV(AN109,AG109,AH109,AI109,AJ109,AK109)</f>
-        <v>150411792348.34967</v>
+        <v>153376820439.99207</v>
       </c>
       <c r="AI111" s="39"/>
       <c r="AJ111" s="39"/>
@@ -15194,7 +15198,7 @@
       </c>
       <c r="AH114" s="45">
         <f>AH111+AH112-AH113</f>
-        <v>137529792348.34967</v>
+        <v>140494820439.99207</v>
       </c>
       <c r="AI114" s="39"/>
       <c r="AJ114" s="39"/>
@@ -15224,7 +15228,7 @@
       </c>
       <c r="AH116" s="59">
         <f>AH114/AH115</f>
-        <v>519.80238369181109</v>
+        <v>531.00889133958754</v>
       </c>
       <c r="AI116" s="39"/>
       <c r="AJ116" s="39"/>
@@ -15239,7 +15243,7 @@
       </c>
       <c r="AH117" s="60" cm="1">
         <f t="array" ref="AH117">_FV(A1,"Price")</f>
-        <v>444.17</v>
+        <v>445.97</v>
       </c>
       <c r="AI117" s="39"/>
       <c r="AJ117" s="39"/>
@@ -15254,7 +15258,7 @@
       </c>
       <c r="AH118" s="61">
         <f>AH116/AH117-1</f>
-        <v>0.17027800997773612</v>
+        <v>0.19068298616406376</v>
       </c>
       <c r="AI118" s="39"/>
       <c r="AJ118" s="39"/>

--- a/Industrials/Lockheed Martin.xlsx
+++ b/Industrials/Lockheed Martin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F02454-FDFF-4741-9495-6E70EF5C2D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44A6F0D-B6A4-6442-9DFE-E8A7374A24C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -845,7 +845,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -987,11 +987,6 @@
     <font>
       <sz val="13"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -1682,10 +1677,10 @@
     <xf numFmtId="10" fontId="13" fillId="9" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="9" fontId="13" fillId="12" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1700,10 +1695,10 @@
     <xf numFmtId="9" fontId="4" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -1737,11 +1732,14 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1759,7 +1757,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.3360000000000003E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1771,6 +1769,9 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1898,11 +1899,11 @@
     <v>Powered by Refinitiv</v>
     <v>508.1</v>
     <v>393.77</v>
-    <v>0.56999999999999995</v>
-    <v>-3.26</v>
-    <v>-7.2719999999999998E-3</v>
-    <v>3.88</v>
-    <v>8.7189999999999993E-3</v>
+    <v>0.51849999999999996</v>
+    <v>0.76</v>
+    <v>1.7000000000000001E-3</v>
+    <v>0.95</v>
+    <v>2.1199999999999999E-3</v>
     <v>USD</v>
     <v>Lockheed Martin Corporation is a security and aerospace company. It operates through four segments. Aeronautics segment is engaged in the research, design, development, manufacture, support and upgrade of military aircraft, including combat and air mobility aircraft, unmanned air vehicles and related technologies. Missiles and Fire Control segment provides air and missile defense systems; fire control systems; manned and unmanned ground vehicles, and energy management solutions. Rotary and Mission Systems segment provides design, manufacture, service and support for various military and commercial helicopters, surface ships, sea and land-based missile defense systems, radar systems, sea and air-based mission and combat systems, command and control mission solutions, cyber solutions, and simulation and training solutions. Space segment is engaged in the research and development, design, engineering and production of satellites, space transportation systems, strike and defensive systems.</v>
     <v>116000</v>
@@ -1910,25 +1911,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>6801 ROCKLEDGE DR, BETHESDA, MD, 20817 US</v>
-    <v>449.54</v>
+    <v>450.53</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>45260.039000693752</v>
+    <v>45269.041540971877</v>
     <v>0</v>
-    <v>443.91</v>
-    <v>110406402487</v>
+    <v>447.45949999999999</v>
+    <v>111115964769</v>
     <v>LOCKHEED MARTIN CORPORATION</v>
     <v>LOCKHEED MARTIN CORPORATION</v>
-    <v>449.54</v>
-    <v>16.1357</v>
-    <v>448.27</v>
-    <v>445.01</v>
-    <v>448.89</v>
+    <v>448.57</v>
+    <v>16.327400000000001</v>
+    <v>447.11</v>
+    <v>447.87</v>
+    <v>448.97</v>
     <v>248098700</v>
     <v>LMT</v>
     <v>LOCKHEED MARTIN CORPORATION (XNYS:LMT)</v>
-    <v>1272912</v>
-    <v>1204050</v>
+    <v>761176</v>
+    <v>1153653</v>
     <v>1994</v>
   </rv>
   <rv s="2">
@@ -2093,9 +2094,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -14040,7 +14041,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14093,7 +14094,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>110406402487</v>
+        <v>111115964769</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>201</v>
@@ -14121,14 +14122,14 @@
       </c>
       <c r="I3" s="40">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>109086336878.0654</v>
+        <v>108058625208.16904</v>
       </c>
       <c r="J3" s="41" t="s">
         <v>205</v>
       </c>
       <c r="K3" s="42">
         <f>(Financials!O172*-1)/Model!A3</f>
-        <v>2.7598037173240695E-2</v>
+        <v>2.7421802135583633E-2</v>
       </c>
       <c r="L3" s="43" t="s">
         <v>206</v>
@@ -14173,14 +14174,14 @@
       </c>
       <c r="I4" s="50">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>98323693312.679825</v>
+        <v>97393262915.484268</v>
       </c>
       <c r="J4" s="48" t="s">
         <v>212</v>
       </c>
       <c r="K4" s="51" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-7.2719999999999998E-3</v>
+        <v>1.7000000000000001E-3</v>
       </c>
       <c r="L4" s="52" t="s">
         <v>213</v>
@@ -14225,14 +14226,14 @@
       </c>
       <c r="I5" s="50">
         <f>I4+G5-G6</f>
-        <v>84451693312.679825</v>
+        <v>83521262915.484268</v>
       </c>
       <c r="J5" s="48" t="s">
         <v>219</v>
       </c>
       <c r="K5" s="54" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>445.01</v>
+        <v>447.87</v>
       </c>
       <c r="L5" s="55" t="s">
         <v>220</v>
@@ -14252,7 +14253,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="58">
         <f>O20/F10</f>
-        <v>1.6574800331326658</v>
+        <v>1.6681323620573179</v>
       </c>
       <c r="B6" s="46" t="s">
         <v>222</v>
@@ -14280,14 +14281,14 @@
       </c>
       <c r="I6" s="51">
         <f>N25</f>
-        <v>8.9192900009439399E-2</v>
+        <v>8.9850971965071649E-2</v>
       </c>
       <c r="J6" s="48" t="s">
         <v>225</v>
       </c>
       <c r="K6" s="59">
         <f>I5/G4</f>
-        <v>382.61003310188784</v>
+        <v>378.39470015702972</v>
       </c>
       <c r="L6" s="60" t="s">
         <v>226</v>
@@ -14307,14 +14308,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="61">
         <f>O20/F12</f>
-        <v>16.148369531519673</v>
+        <v>16.252152225976307</v>
       </c>
       <c r="B7" s="62" t="s">
         <v>228</v>
       </c>
       <c r="C7" s="63">
         <f>F15/A3</f>
-        <v>5.9779141891496093E-2</v>
+        <v>5.9397405347834588E-2</v>
       </c>
       <c r="D7" s="62" t="s">
         <v>229</v>
@@ -14341,7 +14342,7 @@
       </c>
       <c r="K7" s="69">
         <f>K6/K5-1</f>
-        <v>-0.14022149367005721</v>
+        <v>-0.15512380789731461</v>
       </c>
       <c r="L7" s="70" t="s">
         <v>232</v>
@@ -14668,7 +14669,7 @@
       </c>
       <c r="O14" s="89">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.3360000000000003E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
@@ -14820,7 +14821,7 @@
       </c>
       <c r="O17" s="99">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.7411200000000003E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="44"/>
       <c r="Q17" s="44"/>
@@ -14903,7 +14904,7 @@
       </c>
       <c r="O20" s="105">
         <f>A3</f>
-        <v>110406402487</v>
+        <v>111115964769</v>
       </c>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
@@ -14933,7 +14934,7 @@
       </c>
       <c r="O21" s="105">
         <f>O19+O20</f>
-        <v>127951402487</v>
+        <v>128660964769</v>
       </c>
       <c r="P21" s="44"/>
       <c r="Q21" s="44"/>
@@ -14961,7 +14962,7 @@
       </c>
       <c r="O22" s="107">
         <f>(O19/O21)</f>
-        <v>0.13712237348693845</v>
+        <v>0.13636614672912317</v>
       </c>
       <c r="P22" s="44"/>
       <c r="Q22" s="44"/>
@@ -14986,7 +14987,7 @@
       </c>
       <c r="O23" s="108">
         <f>O20/O21</f>
-        <v>0.86287762651306155</v>
+        <v>0.86363385327087683</v>
       </c>
       <c r="P23" s="44"/>
       <c r="Q23" s="44"/>
@@ -15030,7 +15031,7 @@
       <c r="M25" s="72"/>
       <c r="N25" s="112">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.9192900009439399E-2</v>
+        <v>8.9850971965071649E-2</v>
       </c>
       <c r="O25" s="113"/>
       <c r="P25" s="44"/>
